--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.net\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA32277-50E8-49EF-9CCC-F4EB69167598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7C26653B-15A0-4389-A348-94B3A80E8DAD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
     <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -318,8 +317,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,7 +350,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +361,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor theme="4" tint="-0.249977111117893"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -386,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -402,1244 +407,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="234">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1752,6 +526,149 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1766,7 +683,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shaheryar Malik" refreshedDate="45575.989884953706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="130" xr:uid="{21F7DBB8-B7F1-4EE8-B4D9-7CEB5FF62DC5}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Shaheryar Malik" refreshedDate="45575.989884953706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="130">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -2917,7 +1834,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8A3560EB-DB89-4513-B202-5D5AEDAE10C7}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -3083,32 +2000,70 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="5">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="28">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="27">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="26">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="16">
+      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="13">
@@ -3118,48 +2073,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="22">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="5" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -3176,17 +2093,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D69739C0-43F6-4D1A-9A6E-725E57ED0AA4}" name="Table2" displayName="Table2" ref="A1:F131" totalsRowShown="0" headerRowDxfId="233" dataDxfId="232">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F131" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{3DFFABC8-C6EC-4495-B138-E0C08B2469E5}" name="Sr. NO " dataDxfId="231"/>
-    <tableColumn id="1" xr3:uid="{280782D7-2B7D-4EE6-A057-1047000E8DD1}" name="Product" dataDxfId="230"/>
-    <tableColumn id="3" xr3:uid="{BD9741CF-928B-490B-A449-F82300853FD0}" name="Segment" dataDxfId="229"/>
-    <tableColumn id="6" xr3:uid="{C3498A19-3625-4891-AF4C-ECC5CDF122D0}" name="Sub Segment" dataDxfId="228"/>
-    <tableColumn id="4" xr3:uid="{961D8892-6AE8-4E23-A530-884EC6916771}" name="Task" dataDxfId="227"/>
-    <tableColumn id="5" xr3:uid="{74300884-3980-488A-B5F0-64310D7B518E}" name="Status" dataDxfId="226"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
+    <tableColumn id="1" name="Product" dataDxfId="4"/>
+    <tableColumn id="3" name="Segment" dataDxfId="3"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
+    <tableColumn id="4" name="Task" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3508,7 +2425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A44A9445-945C-40DE-99E9-5DDF06B77AC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3516,15 +2433,15 @@
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="40.5" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
@@ -3532,8 +2449,8 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:4" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="4.5" customHeight="1"/>
+    <row r="3" spans="1:4" ht="18.75" hidden="1">
       <c r="A3" s="4" t="s">
         <v>88</v>
       </c>
@@ -3543,7 +2460,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="4" t="s">
         <v>87</v>
       </c>
@@ -3557,7 +2474,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="18.75">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -3569,7 +2486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="18.75">
       <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
@@ -3581,7 +2498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="18.75">
       <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
@@ -3593,7 +2510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -3605,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="18.75">
       <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
@@ -3617,7 +2534,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="18.75">
       <c r="A10" s="6" t="s">
         <v>34</v>
       </c>
@@ -3629,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="18.75">
       <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
@@ -3641,7 +2558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="18.75">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -3653,7 +2570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="18.75">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -3665,7 +2582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="18.75">
       <c r="A14" s="6" t="s">
         <v>49</v>
       </c>
@@ -3679,7 +2596,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18.75">
       <c r="A15" s="6" t="s">
         <v>58</v>
       </c>
@@ -3691,7 +2608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="18.75">
       <c r="A16" s="6" t="s">
         <v>65</v>
       </c>
@@ -3703,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18.75">
       <c r="A17" s="6" t="s">
         <v>67</v>
       </c>
@@ -3715,7 +2632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="6" t="s">
         <v>78</v>
       </c>
@@ -3727,7 +2644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="18.75">
       <c r="A19" s="6" t="s">
         <v>83</v>
       </c>
@@ -3739,7 +2656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18.75">
       <c r="A20" s="6" t="s">
         <v>84</v>
       </c>
@@ -3751,7 +2668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="6" t="s">
         <v>86</v>
       </c>
@@ -3774,25 +2691,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37DE2C31-F4A2-4C1B-93AA-6D91125DD8B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B106" sqref="B106:D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.625" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3812,11 +2729,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3830,11 +2747,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -3848,11 +2765,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -3866,11 +2783,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -3884,11 +2801,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -3902,11 +2819,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3920,11 +2837,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -3936,11 +2853,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3954,11 +2871,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3972,11 +2889,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3990,11 +2907,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4008,7 +2925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4026,11 +2943,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4044,11 +2961,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4062,11 +2979,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4080,11 +2997,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4098,11 +3015,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4116,11 +3033,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4134,11 +3051,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4152,11 +3069,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4170,11 +3087,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4188,11 +3105,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4206,11 +3123,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -4224,11 +3141,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -4242,11 +3159,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -4260,11 +3177,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -4278,11 +3195,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -4296,11 +3213,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -4314,11 +3231,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -4332,11 +3249,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -4350,11 +3267,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -4368,11 +3285,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -4386,11 +3303,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -4404,11 +3321,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -4422,11 +3339,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -4440,11 +3357,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4458,11 +3375,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15.75">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4476,11 +3393,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4494,11 +3411,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15.75">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4512,11 +3429,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15.75">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -4530,11 +3447,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4548,11 +3465,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -4566,11 +3483,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15.75">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4584,11 +3501,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15.75">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4602,11 +3519,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4620,11 +3537,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15.75">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -4638,11 +3555,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15.75">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4656,11 +3573,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15.75">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4674,11 +3591,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4692,7 +3609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4710,11 +3627,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4728,11 +3645,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4746,11 +3663,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4764,11 +3681,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4782,7 +3699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4800,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4818,14 +3735,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4836,14 +3753,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4854,14 +3771,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4872,14 +3789,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15.75">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4890,14 +3807,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4908,14 +3825,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4926,14 +3843,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4944,7 +3861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4962,7 +3879,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4980,14 +3897,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4998,14 +3915,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -5016,14 +3933,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15.75">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -5034,14 +3951,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15.75">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -5052,14 +3969,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15.75">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -5070,14 +3987,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15.75">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -5088,14 +4005,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -5106,14 +4023,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15.75">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -5124,14 +4041,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15.75">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -5142,14 +4059,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15.75">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -5160,14 +4077,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15.75">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -5178,14 +4095,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15.75">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -5196,14 +4113,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15.75">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -5214,14 +4131,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15.75">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -5232,14 +4149,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15.75">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -5250,14 +4167,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15.75">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -5268,14 +4185,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -5286,14 +4203,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -5304,14 +4221,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15.75">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -5322,11 +4239,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -5340,11 +4257,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15.75">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -5358,11 +4275,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -5376,11 +4293,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15.75">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -5394,11 +4311,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15.75">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -5412,11 +4329,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15.75">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -5430,7 +4347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15.75">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5448,7 +4365,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15.75">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5466,7 +4383,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15.75">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5484,7 +4401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15.75">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5502,7 +4419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15.75">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5520,7 +4437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15.75">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5538,7 +4455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5556,7 +4473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5574,7 +4491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5592,7 +4509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5610,7 +4527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5628,7 +4545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5646,7 +4563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5664,7 +4581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5682,17 +4599,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E106" s="1"/>
@@ -5700,17 +4617,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C107" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D107" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="1"/>
@@ -5718,17 +4635,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D108" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E108" s="1"/>
@@ -5736,17 +4653,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15.75">
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="C109" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E109" s="1"/>
@@ -5754,17 +4671,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15.75">
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C110" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="1"/>
@@ -5772,17 +4689,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="C111" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E111" s="1"/>
@@ -5790,7 +4707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15.75">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5808,7 +4725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15.75">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5826,7 +4743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15.75">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5844,7 +4761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15.75">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5862,7 +4779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15.75">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5880,7 +4797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15.75">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5898,7 +4815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15.75">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5916,7 +4833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15.75">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5934,7 +4851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15.75">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5952,7 +4869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15.75">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5970,7 +4887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15.75">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5988,7 +4905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15.75">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -6006,7 +4923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15.75">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -6024,7 +4941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -6042,7 +4959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15.75">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -6060,7 +4977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15.75">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -6078,7 +4995,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15.75">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -6096,7 +5013,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15.75">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -6114,7 +5031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15.75">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -6132,7 +5049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15.75">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -6150,7 +5067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15.75">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -6158,7 +5075,7 @@
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
     </row>
-    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.75">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6166,7 +5083,7 @@
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
     </row>
-    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6174,7 +5091,7 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
     </row>
-    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15.75">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6184,15 +5101,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F131">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="17" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="92">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Listing</t>
+  </si>
+  <si>
+    <t>ADD Recipt</t>
   </si>
 </sst>
 </file>
@@ -338,16 +341,15 @@
       <name val="Eras Medium ITC"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="24"/>
+      <color theme="0"/>
       <name val="Eras Medium ITC"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color theme="0"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Eras Medium ITC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -365,7 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,22 +400,701 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="126">
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -525,36 +1206,6 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -683,13 +1334,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Shaheryar Malik" refreshedDate="45575.989884953706" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="130">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45584.527410879629" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="141">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Sr. NO " numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="130"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="140"/>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
       <sharedItems count="16">
@@ -712,60 +1363,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Segment" numFmtId="0">
-      <sharedItems count="52">
-        <s v="List"/>
-        <s v="Graphs"/>
-        <s v="Diseases"/>
-        <s v="FAQS"/>
-        <s v="Diet Plan"/>
-        <s v="Dry Fruit and Seeds"/>
-        <s v="Exercise"/>
-        <s v="Fruit"/>
-        <s v="Miscellaneous"/>
-        <s v="Pulses-Grains"/>
-        <s v="Stats"/>
-        <s v="Tips and Guides"/>
-        <s v="Vegetable"/>
-        <s v="Dry Fruits"/>
-        <s v="Work out Plan"/>
-        <s v="Lab Reports"/>
-        <s v="Radiology"/>
-        <s v="Admin Activity"/>
-        <s v="Customer"/>
-        <s v="Laboratories "/>
-        <s v="Login"/>
-        <s v="Specialities"/>
-        <s v="System Users"/>
-        <s v="Company"/>
-        <s v="Forms"/>
-        <s v="Take Type"/>
-        <s v="Timing"/>
-        <s v="LookUps (Nav)"/>
-        <s v="Admin Approval"/>
-        <s v="ClinTa Extended"/>
-        <s v="Fruits"/>
-        <s v=" Users"/>
-        <s v="LookUps Options"/>
-        <s v="Lab Reports "/>
-        <s v="Radiology "/>
-        <s v="Lab Reports Parameters"/>
-        <s v="Radiology Parameters"/>
-        <s v="Sponsors"/>
-        <s v="Doctor Websites"/>
-        <s v="Hospital Websites"/>
-        <s v="Image Database"/>
-        <s v="General Banners"/>
-        <s v="Branches"/>
-        <s v="RCCS"/>
-        <s v="Discount Center"/>
-        <s v="Support Vidoes"/>
-        <s v="Diet Categories"/>
-        <s v="Database Compare"/>
-        <s v="Profile"/>
-        <s v="Deafut Configration"/>
-        <s v="Deafut Lookup"/>
-        <s v="Pharmacy Profile"/>
-      </sharedItems>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Sub Segment" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -774,9 +1372,10 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
         <s v="Pending"/>
         <s v="Complete"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -789,19 +1388,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="130">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="141">
   <r>
     <n v="1"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="Lsiting"/>
+    <s v="List"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="2"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="List"/>
     <s v="Filters"/>
     <m/>
     <x v="0"/>
@@ -809,15 +1408,15 @@
   <r>
     <n v="3"/>
     <x v="0"/>
-    <x v="0"/>
-    <s v="Lisiting"/>
+    <s v="List"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="4"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="List"/>
     <s v="Add"/>
     <m/>
     <x v="0"/>
@@ -825,7 +1424,7 @@
   <r>
     <n v="5"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="List"/>
     <s v="Delete"/>
     <m/>
     <x v="0"/>
@@ -833,7 +1432,7 @@
   <r>
     <n v="6"/>
     <x v="0"/>
-    <x v="0"/>
+    <s v="List"/>
     <s v="Update"/>
     <m/>
     <x v="0"/>
@@ -841,7 +1440,7 @@
   <r>
     <n v="7"/>
     <x v="1"/>
-    <x v="1"/>
+    <s v="Graphs"/>
     <m/>
     <m/>
     <x v="0"/>
@@ -849,15 +1448,15 @@
   <r>
     <n v="8"/>
     <x v="2"/>
-    <x v="2"/>
-    <s v="Lisiting"/>
+    <s v="Diseases"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="9"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="Diseases"/>
     <s v="Add"/>
     <m/>
     <x v="0"/>
@@ -865,7 +1464,7 @@
   <r>
     <n v="10"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="Diseases"/>
     <s v="Delete"/>
     <m/>
     <x v="0"/>
@@ -873,7 +1472,7 @@
   <r>
     <n v="11"/>
     <x v="2"/>
-    <x v="2"/>
+    <s v="Diseases"/>
     <s v="Update"/>
     <m/>
     <x v="0"/>
@@ -881,7 +1480,7 @@
   <r>
     <n v="12"/>
     <x v="3"/>
-    <x v="3"/>
+    <s v="FAQS"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -889,7 +1488,7 @@
   <r>
     <n v="13"/>
     <x v="4"/>
-    <x v="4"/>
+    <s v="Diet Plan"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -897,23 +1496,23 @@
   <r>
     <n v="14"/>
     <x v="4"/>
-    <x v="5"/>
+    <s v="Dry Fruit and Seeds"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="15"/>
     <x v="4"/>
-    <x v="6"/>
-    <s v="Lisiting"/>
+    <s v="Exercise"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="16"/>
     <x v="4"/>
-    <x v="6"/>
+    <s v="Exercise"/>
     <s v="Add"/>
     <m/>
     <x v="0"/>
@@ -921,7 +1520,7 @@
   <r>
     <n v="17"/>
     <x v="4"/>
-    <x v="6"/>
+    <s v="Exercise"/>
     <s v="Delete"/>
     <m/>
     <x v="0"/>
@@ -929,7 +1528,7 @@
   <r>
     <n v="18"/>
     <x v="4"/>
-    <x v="6"/>
+    <s v="Exercise"/>
     <s v="Update"/>
     <m/>
     <x v="0"/>
@@ -937,127 +1536,127 @@
   <r>
     <n v="19"/>
     <x v="4"/>
-    <x v="7"/>
-    <s v="Lisiting"/>
+    <s v="Fruit"/>
+    <s v="Listing"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
     <n v="20"/>
     <x v="4"/>
-    <x v="7"/>
+    <s v="Fruit"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="21"/>
     <x v="4"/>
-    <x v="7"/>
+    <s v="Fruit"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="22"/>
     <x v="4"/>
-    <x v="7"/>
+    <s v="Fruit"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="23"/>
     <x v="4"/>
-    <x v="7"/>
+    <s v="Fruit"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="24"/>
     <x v="4"/>
-    <x v="8"/>
+    <s v="Miscellaneous"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="25"/>
     <x v="4"/>
-    <x v="8"/>
+    <s v="Miscellaneous"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="26"/>
     <x v="4"/>
-    <x v="8"/>
+    <s v="Miscellaneous"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="27"/>
     <x v="4"/>
-    <x v="8"/>
-    <s v="Lisitng"/>
+    <s v="Miscellaneous"/>
+    <s v="Listing"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
     <n v="28"/>
     <x v="4"/>
-    <x v="8"/>
+    <s v="Miscellaneous"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="29"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="Pulses-Grains"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="30"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="Pulses-Grains"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="31"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="Pulses-Grains"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="32"/>
     <x v="4"/>
-    <x v="9"/>
-    <s v="Lisitng"/>
+    <s v="Pulses-Grains"/>
+    <s v="Listing"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
     <n v="33"/>
     <x v="4"/>
-    <x v="9"/>
+    <s v="Pulses-Grains"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="34"/>
     <x v="4"/>
-    <x v="10"/>
+    <s v="Stats"/>
     <s v="Premium Members"/>
     <m/>
     <x v="0"/>
@@ -1065,7 +1664,7 @@
   <r>
     <n v="35"/>
     <x v="4"/>
-    <x v="10"/>
+    <s v="Stats"/>
     <s v="Basic Members"/>
     <m/>
     <x v="0"/>
@@ -1073,7 +1672,7 @@
   <r>
     <n v="36"/>
     <x v="4"/>
-    <x v="11"/>
+    <s v="Tips and Guides"/>
     <s v="Add"/>
     <m/>
     <x v="0"/>
@@ -1081,7 +1680,7 @@
   <r>
     <n v="37"/>
     <x v="4"/>
-    <x v="11"/>
+    <s v="Tips and Guides"/>
     <s v="Update"/>
     <m/>
     <x v="0"/>
@@ -1089,7 +1688,7 @@
   <r>
     <n v="38"/>
     <x v="4"/>
-    <x v="11"/>
+    <s v="Tips and Guides"/>
     <s v="Delete"/>
     <m/>
     <x v="0"/>
@@ -1097,95 +1696,95 @@
   <r>
     <n v="39"/>
     <x v="4"/>
-    <x v="11"/>
-    <s v="Lisitng"/>
+    <s v="Tips and Guides"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="40"/>
     <x v="4"/>
-    <x v="12"/>
+    <s v="Vegetable"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="41"/>
     <x v="4"/>
-    <x v="12"/>
+    <s v="Vegetable"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="42"/>
     <x v="4"/>
-    <x v="12"/>
+    <s v="Vegetable"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="43"/>
     <x v="4"/>
-    <x v="12"/>
-    <s v="Lisitng"/>
+    <s v="Vegetable"/>
+    <s v="Listing"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
     <n v="44"/>
     <x v="4"/>
-    <x v="12"/>
+    <s v="Vegetable"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="45"/>
     <x v="4"/>
-    <x v="13"/>
+    <s v="Dry Fruits"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="46"/>
     <x v="4"/>
-    <x v="13"/>
+    <s v="Dry Fruits"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="47"/>
     <x v="4"/>
-    <x v="13"/>
+    <s v="Dry Fruits"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="48"/>
     <x v="4"/>
-    <x v="13"/>
-    <s v="Lisitng"/>
+    <s v="Dry Fruits"/>
+    <s v="Listing"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
     <n v="49"/>
     <x v="4"/>
-    <x v="13"/>
+    <s v="Dry Fruits"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="50"/>
     <x v="4"/>
-    <x v="14"/>
+    <s v="Work out Plan"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1193,7 +1792,7 @@
   <r>
     <n v="51"/>
     <x v="5"/>
-    <x v="15"/>
+    <s v="Lab Reports"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1201,7 +1800,7 @@
   <r>
     <n v="52"/>
     <x v="5"/>
-    <x v="15"/>
+    <s v="Lab Reports"/>
     <s v="Filters"/>
     <m/>
     <x v="0"/>
@@ -1209,7 +1808,7 @@
   <r>
     <n v="53"/>
     <x v="5"/>
-    <x v="16"/>
+    <s v="Radiology"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1217,7 +1816,7 @@
   <r>
     <n v="54"/>
     <x v="5"/>
-    <x v="16"/>
+    <s v="Radiology"/>
     <s v="Filters"/>
     <m/>
     <x v="0"/>
@@ -1225,7 +1824,7 @@
   <r>
     <n v="55"/>
     <x v="6"/>
-    <x v="17"/>
+    <s v="Admin Activity"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1233,7 +1832,7 @@
   <r>
     <n v="56"/>
     <x v="6"/>
-    <x v="17"/>
+    <s v="Admin Activity"/>
     <s v="Filters"/>
     <m/>
     <x v="0"/>
@@ -1241,15 +1840,15 @@
   <r>
     <n v="57"/>
     <x v="6"/>
-    <x v="18"/>
-    <s v="Lisitng"/>
+    <s v="Customer"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="58"/>
     <x v="6"/>
-    <x v="18"/>
+    <s v="Customer"/>
     <s v="Add"/>
     <m/>
     <x v="0"/>
@@ -1257,7 +1856,7 @@
   <r>
     <n v="59"/>
     <x v="6"/>
-    <x v="18"/>
+    <s v="Customer"/>
     <s v="Update"/>
     <m/>
     <x v="0"/>
@@ -1265,7 +1864,7 @@
   <r>
     <n v="60"/>
     <x v="6"/>
-    <x v="18"/>
+    <s v="Customer"/>
     <s v="Delete"/>
     <m/>
     <x v="0"/>
@@ -1273,7 +1872,7 @@
   <r>
     <n v="61"/>
     <x v="6"/>
-    <x v="18"/>
+    <s v="Customer"/>
     <s v="Filters"/>
     <m/>
     <x v="0"/>
@@ -1281,7 +1880,7 @@
   <r>
     <n v="62"/>
     <x v="6"/>
-    <x v="19"/>
+    <s v="Laboratories "/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1289,7 +1888,7 @@
   <r>
     <n v="63"/>
     <x v="6"/>
-    <x v="19"/>
+    <s v="Laboratories "/>
     <s v="Filters"/>
     <m/>
     <x v="0"/>
@@ -1297,7 +1896,7 @@
   <r>
     <n v="64"/>
     <x v="6"/>
-    <x v="20"/>
+    <s v="Login"/>
     <s v="Login"/>
     <m/>
     <x v="0"/>
@@ -1305,7 +1904,7 @@
   <r>
     <n v="65"/>
     <x v="6"/>
-    <x v="20"/>
+    <s v="Login"/>
     <s v="Forget Password"/>
     <m/>
     <x v="0"/>
@@ -1313,7 +1912,7 @@
   <r>
     <n v="66"/>
     <x v="6"/>
-    <x v="21"/>
+    <s v="Specialities"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1321,7 +1920,7 @@
   <r>
     <n v="67"/>
     <x v="6"/>
-    <x v="21"/>
+    <s v="Specialities"/>
     <s v="Filters"/>
     <m/>
     <x v="0"/>
@@ -1329,7 +1928,7 @@
   <r>
     <n v="68"/>
     <x v="6"/>
-    <x v="22"/>
+    <s v="System Users"/>
     <s v="List"/>
     <m/>
     <x v="0"/>
@@ -1337,7 +1936,7 @@
   <r>
     <n v="69"/>
     <x v="6"/>
-    <x v="22"/>
+    <s v="System Users"/>
     <s v="Filter"/>
     <m/>
     <x v="0"/>
@@ -1345,7 +1944,7 @@
   <r>
     <n v="70"/>
     <x v="6"/>
-    <x v="22"/>
+    <s v="System Users"/>
     <s v="Access Level"/>
     <m/>
     <x v="0"/>
@@ -1353,7 +1952,7 @@
   <r>
     <n v="71"/>
     <x v="6"/>
-    <x v="22"/>
+    <s v="System Users"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1361,7 +1960,7 @@
   <r>
     <n v="72"/>
     <x v="7"/>
-    <x v="23"/>
+    <s v="Company"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1369,7 +1968,7 @@
   <r>
     <n v="73"/>
     <x v="7"/>
-    <x v="23"/>
+    <s v="Company"/>
     <s v="Filter"/>
     <m/>
     <x v="0"/>
@@ -1377,7 +1976,7 @@
   <r>
     <n v="74"/>
     <x v="7"/>
-    <x v="24"/>
+    <s v="Forms"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1385,7 +1984,7 @@
   <r>
     <n v="75"/>
     <x v="7"/>
-    <x v="0"/>
+    <s v="List"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1393,7 +1992,7 @@
   <r>
     <n v="76"/>
     <x v="7"/>
-    <x v="0"/>
+    <s v="List"/>
     <s v="Filter"/>
     <m/>
     <x v="0"/>
@@ -1401,7 +2000,7 @@
   <r>
     <n v="77"/>
     <x v="7"/>
-    <x v="25"/>
+    <s v="Take Type"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1409,7 +2008,7 @@
   <r>
     <n v="78"/>
     <x v="7"/>
-    <x v="26"/>
+    <s v="Timing"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1417,15 +2016,15 @@
   <r>
     <n v="79"/>
     <x v="6"/>
-    <x v="27"/>
-    <s v="Lisiting"/>
+    <s v="LookUps (Nav)"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="80"/>
     <x v="6"/>
-    <x v="27"/>
+    <s v="LookUps (Nav)"/>
     <s v="Add"/>
     <m/>
     <x v="0"/>
@@ -1433,7 +2032,7 @@
   <r>
     <n v="81"/>
     <x v="6"/>
-    <x v="27"/>
+    <s v="LookUps (Nav)"/>
     <s v="Update"/>
     <m/>
     <x v="0"/>
@@ -1441,7 +2040,7 @@
   <r>
     <n v="82"/>
     <x v="6"/>
-    <x v="27"/>
+    <s v="LookUps (Nav)"/>
     <s v="Delete"/>
     <m/>
     <x v="0"/>
@@ -1449,7 +2048,7 @@
   <r>
     <n v="83"/>
     <x v="6"/>
-    <x v="27"/>
+    <s v="LookUps (Nav)"/>
     <s v="Filters"/>
     <m/>
     <x v="0"/>
@@ -1457,7 +2056,7 @@
   <r>
     <n v="84"/>
     <x v="6"/>
-    <x v="28"/>
+    <s v="Admin Approval"/>
     <s v="List"/>
     <m/>
     <x v="0"/>
@@ -1465,7 +2064,7 @@
   <r>
     <n v="85"/>
     <x v="3"/>
-    <x v="3"/>
+    <s v="FAQS"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1473,7 +2072,7 @@
   <r>
     <n v="86"/>
     <x v="3"/>
-    <x v="4"/>
+    <s v="Diet Plan"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1481,7 +2080,7 @@
   <r>
     <n v="87"/>
     <x v="3"/>
-    <x v="14"/>
+    <s v="Work out Plan"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1489,7 +2088,7 @@
   <r>
     <n v="88"/>
     <x v="3"/>
-    <x v="11"/>
+    <s v="Tips and Guides"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1497,7 +2096,7 @@
   <r>
     <n v="89"/>
     <x v="3"/>
-    <x v="11"/>
+    <s v="Tips and Guides"/>
     <s v="Filter"/>
     <m/>
     <x v="0"/>
@@ -1505,7 +2104,7 @@
   <r>
     <n v="90"/>
     <x v="3"/>
-    <x v="6"/>
+    <s v="Exercise"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1513,7 +2112,7 @@
   <r>
     <n v="91"/>
     <x v="8"/>
-    <x v="29"/>
+    <s v="ClinTa Extended"/>
     <s v="Filter"/>
     <m/>
     <x v="0"/>
@@ -1521,7 +2120,7 @@
   <r>
     <n v="92"/>
     <x v="8"/>
-    <x v="29"/>
+    <s v="ClinTa Extended"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1529,71 +2128,71 @@
   <r>
     <n v="93"/>
     <x v="9"/>
-    <x v="30"/>
+    <s v="Fruits"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="94"/>
     <x v="9"/>
-    <x v="12"/>
+    <s v="Vegetable"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="95"/>
     <x v="9"/>
-    <x v="9"/>
+    <s v="Pulses-Grains"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="96"/>
     <x v="9"/>
-    <x v="13"/>
+    <s v="Dry Fruits"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="97"/>
     <x v="9"/>
-    <x v="8"/>
+    <s v="Miscellaneous"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="98"/>
     <x v="10"/>
-    <x v="2"/>
+    <s v=" Users"/>
+    <s v="Add"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <x v="11"/>
+    <s v="List"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <x v="11"/>
+    <s v="List"/>
     <s v="Filter"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="99"/>
-    <x v="10"/>
-    <x v="2"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="100"/>
-    <x v="10"/>
-    <x v="31"/>
-    <s v="Crud"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="101"/>
     <x v="11"/>
-    <x v="0"/>
+    <s v="LookUps Options"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1601,79 +2200,79 @@
   <r>
     <n v="102"/>
     <x v="11"/>
-    <x v="0"/>
+    <s v="LookUps Options"/>
     <s v="Filter"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="103"/>
-    <x v="11"/>
-    <x v="32"/>
+    <x v="5"/>
+    <s v="Lab Reports "/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="104"/>
-    <x v="11"/>
-    <x v="32"/>
-    <s v="Filter"/>
+    <x v="5"/>
+    <s v="Radiology "/>
+    <s v="Crud"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="105"/>
     <x v="5"/>
-    <x v="33"/>
-    <s v="Crud"/>
+    <s v="Lab Reports "/>
+    <s v="Filter"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="106"/>
     <x v="5"/>
-    <x v="34"/>
-    <s v="Crud"/>
+    <s v="Radiology "/>
+    <s v="Filter"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="107"/>
     <x v="5"/>
-    <x v="33"/>
-    <s v="Filter"/>
+    <s v="Lab Reports Parameters"/>
+    <s v="Crud"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="108"/>
     <x v="5"/>
-    <x v="34"/>
+    <s v="Radiology Parameters"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <x v="12"/>
+    <s v="Sponsors"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <x v="12"/>
+    <s v="Sponsors"/>
     <s v="Filter"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="109"/>
-    <x v="5"/>
-    <x v="35"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="110"/>
-    <x v="5"/>
-    <x v="36"/>
-    <s v="Crud"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="111"/>
     <x v="12"/>
-    <x v="37"/>
+    <s v="Doctor Websites"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1681,7 +2280,7 @@
   <r>
     <n v="112"/>
     <x v="12"/>
-    <x v="37"/>
+    <s v="Doctor Websites"/>
     <s v="Filter"/>
     <m/>
     <x v="0"/>
@@ -1689,7 +2288,7 @@
   <r>
     <n v="113"/>
     <x v="12"/>
-    <x v="38"/>
+    <s v="Hospital Websites"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1697,7 +2296,7 @@
   <r>
     <n v="114"/>
     <x v="12"/>
-    <x v="38"/>
+    <s v="Hospital Websites"/>
     <s v="Filter"/>
     <m/>
     <x v="0"/>
@@ -1705,7 +2304,7 @@
   <r>
     <n v="115"/>
     <x v="12"/>
-    <x v="39"/>
+    <s v="Image Database"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1713,63 +2312,71 @@
   <r>
     <n v="116"/>
     <x v="12"/>
-    <x v="39"/>
-    <s v="Filter"/>
+    <s v="General Banners"/>
+    <s v="Crud"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="117"/>
-    <x v="12"/>
-    <x v="40"/>
+    <x v="13"/>
+    <s v="Branches"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="118"/>
-    <x v="12"/>
-    <x v="41"/>
-    <s v="Crud"/>
+    <x v="13"/>
+    <s v="RCCS"/>
+    <s v="Add"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="119"/>
     <x v="13"/>
-    <x v="42"/>
-    <s v="Crud"/>
+    <s v="RCCS"/>
+    <s v="Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="120"/>
     <x v="13"/>
-    <x v="43"/>
-    <s v="Crud"/>
+    <s v="RCCS"/>
+    <s v="Delete"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="121"/>
     <x v="13"/>
-    <x v="43"/>
-    <s v="Filter"/>
+    <s v="RCCS"/>
+    <s v="List"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <x v="13"/>
+    <s v="RCCS"/>
+    <s v="ADD Recipt"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="122"/>
     <x v="13"/>
-    <x v="44"/>
-    <s v="Crud"/>
+    <s v="RCCS"/>
+    <s v="Filter"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="123"/>
     <x v="13"/>
-    <x v="45"/>
+    <s v="Discount Center"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
@@ -1777,64 +2384,144 @@
   <r>
     <n v="124"/>
     <x v="13"/>
-    <x v="46"/>
+    <s v="Support Vidoes"/>
+    <s v="Add"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <x v="13"/>
+    <s v="Support Vidoes"/>
+    <s v="Update"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <x v="13"/>
+    <s v="Support Vidoes"/>
+    <s v="Delete"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <x v="13"/>
+    <s v="Support Vidoes"/>
+    <s v="List"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <x v="13"/>
+    <s v="Diet Categories"/>
+    <s v="Add"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <x v="14"/>
+    <s v="Database Compare"/>
+    <s v="Update"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <x v="14"/>
+    <s v="Profile"/>
+    <s v="Delete"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <x v="14"/>
+    <s v="Deafut Configration"/>
+    <s v="List"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <x v="14"/>
+    <s v="Deafut Lookup"/>
     <s v="Crud"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
-    <n v="125"/>
-    <x v="14"/>
-    <x v="47"/>
+    <n v="133"/>
+    <x v="15"/>
+    <s v="Pharmacy Profile"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <x v="15"/>
+    <s v="Pharmacy Profile"/>
+    <s v="Filter"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <x v="10"/>
+    <s v=" Users"/>
+    <s v="Update"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <x v="10"/>
+    <s v=" Users"/>
+    <s v="Delete"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <x v="10"/>
+    <s v=" Users"/>
+    <s v="Listing"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <x v="13"/>
+    <s v="Diet Categories"/>
+    <s v="Update"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <x v="13"/>
+    <s v="Diet Categories"/>
+    <s v="Delete"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <x v="13"/>
+    <s v="Diet Categories"/>
     <s v="List"/>
     <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="126"/>
-    <x v="14"/>
-    <x v="48"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="127"/>
-    <x v="14"/>
-    <x v="49"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="128"/>
-    <x v="14"/>
-    <x v="50"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="129"/>
-    <x v="15"/>
-    <x v="51"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="130"/>
-    <x v="15"/>
-    <x v="51"/>
-    <s v="Filter"/>
-    <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1859,69 +2546,14 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
-      <items count="53">
-        <item x="31"/>
-        <item x="17"/>
-        <item x="28"/>
-        <item x="42"/>
-        <item x="29"/>
-        <item x="23"/>
-        <item x="18"/>
-        <item x="47"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="46"/>
-        <item x="4"/>
-        <item x="44"/>
-        <item x="2"/>
-        <item x="38"/>
-        <item x="5"/>
-        <item x="13"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="30"/>
-        <item x="41"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="15"/>
-        <item x="33"/>
-        <item x="35"/>
-        <item x="19"/>
-        <item x="0"/>
-        <item x="20"/>
-        <item x="27"/>
-        <item x="32"/>
-        <item x="8"/>
-        <item x="51"/>
-        <item x="48"/>
-        <item x="9"/>
-        <item x="16"/>
-        <item x="34"/>
-        <item x="36"/>
-        <item x="43"/>
-        <item x="21"/>
-        <item x="37"/>
-        <item x="10"/>
-        <item x="45"/>
-        <item x="22"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="14"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" dataField="1" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="1"/>
         <item x="0"/>
+        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2000,83 +2632,83 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="31">
+    <format dxfId="125">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="124">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="123">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="122">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="121">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="120">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="118">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="117">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="115">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="114">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="113">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="112">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="111">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="110">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="105">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2093,19 +2725,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F131" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F142" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
+  <autoFilter ref="A1:F142"/>
   <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="102"/>
+    <tableColumn id="1" name="Product" dataDxfId="101"/>
+    <tableColumn id="3" name="Segment" dataDxfId="100"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="99"/>
+    <tableColumn id="4" name="Task" dataDxfId="98"/>
+    <tableColumn id="5" name="Status" dataDxfId="97"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2428,258 +3061,261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:4" ht="18.75" hidden="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7">
+      <c r="B6" s="10">
+        <v>9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7</v>
+      </c>
+      <c r="D6" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.75">
+      <c r="A7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10">
         <v>6</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7">
-        <v>6</v>
-      </c>
-    </row>
     <row r="8" spans="1:4" ht="18.75">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7">
+      <c r="B11" s="10">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10">
         <v>4</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10">
         <v>7</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="7">
-        <v>5</v>
-      </c>
-      <c r="C14" s="7">
-        <v>33</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="10">
+        <v>26</v>
+      </c>
+      <c r="C14" s="10">
+        <v>12</v>
+      </c>
+      <c r="D14" s="10">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10">
         <v>10</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10">
         <v>4</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7">
+      <c r="B17" s="10"/>
+      <c r="C17" s="10">
         <v>23</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7">
+      <c r="B18" s="10"/>
+      <c r="C18" s="10">
         <v>7</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7">
+      <c r="B19" s="10"/>
+      <c r="C19" s="10">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3</v>
+      <c r="B20" s="10">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.75">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="7">
-        <v>5</v>
-      </c>
-      <c r="C21" s="7">
-        <v>125</v>
-      </c>
-      <c r="D21" s="7">
-        <v>130</v>
+      <c r="B21" s="10">
+        <v>44</v>
+      </c>
+      <c r="C21" s="10">
+        <v>97</v>
+      </c>
+      <c r="D21" s="10">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2692,11 +3328,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106:D111"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2733,10 +3369,10 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -2751,10 +3387,10 @@
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -2769,10 +3405,10 @@
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -2787,10 +3423,10 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2805,10 +3441,10 @@
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2823,10 +3459,10 @@
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -2841,10 +3477,10 @@
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1"/>
@@ -2857,10 +3493,10 @@
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2875,10 +3511,10 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2893,10 +3529,10 @@
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2911,10 +3547,10 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -2929,10 +3565,10 @@
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -2947,10 +3583,10 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2965,10 +3601,10 @@
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2976,17 +3612,17 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3001,10 +3637,10 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3019,10 +3655,10 @@
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3037,10 +3673,10 @@
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3055,10 +3691,10 @@
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3073,10 +3709,10 @@
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3084,17 +3720,17 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3102,17 +3738,17 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3120,17 +3756,17 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -3138,17 +3774,17 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3156,17 +3792,17 @@
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3174,17 +3810,17 @@
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3192,17 +3828,17 @@
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3217,10 +3853,10 @@
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3228,17 +3864,17 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3246,17 +3882,17 @@
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3264,17 +3900,17 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3282,17 +3918,17 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3307,10 +3943,10 @@
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3318,17 +3954,17 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3343,10 +3979,10 @@
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3361,10 +3997,10 @@
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -3379,10 +4015,10 @@
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3397,10 +4033,10 @@
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -3415,10 +4051,10 @@
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -3433,10 +4069,10 @@
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -3444,17 +4080,17 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15.75">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3462,17 +4098,17 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -3480,17 +4116,17 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="15.75">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -3505,10 +4141,10 @@
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -3516,17 +4152,17 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3534,17 +4170,17 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -3552,17 +4188,17 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -3570,24 +4206,24 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3595,10 +4231,10 @@
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="6" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3606,17 +4242,17 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -3631,10 +4267,10 @@
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -3649,10 +4285,10 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -3667,10 +4303,10 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3685,10 +4321,10 @@
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -3703,10 +4339,10 @@
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -3721,10 +4357,10 @@
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="5" t="s">
         <v>68</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -3739,10 +4375,10 @@
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -3757,10 +4393,10 @@
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -3775,10 +4411,10 @@
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -3793,10 +4429,10 @@
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -3811,10 +4447,10 @@
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="5" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -3829,10 +4465,10 @@
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -3847,10 +4483,10 @@
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -3865,10 +4501,10 @@
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -3883,10 +4519,10 @@
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="5" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -3901,10 +4537,10 @@
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -3919,10 +4555,10 @@
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -3937,10 +4573,10 @@
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -3955,10 +4591,10 @@
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -3973,10 +4609,10 @@
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -3991,10 +4627,10 @@
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="5" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4009,10 +4645,10 @@
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4027,10 +4663,10 @@
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4045,10 +4681,10 @@
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="5" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -4063,10 +4699,10 @@
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -4081,10 +4717,10 @@
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4099,10 +4735,10 @@
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4117,10 +4753,10 @@
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -4135,10 +4771,10 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -4153,10 +4789,10 @@
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -4171,10 +4807,10 @@
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -4189,10 +4825,10 @@
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -4207,10 +4843,10 @@
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="C84" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -4225,10 +4861,10 @@
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -4243,10 +4879,10 @@
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -4261,10 +4897,10 @@
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -4279,10 +4915,10 @@
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -4297,10 +4933,10 @@
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -4315,10 +4951,10 @@
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -4333,10 +4969,10 @@
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -4351,10 +4987,10 @@
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -4369,10 +5005,10 @@
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -4387,10 +5023,10 @@
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -4398,17 +5034,17 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -4416,17 +5052,17 @@
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="15.75">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -4434,17 +5070,17 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -4452,17 +5088,17 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -4470,36 +5106,36 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>42</v>
+      <c r="C99" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>42</v>
+      <c r="B100" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>11</v>
@@ -4513,14 +5149,14 @@
       <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>85</v>
+      <c r="B101" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
@@ -4531,11 +5167,11 @@
       <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>8</v>
+      <c r="C102" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
@@ -4549,11 +5185,11 @@
       <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>8</v>
+      <c r="C103" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>17</v>
@@ -4567,13 +5203,13 @@
       <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="B104" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="1"/>
@@ -4585,14 +5221,14 @@
       <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>17</v>
+      <c r="B105" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
@@ -4603,14 +5239,14 @@
       <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C106" s="9" t="s">
+      <c r="C106" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>11</v>
+      <c r="D106" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
@@ -4621,14 +5257,14 @@
       <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="9" t="s">
+      <c r="C107" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D107" s="9" t="s">
-        <v>11</v>
+      <c r="D107" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
@@ -4639,14 +5275,14 @@
       <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C108" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>17</v>
+      <c r="C108" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
@@ -4657,14 +5293,14 @@
       <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>17</v>
+      <c r="C109" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
@@ -4675,13 +5311,13 @@
       <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D110" s="9" t="s">
+      <c r="B110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="1"/>
@@ -4693,14 +5329,14 @@
       <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>11</v>
+      <c r="B111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
@@ -4715,7 +5351,7 @@
         <v>28</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>11</v>
@@ -4733,7 +5369,7 @@
         <v>28</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>17</v>
@@ -4751,7 +5387,7 @@
         <v>28</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>11</v>
@@ -4769,7 +5405,7 @@
         <v>28</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>17</v>
@@ -4787,7 +5423,7 @@
         <v>28</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -4805,10 +5441,10 @@
         <v>28</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
@@ -4820,10 +5456,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
@@ -4838,13 +5474,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
@@ -4859,12 +5495,12 @@
         <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
         <v>9</v>
       </c>
@@ -4879,10 +5515,10 @@
       <c r="C121" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="1"/>
+      <c r="D121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="2"/>
       <c r="F121" s="1" t="s">
         <v>9</v>
       </c>
@@ -4897,44 +5533,44 @@
       <c r="C122" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122" s="1"/>
+      <c r="D122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E123" s="2"/>
       <c r="F123" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
@@ -4943,13 +5579,13 @@
     </row>
     <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>11</v>
@@ -4961,106 +5597,106 @@
     </row>
     <row r="126" spans="1:6" ht="15.75">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="2"/>
       <c r="F127" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E128" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E128" s="2"/>
       <c r="F128" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="15.75">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2"/>
       <c r="F129" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75">
       <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>26</v>
+        <v>128</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75">
       <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>26</v>
+        <v>129</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
@@ -5068,48 +5704,214 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-      <c r="D132" s="1"/>
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
+      <c r="F132" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="15.75">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="1"/>
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
+      <c r="F133" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="134" spans="1:6" ht="15.75">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-      <c r="D134" s="1"/>
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E134" s="1"/>
-      <c r="F134" s="1"/>
+      <c r="F134" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="135" spans="1:6" ht="15.75">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-      <c r="D135" s="1"/>
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E135" s="1"/>
-      <c r="F135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E138" s="2"/>
+      <c r="F138" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E139" s="2"/>
+      <c r="F139" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="2"/>
+      <c r="F140" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E141" s="2"/>
+      <c r="F141" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="2"/>
+      <c r="F142" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F131">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F142">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="92">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -400,9 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
@@ -411,11 +408,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="74">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -531,66 +531,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
@@ -701,369 +641,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1334,7 +911,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45584.527410879629" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="141">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45586.538322453707" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="140">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -1352,10 +929,10 @@
         <s v="Investigation"/>
         <s v="Main"/>
         <s v="Medicine"/>
+        <s v="LookUps"/>
         <s v="Support Tickets"/>
         <s v="Deit Facts"/>
         <s v="System"/>
-        <s v="LookUps"/>
         <s v="ClinTa Web-Builder"/>
         <s v="ClinTa Health Care"/>
         <s v="ClinTa Extended"/>
@@ -1388,7 +965,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="141">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="140">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1451,7 +1028,7 @@
     <s v="Diseases"/>
     <s v="Listing"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="9"/>
@@ -1459,7 +1036,7 @@
     <s v="Diseases"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="10"/>
@@ -1467,7 +1044,7 @@
     <s v="Diseases"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="11"/>
@@ -1475,7 +1052,7 @@
     <s v="Diseases"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="12"/>
@@ -2015,43 +1592,43 @@
   </r>
   <r>
     <n v="79"/>
-    <x v="6"/>
+    <x v="8"/>
     <s v="LookUps (Nav)"/>
     <s v="Listing"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="80"/>
-    <x v="6"/>
+    <x v="8"/>
     <s v="LookUps (Nav)"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="81"/>
-    <x v="6"/>
+    <x v="8"/>
     <s v="LookUps (Nav)"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="82"/>
-    <x v="6"/>
+    <x v="8"/>
     <s v="LookUps (Nav)"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="83"/>
-    <x v="6"/>
+    <x v="8"/>
     <s v="LookUps (Nav)"/>
     <s v="Filters"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="84"/>
@@ -2111,7 +1688,7 @@
   </r>
   <r>
     <n v="91"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="ClinTa Extended"/>
     <s v="Filter"/>
     <m/>
@@ -2119,7 +1696,7 @@
   </r>
   <r>
     <n v="92"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="ClinTa Extended"/>
     <s v="Crud"/>
     <m/>
@@ -2127,7 +1704,7 @@
   </r>
   <r>
     <n v="93"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Fruits"/>
     <s v="Crud"/>
     <m/>
@@ -2135,7 +1712,7 @@
   </r>
   <r>
     <n v="94"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Vegetable"/>
     <s v="Crud"/>
     <m/>
@@ -2143,7 +1720,7 @@
   </r>
   <r>
     <n v="95"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Pulses-Grains"/>
     <s v="Crud"/>
     <m/>
@@ -2151,7 +1728,7 @@
   </r>
   <r>
     <n v="96"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Dry Fruits"/>
     <s v="Crud"/>
     <m/>
@@ -2159,7 +1736,7 @@
   </r>
   <r>
     <n v="97"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="Miscellaneous"/>
     <s v="Crud"/>
     <m/>
@@ -2167,23 +1744,15 @@
   </r>
   <r>
     <n v="98"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v=" Users"/>
     <s v="Add"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
-    <n v="99"/>
-    <x v="11"/>
-    <s v="List"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
     <n v="100"/>
-    <x v="11"/>
+    <x v="8"/>
     <s v="List"/>
     <s v="Filter"/>
     <m/>
@@ -2191,15 +1760,15 @@
   </r>
   <r>
     <n v="101"/>
-    <x v="11"/>
+    <x v="8"/>
     <s v="LookUps Options"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="102"/>
-    <x v="11"/>
+    <x v="8"/>
     <s v="LookUps Options"/>
     <s v="Filter"/>
     <m/>
@@ -2471,7 +2040,7 @@
   </r>
   <r>
     <n v="135"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v=" Users"/>
     <s v="Update"/>
     <m/>
@@ -2479,7 +2048,7 @@
   </r>
   <r>
     <n v="136"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v=" Users"/>
     <s v="Delete"/>
     <m/>
@@ -2487,7 +2056,7 @@
   </r>
   <r>
     <n v="137"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v=" Users"/>
     <s v="Listing"/>
     <m/>
@@ -2521,7 +2090,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2533,16 +2102,16 @@
         <item x="15"/>
         <item x="12"/>
         <item x="1"/>
-        <item x="9"/>
+        <item x="10"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
-        <item x="11"/>
+        <item x="8"/>
         <item x="6"/>
         <item x="7"/>
-        <item x="8"/>
-        <item x="10"/>
+        <item x="9"/>
+        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2632,83 +2201,83 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="125">
+    <format dxfId="73">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="124">
+    <format dxfId="72">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="123">
+    <format dxfId="71">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="70">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="121">
+    <format dxfId="69">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="120">
+    <format dxfId="68">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="119">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="118">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="117">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="116">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="63">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="114">
+    <format dxfId="62">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="113">
+    <format dxfId="61">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="60">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="111">
+    <format dxfId="59">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="58">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="109">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="108">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="105">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2725,18 +2294,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F142" totalsRowShown="0" headerRowDxfId="104" dataDxfId="103">
-  <autoFilter ref="A1:F142"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F141" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+  <autoFilter ref="A1:F141">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="LookUps"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="102"/>
-    <tableColumn id="1" name="Product" dataDxfId="101"/>
-    <tableColumn id="3" name="Segment" dataDxfId="100"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="99"/>
-    <tableColumn id="4" name="Task" dataDxfId="98"/>
-    <tableColumn id="5" name="Status" dataDxfId="97"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="50"/>
+    <tableColumn id="1" name="Product" dataDxfId="49"/>
+    <tableColumn id="3" name="Segment" dataDxfId="48"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="47"/>
+    <tableColumn id="4" name="Task" dataDxfId="46"/>
+    <tableColumn id="5" name="Status" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3063,7 +2638,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3076,246 +2651,248 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:4" ht="18.75" hidden="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="10">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="9">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
         <v>7</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9">
         <v>6</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9">
         <v>2</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9">
         <v>8</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.75">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10">
+      <c r="B12" s="9">
         <v>4</v>
       </c>
-      <c r="D12" s="10">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9">
         <v>7</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>26</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>12</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9">
         <v>10</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10">
+      <c r="B16" s="9">
+        <v>6</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18.75">
+      <c r="A17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18.75">
+      <c r="A18" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.75">
+      <c r="A19" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9">
+        <v>2</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.75">
+      <c r="A20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="9">
         <v>4</v>
       </c>
-      <c r="D16" s="10">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
-      <c r="A17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10">
-        <v>23</v>
-      </c>
-      <c r="D17" s="10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="18.75">
-      <c r="A18" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10">
-        <v>7</v>
-      </c>
-      <c r="D18" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75">
-      <c r="A19" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10">
-        <v>2</v>
-      </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75">
-      <c r="A20" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="10">
-        <v>4</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10">
-        <v>4</v>
-      </c>
-    </row>
     <row r="21" spans="1:4" ht="18.75">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="10">
-        <v>44</v>
-      </c>
-      <c r="C21" s="10">
-        <v>97</v>
-      </c>
-      <c r="D21" s="10">
-        <v>141</v>
+      <c r="B21" s="9">
+        <v>54</v>
+      </c>
+      <c r="C21" s="9">
+        <v>86</v>
+      </c>
+      <c r="D21" s="9">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3328,11 +2905,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F142"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
+      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3365,14 +2942,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15.75" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -3383,14 +2960,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="15.75" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -3401,14 +2978,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.75" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3419,14 +2996,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.75" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3437,14 +3014,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3455,14 +3032,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.75" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3473,14 +3050,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="15.75" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="1"/>
@@ -3489,14 +3066,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="15.75" hidden="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3504,17 +3081,17 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" hidden="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3522,17 +3099,17 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" hidden="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3540,17 +3117,17 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" hidden="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3558,17 +3135,17 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3579,14 +3156,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="15.75" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3597,14 +3174,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="15.75" hidden="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3615,14 +3192,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="15.75" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3633,14 +3210,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.75" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -3651,14 +3228,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.75" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -3669,14 +3246,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.75" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3687,14 +3264,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75">
+    <row r="20" spans="1:6" ht="15.75" hidden="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -3705,14 +3282,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.75" hidden="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -3723,14 +3300,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.75" hidden="1">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -3741,14 +3318,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.75" hidden="1">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -3759,14 +3336,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75">
+    <row r="24" spans="1:6" ht="15.75" hidden="1">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -3777,14 +3354,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.75" hidden="1">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3795,14 +3372,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.75" hidden="1">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3813,14 +3390,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="15.75" hidden="1">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3831,14 +3408,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="15.75" hidden="1">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3849,14 +3426,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="15.75" hidden="1">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -3867,14 +3444,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.75" hidden="1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3885,14 +3462,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75">
+    <row r="31" spans="1:6" ht="15.75" hidden="1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -3903,14 +3480,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.75" hidden="1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -3921,14 +3498,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.75" hidden="1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -3939,14 +3516,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.75" hidden="1">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -3957,14 +3534,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.75" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D35" s="1" t="s">
@@ -3975,14 +3552,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="15.75" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D36" s="1" t="s">
@@ -3993,14 +3570,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="15.75" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
@@ -4011,14 +3588,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75">
+    <row r="38" spans="1:6" ht="15.75" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -4029,14 +3606,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75">
+    <row r="39" spans="1:6" ht="15.75" hidden="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
@@ -4047,14 +3624,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75">
+    <row r="40" spans="1:6" ht="15.75" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4065,14 +3642,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75">
+    <row r="41" spans="1:6" ht="15.75" hidden="1">
       <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
@@ -4083,14 +3660,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75">
+    <row r="42" spans="1:6" ht="15.75" hidden="1">
       <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -4101,14 +3678,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75">
+    <row r="43" spans="1:6" ht="15.75" hidden="1">
       <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4119,14 +3696,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75">
+    <row r="44" spans="1:6" ht="15.75" hidden="1">
       <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4137,14 +3714,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75">
+    <row r="45" spans="1:6" ht="15.75" hidden="1">
       <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -4155,14 +3732,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75">
+    <row r="46" spans="1:6" ht="15.75" hidden="1">
       <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -4173,14 +3750,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75">
+    <row r="47" spans="1:6" ht="15.75" hidden="1">
       <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
@@ -4191,14 +3768,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75">
+    <row r="48" spans="1:6" ht="15.75" hidden="1">
       <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="1" t="s">
@@ -4209,14 +3786,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75">
+    <row r="49" spans="1:6" ht="15.75" hidden="1">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
@@ -4227,14 +3804,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="15.75" hidden="1">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -4245,14 +3822,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.75" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D51" s="1" t="s">
@@ -4263,14 +3840,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="15.75" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="1" t="s">
@@ -4281,14 +3858,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75" hidden="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="1" t="s">
@@ -4299,14 +3876,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4317,14 +3894,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="1" t="s">
@@ -4335,14 +3912,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" hidden="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D56" s="1" t="s">
@@ -4353,14 +3930,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" hidden="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D57" s="1" t="s">
@@ -4371,14 +3948,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -4389,14 +3966,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" hidden="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D59" s="1" t="s">
@@ -4407,14 +3984,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75" hidden="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
@@ -4425,14 +4002,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75">
+    <row r="61" spans="1:6" ht="15.75" hidden="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D61" s="1" t="s">
@@ -4443,14 +4020,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="15.75" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4461,14 +4038,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="15.75" hidden="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D63" s="1" t="s">
@@ -4479,14 +4056,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D64" s="1" t="s">
@@ -4497,14 +4074,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6" ht="15.75" hidden="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D65" s="1" t="s">
@@ -4515,14 +4092,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="15.75" hidden="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>71</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -4533,14 +4110,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -4551,14 +4128,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>73</v>
       </c>
       <c r="D68" s="1" t="s">
@@ -4569,14 +4146,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="15.75" hidden="1">
       <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D69" s="1" t="s">
@@ -4587,14 +4164,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="15.75" hidden="1">
       <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -4605,14 +4182,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6" ht="15.75" hidden="1">
       <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D71" s="1" t="s">
@@ -4623,14 +4200,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="15.75" hidden="1">
       <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D72" s="1" t="s">
@@ -4641,14 +4218,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6" ht="15.75" hidden="1">
       <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D73" s="1" t="s">
@@ -4659,14 +4236,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75">
+    <row r="74" spans="1:6" ht="15.75" hidden="1">
       <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -4677,14 +4254,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75">
+    <row r="75" spans="1:6" ht="15.75" hidden="1">
       <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="4" t="s">
         <v>80</v>
       </c>
       <c r="D75" s="1" t="s">
@@ -4695,14 +4272,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75">
+    <row r="76" spans="1:6" ht="15.75" hidden="1">
       <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="1" t="s">
@@ -4713,14 +4290,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75">
+    <row r="77" spans="1:6" ht="15.75" hidden="1">
       <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="1" t="s">
@@ -4731,14 +4308,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75">
+    <row r="78" spans="1:6" ht="15.75" hidden="1">
       <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>81</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4749,14 +4326,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D79" s="1" t="s">
@@ -4771,10 +4348,10 @@
       <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="5" t="s">
+      <c r="B80" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
@@ -4782,17 +4359,17 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75">
       <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D81" s="1" t="s">
@@ -4800,17 +4377,17 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75">
       <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -4818,17 +4395,17 @@
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D83" s="1" t="s">
@@ -4836,17 +4413,17 @@
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="5" t="s">
+      <c r="B84" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>76</v>
       </c>
       <c r="D84" s="1" t="s">
@@ -4854,17 +4431,17 @@
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" hidden="1">
       <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D85" s="1" t="s">
@@ -4875,14 +4452,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="15.75" hidden="1">
       <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -4893,14 +4470,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="15.75" hidden="1">
       <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D87" s="1" t="s">
@@ -4911,14 +4488,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75">
+    <row r="88" spans="1:6" ht="15.75" hidden="1">
       <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D88" s="1" t="s">
@@ -4929,14 +4506,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75">
+    <row r="89" spans="1:6" ht="15.75" hidden="1">
       <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D89" s="1" t="s">
@@ -4947,14 +4524,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75">
+    <row r="90" spans="1:6" ht="15.75" hidden="1">
       <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D90" s="1" t="s">
@@ -4965,14 +4542,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75">
+    <row r="91" spans="1:6" ht="15.75" hidden="1">
       <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -4983,14 +4560,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75">
+    <row r="92" spans="1:6" ht="15.75" hidden="1">
       <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="1" t="s">
@@ -5001,14 +4578,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75">
+    <row r="93" spans="1:6" ht="15.75" hidden="1">
       <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
@@ -5019,14 +4596,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75">
+    <row r="94" spans="1:6" ht="15.75" hidden="1">
       <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D94" s="1" t="s">
@@ -5037,14 +4614,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75">
+    <row r="95" spans="1:6" ht="15.75" hidden="1">
       <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -5055,14 +4632,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="15.75" hidden="1">
       <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -5073,14 +4650,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75">
+    <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -5091,14 +4668,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -5109,14 +4686,14 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -5129,16 +4706,16 @@
     </row>
     <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
-        <v>99</v>
-      </c>
-      <c r="B100" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
@@ -5147,69 +4724,69 @@
     </row>
     <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="1">
-        <v>100</v>
-      </c>
-      <c r="B101" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>8</v>
+      <c r="C101" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
-        <v>101</v>
-      </c>
-      <c r="B102" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.75" hidden="1">
       <c r="A103" s="1">
-        <v>102</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>17</v>
+        <v>103</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.75" hidden="1">
       <c r="A104" s="1">
-        <v>103</v>
-      </c>
-      <c r="B104" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="C104" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="1"/>
@@ -5217,35 +4794,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.75" hidden="1">
       <c r="A105" s="1">
-        <v>104</v>
-      </c>
-      <c r="B105" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>11</v>
+      <c r="C105" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
-        <v>105</v>
-      </c>
-      <c r="B106" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="C106" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E106" s="1"/>
@@ -5253,35 +4830,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="15.75" hidden="1">
       <c r="A107" s="1">
-        <v>106</v>
-      </c>
-      <c r="B107" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>17</v>
+      <c r="C107" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" hidden="1">
       <c r="A108" s="1">
-        <v>107</v>
-      </c>
-      <c r="B108" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="C108" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="1"/>
@@ -5289,17 +4866,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="15.75" hidden="1">
       <c r="A109" s="1">
-        <v>108</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D109" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E109" s="1"/>
@@ -5307,9 +4884,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="15.75" hidden="1">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>28</v>
@@ -5318,34 +4895,34 @@
         <v>29</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75">
+    <row r="112" spans="1:6" ht="15.75" hidden="1">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>28</v>
@@ -5354,34 +4931,34 @@
         <v>30</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75">
+    <row r="113" spans="1:6" ht="15.75" hidden="1">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75">
+    <row r="114" spans="1:6" ht="15.75" hidden="1">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>28</v>
@@ -5390,40 +4967,40 @@
         <v>31</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75">
+    <row r="115" spans="1:6" ht="15.75" hidden="1">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75">
+    <row r="116" spans="1:6" ht="15.75" hidden="1">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -5433,15 +5010,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75">
+    <row r="117" spans="1:6" ht="15.75" hidden="1">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
@@ -5451,27 +5028,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="15.75" hidden="1">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75">
+    <row r="119" spans="1:6" ht="15.75" hidden="1">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>14</v>
@@ -5479,17 +5056,17 @@
       <c r="C119" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="1"/>
+      <c r="D119" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="2"/>
       <c r="F119" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75">
+    <row r="120" spans="1:6" ht="15.75" hidden="1">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>14</v>
@@ -5498,16 +5075,16 @@
         <v>16</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75">
+    <row r="121" spans="1:6" ht="15.75" hidden="1">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
@@ -5516,14 +5093,14 @@
         <v>16</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" hidden="1">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5534,16 +5111,16 @@
         <v>16</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" hidden="1">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
@@ -5551,53 +5128,53 @@
       <c r="C123" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E123" s="2"/>
+      <c r="D123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75">
+    <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" hidden="1">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>14</v>
@@ -5605,17 +5182,17 @@
       <c r="C126" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E126" s="1"/>
+      <c r="D126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="2"/>
       <c r="F126" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75">
+    <row r="127" spans="1:6" ht="15.75" hidden="1">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>14</v>
@@ -5624,16 +5201,16 @@
         <v>19</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
+    <row r="128" spans="1:6" ht="15.75" hidden="1">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>14</v>
@@ -5642,112 +5219,112 @@
         <v>19</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75">
+    <row r="129" spans="1:6" ht="15.75" hidden="1">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75">
+    <row r="130" spans="1:6" ht="15.75" hidden="1">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" hidden="1">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75">
+    <row r="132" spans="1:6" ht="15.75" hidden="1">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75">
+    <row r="133" spans="1:6" ht="15.75" hidden="1">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75">
+    <row r="134" spans="1:6" ht="15.75" hidden="1">
       <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>11</v>
@@ -5757,9 +5334,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75">
+    <row r="135" spans="1:6" ht="15.75" hidden="1">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>26</v>
@@ -5768,88 +5345,88 @@
         <v>27</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75">
+    <row r="136" spans="1:6" ht="15.75" hidden="1">
       <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="2"/>
       <c r="F136" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" hidden="1">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75">
+    <row r="138" spans="1:6" ht="15.75" hidden="1">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="E138" s="2"/>
       <c r="F138" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75">
+    <row r="139" spans="1:6" ht="15.75" hidden="1">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>90</v>
+        <v>14</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E139" s="2"/>
       <c r="F139" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75">
+    <row r="140" spans="1:6" ht="15.75" hidden="1">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>14</v>
@@ -5858,16 +5435,16 @@
         <v>20</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.75">
+    <row r="141" spans="1:6" ht="15.75" hidden="1">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>14</v>
@@ -5876,42 +5453,24 @@
         <v>20</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" s="2"/>
-      <c r="F142" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F142">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F141">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="90">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -261,12 +261,6 @@
   </si>
   <si>
     <t>Specialities</t>
-  </si>
-  <si>
-    <t>System Users</t>
-  </si>
-  <si>
-    <t>Access Level</t>
   </si>
   <si>
     <t>LookUps (Nav)</t>
@@ -415,120 +409,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -911,7 +792,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45586.538322453707" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="140">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45586.756141782411" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -965,7 +846,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="140">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="136">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1503,38 +1384,6 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="68"/>
-    <x v="6"/>
-    <s v="System Users"/>
-    <s v="List"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="69"/>
-    <x v="6"/>
-    <s v="System Users"/>
-    <s v="Filter"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="70"/>
-    <x v="6"/>
-    <s v="System Users"/>
-    <s v="Access Level"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="71"/>
-    <x v="6"/>
-    <s v="System Users"/>
-    <s v="Crud"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
     <n v="72"/>
     <x v="7"/>
     <s v="Company"/>
@@ -2090,7 +1939,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2201,83 +2050,83 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="73">
+    <format dxfId="52">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="50">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="49">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="48">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="47">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="40">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="39">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="38">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="37">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="56">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2294,11 +2143,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F141" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
-  <autoFilter ref="A1:F141">
-    <filterColumn colId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A1:F137">
+    <filterColumn colId="5">
       <filters>
-        <filter val="LookUps"/>
+        <filter val="Pending"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2306,12 +2155,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="50"/>
-    <tableColumn id="1" name="Product" dataDxfId="49"/>
-    <tableColumn id="3" name="Segment" dataDxfId="48"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="47"/>
-    <tableColumn id="4" name="Task" dataDxfId="46"/>
-    <tableColumn id="5" name="Status" dataDxfId="45"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="29"/>
+    <tableColumn id="1" name="Product" dataDxfId="28"/>
+    <tableColumn id="3" name="Segment" dataDxfId="27"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="26"/>
+    <tableColumn id="4" name="Task" dataDxfId="25"/>
+    <tableColumn id="5" name="Status" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2636,9 +2485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2652,7 +2501,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1">
       <c r="A1" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -2661,17 +2510,17 @@
     <row r="2" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:4" ht="18.75" hidden="1">
       <c r="A3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="18.75">
       <c r="A4" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>53</v>
@@ -2680,7 +2529,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75">
@@ -2839,15 +2688,15 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D17" s="9">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
       <c r="A18" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9">
@@ -2859,7 +2708,7 @@
     </row>
     <row r="19" spans="1:4" ht="18.75">
       <c r="A19" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9">
@@ -2871,7 +2720,7 @@
     </row>
     <row r="20" spans="1:4" ht="18.75">
       <c r="A20" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="9">
         <v>4</v>
@@ -2883,16 +2732,16 @@
     </row>
     <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="9">
         <v>54</v>
       </c>
       <c r="C21" s="9">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D21" s="9">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2905,11 +2754,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2942,7 +2791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" hidden="1">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2953,14 +2802,14 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2978,7 +2827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" hidden="1">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2989,14 +2838,14 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" hidden="1">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3014,7 +2863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3032,7 +2881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" hidden="1">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3050,7 +2899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" hidden="1">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3077,7 +2926,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
@@ -3138,7 +2987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3156,7 +3005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" hidden="1">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3192,7 +3041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" hidden="1">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3203,14 +3052,14 @@
         <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" hidden="1">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3228,7 +3077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" hidden="1">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3246,7 +3095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" hidden="1">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3275,7 +3124,7 @@
         <v>52</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
@@ -3419,7 +3268,7 @@
         <v>41</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
@@ -3509,7 +3358,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
@@ -3534,7 +3383,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3552,7 +3401,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1">
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3570,7 +3419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1">
+    <row r="37" spans="1:6" ht="15.75">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3588,7 +3437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" hidden="1">
+    <row r="38" spans="1:6" ht="15.75">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3606,7 +3455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1">
+    <row r="39" spans="1:6" ht="15.75">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3624,7 +3473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1">
+    <row r="40" spans="1:6" ht="15.75">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3635,7 +3484,7 @@
         <v>47</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
@@ -3707,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
@@ -3797,7 +3646,7 @@
         <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
@@ -3822,7 +3671,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3840,7 +3689,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3858,7 +3707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3876,7 +3725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3894,7 +3743,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3912,7 +3761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3930,7 +3779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3948,7 +3797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3959,14 +3808,14 @@
         <v>69</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3984,7 +3833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4002,7 +3851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" hidden="1">
+    <row r="61" spans="1:6" ht="15.75">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4020,7 +3869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1">
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4038,7 +3887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1">
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4056,7 +3905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4074,7 +3923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1">
+    <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4092,7 +3941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1">
+    <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4110,7 +3959,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4128,7 +3977,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1">
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4146,33 +3995,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1">
+    <row r="69" spans="1:6" ht="15.75">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" hidden="1">
+    <row r="70" spans="1:6" ht="15.75">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>17</v>
@@ -4182,84 +4031,84 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1">
+    <row r="71" spans="1:6" ht="15.75">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1">
+    <row r="72" spans="1:6" ht="15.75">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>74</v>
+        <v>8</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1">
+    <row r="73" spans="1:6" ht="15.75">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" hidden="1">
+    <row r="74" spans="1:6" ht="15.75">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" hidden="1">
+    <row r="75" spans="1:6" ht="15.75">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>80</v>
@@ -4274,88 +4123,88 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" hidden="1">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
@@ -4364,121 +4213,121 @@
     </row>
     <row r="81" spans="1:6" ht="15.75">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="15.75">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1">
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1">
+    <row r="87" spans="1:6" ht="15.75">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -4488,33 +4337,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" hidden="1">
+    <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1">
+    <row r="89" spans="1:6" ht="15.75">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4526,85 +4375,85 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>11</v>
@@ -4616,49 +4465,49 @@
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1">
+    <row r="96" spans="1:6" ht="15.75">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>11</v>
@@ -4668,54 +4517,54 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1">
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
@@ -4724,33 +4573,33 @@
     </row>
     <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="1">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D102" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E102" s="1"/>
@@ -4758,15 +4607,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1">
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" s="1">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>11</v>
@@ -4776,15 +4625,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="1">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>11</v>
@@ -4794,35 +4643,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1">
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="1">
-        <v>105</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>17</v>
+        <v>109</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1">
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" s="1">
-        <v>106</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D106" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E106" s="1"/>
@@ -4830,17 +4679,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" hidden="1">
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" s="1">
-        <v>107</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D107" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E107" s="1"/>
@@ -4848,33 +4697,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="1">
-        <v>108</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>11</v>
+        <v>112</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" hidden="1">
+    <row r="109" spans="1:6" ht="15.75">
       <c r="A109" s="1">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
@@ -4884,15 +4733,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1">
+    <row r="110" spans="1:6" ht="15.75">
       <c r="A110" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>17</v>
@@ -4902,15 +4751,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1">
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" s="1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -4920,33 +4769,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" hidden="1">
+    <row r="112" spans="1:6" ht="15.75">
       <c r="A112" s="1">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" hidden="1">
+    <row r="113" spans="1:6" ht="15.75">
       <c r="A113" s="1">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>11</v>
@@ -4956,81 +4805,81 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" hidden="1">
+    <row r="114" spans="1:6" ht="15.75">
       <c r="A114" s="1">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" hidden="1">
+    <row r="115" spans="1:6" ht="15.75">
       <c r="A115" s="1">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="2"/>
       <c r="F115" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" hidden="1">
+    <row r="116" spans="1:6" ht="15.75">
       <c r="A116" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E116" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="2"/>
       <c r="F116" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" hidden="1">
       <c r="A117" s="1">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="2"/>
       <c r="F117" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75">
       <c r="A118" s="1">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>14</v>
@@ -5038,17 +4887,17 @@
       <c r="C118" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E118" s="1"/>
+      <c r="D118" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="2"/>
       <c r="F118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" hidden="1">
+    <row r="119" spans="1:6" ht="15.75">
       <c r="A119" s="1">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>14</v>
@@ -5056,113 +4905,113 @@
       <c r="C119" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E119" s="2"/>
+      <c r="D119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" hidden="1">
+    <row r="120" spans="1:6" ht="15.75">
       <c r="A120" s="1">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E120" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" hidden="1">
       <c r="A121" s="1">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" hidden="1">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="15.75" hidden="1">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="2"/>
       <c r="F123" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="2"/>
       <c r="F124" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>23</v>
@@ -5172,108 +5021,108 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1">
+    <row r="126" spans="1:6" ht="15.75">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E126" s="2"/>
+      <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E127" s="2"/>
+      <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E128" s="2"/>
+      <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75">
       <c r="A130" s="1">
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" hidden="1">
+    <row r="131" spans="1:6" ht="15.75">
       <c r="A131" s="1">
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
@@ -5282,88 +5131,88 @@
     </row>
     <row r="132" spans="1:6" ht="15.75" hidden="1">
       <c r="A132" s="1">
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>12</v>
+        <v>135</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E132" s="2"/>
       <c r="F132" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="15.75" hidden="1">
       <c r="A133" s="1">
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" s="2"/>
       <c r="F133" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="15.75" hidden="1">
       <c r="A134" s="1">
-        <v>133</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E134" s="2"/>
       <c r="F134" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" hidden="1">
       <c r="A135" s="1">
-        <v>134</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>26</v>
+        <v>138</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E135" s="2"/>
       <c r="F135" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" hidden="1">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="1" t="s">
@@ -5372,105 +5221,33 @@
     </row>
     <row r="137" spans="1:6" ht="15.75" hidden="1">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="E137" s="2"/>
       <c r="F137" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" hidden="1">
-      <c r="A138" s="1">
-        <v>137</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E138" s="2"/>
-      <c r="F138" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" hidden="1">
-      <c r="A139" s="1">
-        <v>138</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E139" s="2"/>
-      <c r="F139" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" hidden="1">
-      <c r="A140" s="1">
-        <v>139</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E140" s="2"/>
-      <c r="F140" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" hidden="1">
-      <c r="A141" s="1">
-        <v>140</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" s="2"/>
-      <c r="F141" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F141">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F137">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -409,7 +409,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
+  <dxfs count="62">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -522,6 +522,66 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -664,6 +724,36 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -792,7 +882,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45586.756141782411" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45589.677995254628" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -949,7 +1039,7 @@
     <s v="Diet Plan"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="14"/>
@@ -965,7 +1055,7 @@
     <s v="Exercise"/>
     <s v="Listing"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="16"/>
@@ -973,7 +1063,7 @@
     <s v="Exercise"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="17"/>
@@ -981,7 +1071,7 @@
     <s v="Exercise"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="18"/>
@@ -989,7 +1079,7 @@
     <s v="Exercise"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="19"/>
@@ -1133,7 +1223,7 @@
     <s v="Tips and Guides"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="37"/>
@@ -1141,7 +1231,7 @@
     <s v="Tips and Guides"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="38"/>
@@ -1149,7 +1239,7 @@
     <s v="Tips and Guides"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="39"/>
@@ -1157,7 +1247,7 @@
     <s v="Tips and Guides"/>
     <s v="Listing"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="40"/>
@@ -1245,7 +1335,7 @@
     <s v="Work out Plan"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="51"/>
@@ -2050,83 +2140,83 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="52">
+    <format dxfId="61">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="60">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="59">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="58">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="57">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="56">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="51">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="50">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="49">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="48">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="47">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="46">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="42">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2143,8 +2233,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:F137">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ClinTa Health Care"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2155,12 +2250,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="29"/>
-    <tableColumn id="1" name="Product" dataDxfId="28"/>
-    <tableColumn id="3" name="Segment" dataDxfId="27"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="26"/>
-    <tableColumn id="4" name="Task" dataDxfId="25"/>
-    <tableColumn id="5" name="Status" dataDxfId="24"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="35"/>
+    <tableColumn id="1" name="Product" dataDxfId="34"/>
+    <tableColumn id="3" name="Segment" dataDxfId="33"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="32"/>
+    <tableColumn id="4" name="Task" dataDxfId="31"/>
+    <tableColumn id="5" name="Status" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2487,7 +2582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2647,10 +2742,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="9">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C14" s="9">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D14" s="9">
         <v>38</v>
@@ -2735,10 +2830,10 @@
         <v>84</v>
       </c>
       <c r="B21" s="9">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C21" s="9">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D21" s="9">
         <v>136</v>
@@ -2757,8 +2852,8 @@
   <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69:XFD69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2791,7 +2886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15.75" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2809,7 +2904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="15.75" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2827,7 +2922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.75" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2845,7 +2940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.75" hidden="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2863,7 +2958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" hidden="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2881,7 +2976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.75" hidden="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2899,7 +2994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75">
+    <row r="8" spans="1:6" ht="15.75" hidden="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2987,7 +3082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="15.75" hidden="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3005,7 +3100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="15.75" hidden="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3020,7 +3115,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" hidden="1">
@@ -3041,7 +3136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="15.75" hidden="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3056,10 +3151,10 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" hidden="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3074,10 +3169,10 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" hidden="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3092,10 +3187,10 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" hidden="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3110,7 +3205,7 @@
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1">
@@ -3383,7 +3478,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75">
+    <row r="35" spans="1:6" ht="15.75" hidden="1">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3401,7 +3496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75">
+    <row r="36" spans="1:6" ht="15.75" hidden="1">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3419,7 +3514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75">
+    <row r="37" spans="1:6" ht="15.75" hidden="1">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3434,10 +3529,10 @@
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" hidden="1">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3452,10 +3547,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" hidden="1">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3470,10 +3565,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" hidden="1">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3488,7 +3583,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" hidden="1">
@@ -3671,7 +3766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.75" hidden="1">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -3686,10 +3781,10 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" hidden="1">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3707,7 +3802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75" hidden="1">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3725,7 +3820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" hidden="1">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3743,7 +3838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" hidden="1">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3761,7 +3856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" hidden="1">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3779,7 +3874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" hidden="1">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3797,7 +3892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" hidden="1">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3815,7 +3910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" hidden="1">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3833,7 +3928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75" hidden="1">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3851,7 +3946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75">
+    <row r="61" spans="1:6" ht="15.75" hidden="1">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3869,7 +3964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="15.75" hidden="1">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3887,7 +3982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="15.75" hidden="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3905,7 +4000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -3923,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6" ht="15.75" hidden="1">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3941,7 +4036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="15.75" hidden="1">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3959,7 +4054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -3977,7 +4072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -3995,7 +4090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="15.75" hidden="1">
       <c r="A69" s="1">
         <v>72</v>
       </c>
@@ -4013,7 +4108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="15.75" hidden="1">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -4031,7 +4126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6" ht="15.75" hidden="1">
       <c r="A71" s="1">
         <v>74</v>
       </c>
@@ -4049,7 +4144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="15.75" hidden="1">
       <c r="A72" s="1">
         <v>75</v>
       </c>
@@ -4067,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6" ht="15.75" hidden="1">
       <c r="A73" s="1">
         <v>76</v>
       </c>
@@ -4085,7 +4180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75">
+    <row r="74" spans="1:6" ht="15.75" hidden="1">
       <c r="A74" s="1">
         <v>77</v>
       </c>
@@ -4103,7 +4198,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75">
+    <row r="75" spans="1:6" ht="15.75" hidden="1">
       <c r="A75" s="1">
         <v>78</v>
       </c>
@@ -4211,7 +4306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75">
+    <row r="81" spans="1:6" ht="15.75" hidden="1">
       <c r="A81" s="1">
         <v>84</v>
       </c>
@@ -4229,7 +4324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75">
+    <row r="82" spans="1:6" ht="15.75" hidden="1">
       <c r="A82" s="1">
         <v>85</v>
       </c>
@@ -4247,7 +4342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75">
+    <row r="83" spans="1:6" ht="15.75" hidden="1">
       <c r="A83" s="1">
         <v>86</v>
       </c>
@@ -4265,7 +4360,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75">
+    <row r="84" spans="1:6" ht="15.75" hidden="1">
       <c r="A84" s="1">
         <v>87</v>
       </c>
@@ -4283,7 +4378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75">
+    <row r="85" spans="1:6" ht="15.75" hidden="1">
       <c r="A85" s="1">
         <v>88</v>
       </c>
@@ -4301,7 +4396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="15.75" hidden="1">
       <c r="A86" s="1">
         <v>89</v>
       </c>
@@ -4319,7 +4414,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="15.75" hidden="1">
       <c r="A87" s="1">
         <v>90</v>
       </c>
@@ -4337,7 +4432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75">
+    <row r="88" spans="1:6" ht="15.75" hidden="1">
       <c r="A88" s="1">
         <v>91</v>
       </c>
@@ -4355,7 +4450,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75">
+    <row r="89" spans="1:6" ht="15.75" hidden="1">
       <c r="A89" s="1">
         <v>92</v>
       </c>
@@ -4481,7 +4576,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="15.75" hidden="1">
       <c r="A96" s="1">
         <v>100</v>
       </c>
@@ -4517,7 +4612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
         <v>102</v>
       </c>
@@ -4535,7 +4630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
         <v>103</v>
       </c>
@@ -4553,7 +4648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="15.75" hidden="1">
       <c r="A100" s="1">
         <v>104</v>
       </c>
@@ -4571,7 +4666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="15.75" hidden="1">
       <c r="A101" s="1">
         <v>105</v>
       </c>
@@ -4589,7 +4684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="15.75" hidden="1">
       <c r="A102" s="1">
         <v>106</v>
       </c>
@@ -4607,7 +4702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.75" hidden="1">
       <c r="A103" s="1">
         <v>107</v>
       </c>
@@ -4625,7 +4720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.75" hidden="1">
       <c r="A104" s="1">
         <v>108</v>
       </c>
@@ -4643,7 +4738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.75" hidden="1">
       <c r="A105" s="1">
         <v>109</v>
       </c>
@@ -4661,7 +4756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
         <v>110</v>
       </c>
@@ -4679,7 +4774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="15.75" hidden="1">
       <c r="A107" s="1">
         <v>111</v>
       </c>
@@ -4697,7 +4792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" hidden="1">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -4715,7 +4810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="15.75" hidden="1">
       <c r="A109" s="1">
         <v>113</v>
       </c>
@@ -4733,7 +4828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="15.75" hidden="1">
       <c r="A110" s="1">
         <v>114</v>
       </c>
@@ -4751,7 +4846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
         <v>115</v>
       </c>
@@ -4769,7 +4864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75">
+    <row r="112" spans="1:6" ht="15.75" hidden="1">
       <c r="A112" s="1">
         <v>116</v>
       </c>
@@ -5021,7 +5116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75">
+    <row r="126" spans="1:6" ht="15.75" hidden="1">
       <c r="A126" s="1">
         <v>129</v>
       </c>
@@ -5039,7 +5134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75">
+    <row r="127" spans="1:6" ht="15.75" hidden="1">
       <c r="A127" s="1">
         <v>130</v>
       </c>
@@ -5057,7 +5152,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
+    <row r="128" spans="1:6" ht="15.75" hidden="1">
       <c r="A128" s="1">
         <v>131</v>
       </c>
@@ -5075,7 +5170,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75">
+    <row r="129" spans="1:6" ht="15.75" hidden="1">
       <c r="A129" s="1">
         <v>132</v>
       </c>
@@ -5093,7 +5188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75">
+    <row r="130" spans="1:6" ht="15.75" hidden="1">
       <c r="A130" s="1">
         <v>133</v>
       </c>
@@ -5111,7 +5206,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75">
+    <row r="131" spans="1:6" ht="15.75" hidden="1">
       <c r="A131" s="1">
         <v>134</v>
       </c>
@@ -5239,15 +5334,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="91">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -309,6 +309,9 @@
   </si>
   <si>
     <t>ADD Recipt</t>
+  </si>
+  <si>
+    <t>Laboratories</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="53">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -522,96 +525,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -882,7 +795,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45589.677995254628" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45589.760662731482" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -891,7 +804,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="140"/>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
-      <sharedItems count="16">
+      <sharedItems count="17">
         <s v="Clinta Member"/>
         <s v="Dashboard"/>
         <s v="Diseases"/>
@@ -899,6 +812,7 @@
         <s v="Health Care"/>
         <s v="Investigation"/>
         <s v="Main"/>
+        <s v="Laboratories"/>
         <s v="Medicine"/>
         <s v="LookUps"/>
         <s v="Support Tickets"/>
@@ -1427,15 +1341,15 @@
   </r>
   <r>
     <n v="62"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Laboratories "/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="63"/>
-    <x v="6"/>
+    <x v="7"/>
     <s v="Laboratories "/>
     <s v="Filters"/>
     <m/>
@@ -1475,7 +1389,7 @@
   </r>
   <r>
     <n v="72"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Company"/>
     <s v="Crud"/>
     <m/>
@@ -1483,7 +1397,7 @@
   </r>
   <r>
     <n v="73"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Company"/>
     <s v="Filter"/>
     <m/>
@@ -1491,7 +1405,7 @@
   </r>
   <r>
     <n v="74"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Forms"/>
     <s v="Crud"/>
     <m/>
@@ -1499,7 +1413,7 @@
   </r>
   <r>
     <n v="75"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="List"/>
     <s v="Crud"/>
     <m/>
@@ -1507,7 +1421,7 @@
   </r>
   <r>
     <n v="76"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="List"/>
     <s v="Filter"/>
     <m/>
@@ -1515,7 +1429,7 @@
   </r>
   <r>
     <n v="77"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Take Type"/>
     <s v="Crud"/>
     <m/>
@@ -1523,7 +1437,7 @@
   </r>
   <r>
     <n v="78"/>
-    <x v="7"/>
+    <x v="8"/>
     <s v="Timing"/>
     <s v="Crud"/>
     <m/>
@@ -1531,7 +1445,7 @@
   </r>
   <r>
     <n v="79"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Listing"/>
     <m/>
@@ -1539,7 +1453,7 @@
   </r>
   <r>
     <n v="80"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Add"/>
     <m/>
@@ -1547,7 +1461,7 @@
   </r>
   <r>
     <n v="81"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Update"/>
     <m/>
@@ -1555,7 +1469,7 @@
   </r>
   <r>
     <n v="82"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Delete"/>
     <m/>
@@ -1563,7 +1477,7 @@
   </r>
   <r>
     <n v="83"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Filters"/>
     <m/>
@@ -1627,7 +1541,7 @@
   </r>
   <r>
     <n v="91"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="ClinTa Extended"/>
     <s v="Filter"/>
     <m/>
@@ -1635,7 +1549,7 @@
   </r>
   <r>
     <n v="92"/>
-    <x v="9"/>
+    <x v="10"/>
     <s v="ClinTa Extended"/>
     <s v="Crud"/>
     <m/>
@@ -1643,7 +1557,7 @@
   </r>
   <r>
     <n v="93"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="Fruits"/>
     <s v="Crud"/>
     <m/>
@@ -1651,7 +1565,7 @@
   </r>
   <r>
     <n v="94"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="Vegetable"/>
     <s v="Crud"/>
     <m/>
@@ -1659,7 +1573,7 @@
   </r>
   <r>
     <n v="95"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="Pulses-Grains"/>
     <s v="Crud"/>
     <m/>
@@ -1667,7 +1581,7 @@
   </r>
   <r>
     <n v="96"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="Dry Fruits"/>
     <s v="Crud"/>
     <m/>
@@ -1675,7 +1589,7 @@
   </r>
   <r>
     <n v="97"/>
-    <x v="10"/>
+    <x v="11"/>
     <s v="Miscellaneous"/>
     <s v="Crud"/>
     <m/>
@@ -1683,7 +1597,7 @@
   </r>
   <r>
     <n v="98"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v=" Users"/>
     <s v="Add"/>
     <m/>
@@ -1691,7 +1605,7 @@
   </r>
   <r>
     <n v="100"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="List"/>
     <s v="Filter"/>
     <m/>
@@ -1699,7 +1613,7 @@
   </r>
   <r>
     <n v="101"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="LookUps Options"/>
     <s v="Crud"/>
     <m/>
@@ -1707,7 +1621,7 @@
   </r>
   <r>
     <n v="102"/>
-    <x v="8"/>
+    <x v="9"/>
     <s v="LookUps Options"/>
     <s v="Filter"/>
     <m/>
@@ -1763,7 +1677,7 @@
   </r>
   <r>
     <n v="109"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Sponsors"/>
     <s v="Crud"/>
     <m/>
@@ -1771,7 +1685,7 @@
   </r>
   <r>
     <n v="110"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Sponsors"/>
     <s v="Filter"/>
     <m/>
@@ -1779,7 +1693,7 @@
   </r>
   <r>
     <n v="111"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Doctor Websites"/>
     <s v="Crud"/>
     <m/>
@@ -1787,7 +1701,7 @@
   </r>
   <r>
     <n v="112"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Doctor Websites"/>
     <s v="Filter"/>
     <m/>
@@ -1795,7 +1709,7 @@
   </r>
   <r>
     <n v="113"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Hospital Websites"/>
     <s v="Crud"/>
     <m/>
@@ -1803,7 +1717,7 @@
   </r>
   <r>
     <n v="114"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Hospital Websites"/>
     <s v="Filter"/>
     <m/>
@@ -1811,7 +1725,7 @@
   </r>
   <r>
     <n v="115"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="Image Database"/>
     <s v="Crud"/>
     <m/>
@@ -1819,7 +1733,7 @@
   </r>
   <r>
     <n v="116"/>
-    <x v="12"/>
+    <x v="13"/>
     <s v="General Banners"/>
     <s v="Crud"/>
     <m/>
@@ -1827,7 +1741,7 @@
   </r>
   <r>
     <n v="117"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Branches"/>
     <s v="Crud"/>
     <m/>
@@ -1835,7 +1749,7 @@
   </r>
   <r>
     <n v="118"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="RCCS"/>
     <s v="Add"/>
     <m/>
@@ -1843,7 +1757,7 @@
   </r>
   <r>
     <n v="119"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="RCCS"/>
     <s v="Update"/>
     <m/>
@@ -1851,7 +1765,7 @@
   </r>
   <r>
     <n v="120"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="RCCS"/>
     <s v="Delete"/>
     <m/>
@@ -1859,7 +1773,7 @@
   </r>
   <r>
     <n v="121"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="RCCS"/>
     <s v="List"/>
     <m/>
@@ -1867,7 +1781,7 @@
   </r>
   <r>
     <n v="121"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="RCCS"/>
     <s v="ADD Recipt"/>
     <m/>
@@ -1875,7 +1789,7 @@
   </r>
   <r>
     <n v="122"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="RCCS"/>
     <s v="Filter"/>
     <m/>
@@ -1883,7 +1797,7 @@
   </r>
   <r>
     <n v="123"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Discount Center"/>
     <s v="Crud"/>
     <m/>
@@ -1891,7 +1805,7 @@
   </r>
   <r>
     <n v="124"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Support Vidoes"/>
     <s v="Add"/>
     <m/>
@@ -1899,7 +1813,7 @@
   </r>
   <r>
     <n v="125"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Support Vidoes"/>
     <s v="Update"/>
     <m/>
@@ -1907,7 +1821,7 @@
   </r>
   <r>
     <n v="126"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Support Vidoes"/>
     <s v="Delete"/>
     <m/>
@@ -1915,7 +1829,7 @@
   </r>
   <r>
     <n v="127"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Support Vidoes"/>
     <s v="List"/>
     <m/>
@@ -1923,7 +1837,7 @@
   </r>
   <r>
     <n v="128"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Diet Categories"/>
     <s v="Add"/>
     <m/>
@@ -1931,7 +1845,7 @@
   </r>
   <r>
     <n v="129"/>
-    <x v="14"/>
+    <x v="15"/>
     <s v="Database Compare"/>
     <s v="Update"/>
     <m/>
@@ -1939,7 +1853,7 @@
   </r>
   <r>
     <n v="130"/>
-    <x v="14"/>
+    <x v="15"/>
     <s v="Profile"/>
     <s v="Delete"/>
     <m/>
@@ -1947,7 +1861,7 @@
   </r>
   <r>
     <n v="131"/>
-    <x v="14"/>
+    <x v="15"/>
     <s v="Deafut Configration"/>
     <s v="List"/>
     <m/>
@@ -1955,7 +1869,7 @@
   </r>
   <r>
     <n v="132"/>
-    <x v="14"/>
+    <x v="15"/>
     <s v="Deafut Lookup"/>
     <s v="Crud"/>
     <m/>
@@ -1963,7 +1877,7 @@
   </r>
   <r>
     <n v="133"/>
-    <x v="15"/>
+    <x v="16"/>
     <s v="Pharmacy Profile"/>
     <s v="Crud"/>
     <m/>
@@ -1971,7 +1885,7 @@
   </r>
   <r>
     <n v="134"/>
-    <x v="15"/>
+    <x v="16"/>
     <s v="Pharmacy Profile"/>
     <s v="Filter"/>
     <m/>
@@ -1979,7 +1893,7 @@
   </r>
   <r>
     <n v="135"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v=" Users"/>
     <s v="Update"/>
     <m/>
@@ -1987,7 +1901,7 @@
   </r>
   <r>
     <n v="136"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v=" Users"/>
     <s v="Delete"/>
     <m/>
@@ -1995,7 +1909,7 @@
   </r>
   <r>
     <n v="137"/>
-    <x v="11"/>
+    <x v="12"/>
     <s v=" Users"/>
     <s v="Listing"/>
     <m/>
@@ -2003,7 +1917,7 @@
   </r>
   <r>
     <n v="138"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Diet Categories"/>
     <s v="Update"/>
     <m/>
@@ -2011,7 +1925,7 @@
   </r>
   <r>
     <n v="139"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Diet Categories"/>
     <s v="Delete"/>
     <m/>
@@ -2019,7 +1933,7 @@
   </r>
   <r>
     <n v="140"/>
-    <x v="13"/>
+    <x v="14"/>
     <s v="Diet Categories"/>
     <s v="List"/>
     <m/>
@@ -2030,27 +1944,28 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
-  <location ref="A3:D21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="17">
+      <items count="18">
+        <item x="15"/>
         <item x="14"/>
+        <item x="0"/>
+        <item x="16"/>
         <item x="13"/>
-        <item x="0"/>
-        <item x="15"/>
-        <item x="12"/>
         <item x="1"/>
-        <item x="10"/>
+        <item x="11"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="9"/>
+        <item x="6"/>
         <item x="8"/>
-        <item x="6"/>
+        <item x="10"/>
+        <item x="12"/>
         <item x="7"/>
-        <item x="9"/>
-        <item x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2069,7 +1984,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -2118,6 +2033,9 @@
     <i>
       <x v="15"/>
     </i>
+    <i>
+      <x v="16"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2140,83 +2058,83 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="61">
+    <format dxfId="52">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="51">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="50">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="49">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="48">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="47">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="54">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="44">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="52">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="42">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="41">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="40">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="39">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="38">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="37">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2233,11 +2151,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:F137">
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="ClinTa Health Care"/>
+        <filter val="Laboratories"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
@@ -2250,12 +2168,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="35"/>
-    <tableColumn id="1" name="Product" dataDxfId="34"/>
-    <tableColumn id="3" name="Segment" dataDxfId="33"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="32"/>
-    <tableColumn id="4" name="Task" dataDxfId="31"/>
-    <tableColumn id="5" name="Status" dataDxfId="30"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="26"/>
+    <tableColumn id="1" name="Product" dataDxfId="25"/>
+    <tableColumn id="3" name="Segment" dataDxfId="24"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="23"/>
+    <tableColumn id="4" name="Task" dataDxfId="22"/>
+    <tableColumn id="5" name="Status" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2578,11 +2496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2783,10 +2701,10 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75">
@@ -2827,15 +2745,29 @@
     </row>
     <row r="21" spans="1:4" ht="18.75">
       <c r="A21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>1</v>
+      </c>
+      <c r="D21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75">
+      <c r="A22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="9">
-        <v>64</v>
-      </c>
-      <c r="C21" s="9">
-        <v>72</v>
-      </c>
-      <c r="D21" s="9">
+      <c r="B22" s="9">
+        <v>65</v>
+      </c>
+      <c r="C22" s="9">
+        <v>71</v>
+      </c>
+      <c r="D22" s="9">
         <v>136</v>
       </c>
     </row>
@@ -2851,9 +2783,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3982,12 +3914,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1">
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>70</v>
@@ -3997,15 +3929,15 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>70</v>
@@ -4882,7 +4814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75">
+    <row r="113" spans="1:6" ht="15.75" hidden="1">
       <c r="A113" s="1">
         <v>117</v>
       </c>
@@ -4900,7 +4832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75">
+    <row r="114" spans="1:6" ht="15.75" hidden="1">
       <c r="A114" s="1">
         <v>118</v>
       </c>
@@ -4918,7 +4850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75">
+    <row r="115" spans="1:6" ht="15.75" hidden="1">
       <c r="A115" s="1">
         <v>119</v>
       </c>
@@ -4936,7 +4868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75">
+    <row r="116" spans="1:6" ht="15.75" hidden="1">
       <c r="A116" s="1">
         <v>120</v>
       </c>
@@ -4972,7 +4904,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="15.75" hidden="1">
       <c r="A118" s="1">
         <v>121</v>
       </c>
@@ -4990,7 +4922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75">
+    <row r="119" spans="1:6" ht="15.75" hidden="1">
       <c r="A119" s="1">
         <v>122</v>
       </c>
@@ -5008,7 +4940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75">
+    <row r="120" spans="1:6" ht="15.75" hidden="1">
       <c r="A120" s="1">
         <v>123</v>
       </c>
@@ -5334,15 +5266,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -412,120 +412,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1943,7 +1830,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2058,83 +1945,83 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="21">
-    <format dxfId="52">
+    <format dxfId="31">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="30">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="29">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="28">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="27">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="26">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="21">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="20">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="19">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="39">
+    <format dxfId="18">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="17">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="16">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -2151,13 +2038,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F137">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Laboratories"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2168,12 +2050,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="26"/>
-    <tableColumn id="1" name="Product" dataDxfId="25"/>
-    <tableColumn id="3" name="Segment" dataDxfId="24"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="23"/>
-    <tableColumn id="4" name="Task" dataDxfId="22"/>
-    <tableColumn id="5" name="Status" dataDxfId="21"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
+    <tableColumn id="1" name="Product" dataDxfId="4"/>
+    <tableColumn id="3" name="Segment" dataDxfId="3"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
+    <tableColumn id="4" name="Task" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2498,7 +2380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
@@ -2783,9 +2665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2818,7 +2700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" hidden="1">
+    <row r="2" spans="1:6" ht="15.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2836,7 +2718,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2854,7 +2736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" hidden="1">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2872,7 +2754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" hidden="1">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2890,7 +2772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2908,7 +2790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" hidden="1">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2926,7 +2808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" hidden="1">
+    <row r="8" spans="1:6" ht="15.75">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3014,7 +2896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3410,7 +3292,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1">
+    <row r="35" spans="1:6" ht="15.75">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3428,7 +3310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1">
+    <row r="36" spans="1:6" ht="15.75">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3716,7 +3598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3734,7 +3616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3752,7 +3634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3770,7 +3652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -3788,7 +3670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -3806,7 +3688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -3824,7 +3706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3842,7 +3724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -3860,7 +3742,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -3878,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" hidden="1">
+    <row r="61" spans="1:6" ht="15.75">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -3896,7 +3778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1">
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3914,7 +3796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="15.75" hidden="1">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -3950,7 +3832,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1">
+    <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -3968,7 +3850,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1">
+    <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -3986,7 +3868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4004,7 +3886,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1">
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4022,7 +3904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1">
+    <row r="69" spans="1:6" ht="15.75">
       <c r="A69" s="1">
         <v>72</v>
       </c>
@@ -4040,7 +3922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" hidden="1">
+    <row r="70" spans="1:6" ht="15.75">
       <c r="A70" s="1">
         <v>73</v>
       </c>
@@ -4058,7 +3940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1">
+    <row r="71" spans="1:6" ht="15.75">
       <c r="A71" s="1">
         <v>74</v>
       </c>
@@ -4076,7 +3958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1">
+    <row r="72" spans="1:6" ht="15.75">
       <c r="A72" s="1">
         <v>75</v>
       </c>
@@ -4094,7 +3976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1">
+    <row r="73" spans="1:6" ht="15.75">
       <c r="A73" s="1">
         <v>76</v>
       </c>
@@ -4112,7 +3994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" hidden="1">
+    <row r="74" spans="1:6" ht="15.75">
       <c r="A74" s="1">
         <v>77</v>
       </c>
@@ -4130,7 +4012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" hidden="1">
+    <row r="75" spans="1:6" ht="15.75">
       <c r="A75" s="1">
         <v>78</v>
       </c>
@@ -4238,7 +4120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" hidden="1">
+    <row r="81" spans="1:6" ht="15.75">
       <c r="A81" s="1">
         <v>84</v>
       </c>
@@ -4256,7 +4138,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" hidden="1">
+    <row r="82" spans="1:6" ht="15.75">
       <c r="A82" s="1">
         <v>85</v>
       </c>
@@ -4274,7 +4156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" hidden="1">
+    <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="1">
         <v>86</v>
       </c>
@@ -4292,7 +4174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" hidden="1">
+    <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="1">
         <v>87</v>
       </c>
@@ -4310,7 +4192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1">
+    <row r="85" spans="1:6" ht="15.75">
       <c r="A85" s="1">
         <v>88</v>
       </c>
@@ -4328,7 +4210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1">
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" s="1">
         <v>89</v>
       </c>
@@ -4346,7 +4228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1">
+    <row r="87" spans="1:6" ht="15.75">
       <c r="A87" s="1">
         <v>90</v>
       </c>
@@ -4364,7 +4246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" hidden="1">
+    <row r="88" spans="1:6" ht="15.75">
       <c r="A88" s="1">
         <v>91</v>
       </c>
@@ -4382,7 +4264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1">
+    <row r="89" spans="1:6" ht="15.75">
       <c r="A89" s="1">
         <v>92</v>
       </c>
@@ -4508,7 +4390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1">
+    <row r="96" spans="1:6" ht="15.75">
       <c r="A96" s="1">
         <v>100</v>
       </c>
@@ -4544,7 +4426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1">
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="1">
         <v>102</v>
       </c>
@@ -4562,7 +4444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1">
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="1">
         <v>103</v>
       </c>
@@ -4580,7 +4462,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1">
+    <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
         <v>104</v>
       </c>
@@ -4598,7 +4480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1">
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="1">
         <v>105</v>
       </c>
@@ -4616,7 +4498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1">
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
         <v>106</v>
       </c>
@@ -4634,7 +4516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1">
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" s="1">
         <v>107</v>
       </c>
@@ -4652,7 +4534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="1">
         <v>108</v>
       </c>
@@ -4670,7 +4552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1">
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="1">
         <v>109</v>
       </c>
@@ -4688,7 +4570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1">
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" s="1">
         <v>110</v>
       </c>
@@ -4706,7 +4588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" hidden="1">
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" s="1">
         <v>111</v>
       </c>
@@ -4724,7 +4606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="1">
         <v>112</v>
       </c>
@@ -4742,7 +4624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" hidden="1">
+    <row r="109" spans="1:6" ht="15.75">
       <c r="A109" s="1">
         <v>113</v>
       </c>
@@ -4760,7 +4642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1">
+    <row r="110" spans="1:6" ht="15.75">
       <c r="A110" s="1">
         <v>114</v>
       </c>
@@ -4778,7 +4660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1">
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" s="1">
         <v>115</v>
       </c>
@@ -4796,7 +4678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" hidden="1">
+    <row r="112" spans="1:6" ht="15.75">
       <c r="A112" s="1">
         <v>116</v>
       </c>
@@ -4814,7 +4696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" hidden="1">
+    <row r="113" spans="1:6" ht="15.75">
       <c r="A113" s="1">
         <v>117</v>
       </c>
@@ -4832,7 +4714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" hidden="1">
+    <row r="114" spans="1:6" ht="15.75">
       <c r="A114" s="1">
         <v>118</v>
       </c>
@@ -4850,7 +4732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" hidden="1">
+    <row r="115" spans="1:6" ht="15.75">
       <c r="A115" s="1">
         <v>119</v>
       </c>
@@ -4868,7 +4750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" hidden="1">
+    <row r="116" spans="1:6" ht="15.75">
       <c r="A116" s="1">
         <v>120</v>
       </c>
@@ -4904,7 +4786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
+    <row r="118" spans="1:6" ht="15.75">
       <c r="A118" s="1">
         <v>121</v>
       </c>
@@ -4922,7 +4804,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" hidden="1">
+    <row r="119" spans="1:6" ht="15.75">
       <c r="A119" s="1">
         <v>122</v>
       </c>
@@ -4940,7 +4822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" hidden="1">
+    <row r="120" spans="1:6" ht="15.75">
       <c r="A120" s="1">
         <v>123</v>
       </c>
@@ -5048,7 +4930,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1">
+    <row r="126" spans="1:6" ht="15.75">
       <c r="A126" s="1">
         <v>129</v>
       </c>
@@ -5066,7 +4948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1">
+    <row r="127" spans="1:6" ht="15.75">
       <c r="A127" s="1">
         <v>130</v>
       </c>
@@ -5084,7 +4966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" hidden="1">
+    <row r="128" spans="1:6" ht="15.75">
       <c r="A128" s="1">
         <v>131</v>
       </c>
@@ -5102,7 +4984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" hidden="1">
+    <row r="129" spans="1:6" ht="15.75">
       <c r="A129" s="1">
         <v>132</v>
       </c>
@@ -5120,7 +5002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" hidden="1">
+    <row r="130" spans="1:6" ht="15.75">
       <c r="A130" s="1">
         <v>133</v>
       </c>
@@ -5138,7 +5020,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" hidden="1">
+    <row r="131" spans="1:6" ht="15.75">
       <c r="A131" s="1">
         <v>134</v>
       </c>
@@ -5266,15 +5148,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="93">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -312,6 +312,12 @@
   </si>
   <si>
     <t>Laboratories</t>
+  </si>
+  <si>
+    <t>Shift to Preimum</t>
+  </si>
+  <si>
+    <t>View</t>
   </si>
 </sst>
 </file>
@@ -349,7 +355,7 @@
       <name val="Eras Medium ITC"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +371,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -408,11 +420,92 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -524,36 +617,6 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -682,7 +745,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45589.760662731482" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45590.667940046296" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -722,8 +785,8 @@
     </cacheField>
     <cacheField name="Status" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
+        <s v="Complete"/>
         <s v="Pending"/>
-        <s v="Complete"/>
         <m u="1"/>
       </sharedItems>
     </cacheField>
@@ -737,7 +800,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="136">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="134">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -752,37 +815,21 @@
     <s v="List"/>
     <s v="Filters"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="3"/>
     <x v="0"/>
     <s v="List"/>
-    <s v="Listing"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="4"/>
+    <s v="Shift to Preimum"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="5"/>
     <x v="0"/>
     <s v="List"/>
-    <s v="Add"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="0"/>
-    <s v="List"/>
-    <s v="Delete"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="0"/>
-    <s v="List"/>
-    <s v="Update"/>
+    <s v="View"/>
     <m/>
     <x v="0"/>
   </r>
@@ -792,7 +839,7 @@
     <s v="Graphs"/>
     <m/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="8"/>
@@ -800,7 +847,7 @@
     <s v="Diseases"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="9"/>
@@ -808,7 +855,7 @@
     <s v="Diseases"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="10"/>
@@ -816,7 +863,7 @@
     <s v="Diseases"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="11"/>
@@ -824,7 +871,7 @@
     <s v="Diseases"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="12"/>
@@ -840,7 +887,7 @@
     <s v="Diet Plan"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="14"/>
@@ -848,7 +895,7 @@
     <s v="Dry Fruit and Seeds"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="15"/>
@@ -856,7 +903,7 @@
     <s v="Exercise"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="16"/>
@@ -864,7 +911,7 @@
     <s v="Exercise"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="17"/>
@@ -872,7 +919,7 @@
     <s v="Exercise"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="18"/>
@@ -880,7 +927,7 @@
     <s v="Exercise"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="19"/>
@@ -888,7 +935,7 @@
     <s v="Fruit"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="20"/>
@@ -896,7 +943,7 @@
     <s v="Fruit"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="21"/>
@@ -904,7 +951,7 @@
     <s v="Fruit"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="22"/>
@@ -912,7 +959,7 @@
     <s v="Fruit"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="23"/>
@@ -920,7 +967,7 @@
     <s v="Fruit"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="24"/>
@@ -928,7 +975,7 @@
     <s v="Miscellaneous"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="25"/>
@@ -936,7 +983,7 @@
     <s v="Miscellaneous"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="26"/>
@@ -944,7 +991,7 @@
     <s v="Miscellaneous"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="27"/>
@@ -952,7 +999,7 @@
     <s v="Miscellaneous"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="28"/>
@@ -960,7 +1007,7 @@
     <s v="Miscellaneous"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="29"/>
@@ -968,7 +1015,7 @@
     <s v="Pulses-Grains"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="30"/>
@@ -976,7 +1023,7 @@
     <s v="Pulses-Grains"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="31"/>
@@ -984,7 +1031,7 @@
     <s v="Pulses-Grains"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="32"/>
@@ -992,7 +1039,7 @@
     <s v="Pulses-Grains"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="33"/>
@@ -1000,7 +1047,7 @@
     <s v="Pulses-Grains"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="34"/>
@@ -1008,7 +1055,7 @@
     <s v="Stats"/>
     <s v="Premium Members"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="35"/>
@@ -1016,7 +1063,7 @@
     <s v="Stats"/>
     <s v="Basic Members"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="36"/>
@@ -1024,7 +1071,7 @@
     <s v="Tips and Guides"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="37"/>
@@ -1032,7 +1079,7 @@
     <s v="Tips and Guides"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="38"/>
@@ -1040,7 +1087,7 @@
     <s v="Tips and Guides"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="39"/>
@@ -1048,7 +1095,7 @@
     <s v="Tips and Guides"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="40"/>
@@ -1056,7 +1103,7 @@
     <s v="Vegetable"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="41"/>
@@ -1064,7 +1111,7 @@
     <s v="Vegetable"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="42"/>
@@ -1072,7 +1119,7 @@
     <s v="Vegetable"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="43"/>
@@ -1080,7 +1127,7 @@
     <s v="Vegetable"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="44"/>
@@ -1088,7 +1135,7 @@
     <s v="Vegetable"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="45"/>
@@ -1096,7 +1143,7 @@
     <s v="Dry Fruits"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="46"/>
@@ -1104,7 +1151,7 @@
     <s v="Dry Fruits"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="47"/>
@@ -1112,7 +1159,7 @@
     <s v="Dry Fruits"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="48"/>
@@ -1120,7 +1167,7 @@
     <s v="Dry Fruits"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="49"/>
@@ -1128,7 +1175,7 @@
     <s v="Dry Fruits"/>
     <s v="Details and Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="50"/>
@@ -1136,7 +1183,7 @@
     <s v="Work out Plan"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="51"/>
@@ -1144,7 +1191,7 @@
     <s v="Lab Reports"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="52"/>
@@ -1152,7 +1199,7 @@
     <s v="Lab Reports"/>
     <s v="Filters"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="53"/>
@@ -1160,7 +1207,7 @@
     <s v="Radiology"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="54"/>
@@ -1168,7 +1215,7 @@
     <s v="Radiology"/>
     <s v="Filters"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="55"/>
@@ -1176,7 +1223,7 @@
     <s v="Admin Activity"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="56"/>
@@ -1184,7 +1231,7 @@
     <s v="Admin Activity"/>
     <s v="Filters"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="57"/>
@@ -1192,7 +1239,7 @@
     <s v="Customer"/>
     <s v="Listing"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="58"/>
@@ -1200,7 +1247,7 @@
     <s v="Customer"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="59"/>
@@ -1208,7 +1255,7 @@
     <s v="Customer"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="60"/>
@@ -1216,7 +1263,7 @@
     <s v="Customer"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="61"/>
@@ -1224,7 +1271,7 @@
     <s v="Customer"/>
     <s v="Filters"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="62"/>
@@ -1232,7 +1279,7 @@
     <s v="Laboratories "/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="63"/>
@@ -1240,7 +1287,7 @@
     <s v="Laboratories "/>
     <s v="Filters"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="64"/>
@@ -1248,7 +1295,7 @@
     <s v="Login"/>
     <s v="Login"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="65"/>
@@ -1256,7 +1303,7 @@
     <s v="Login"/>
     <s v="Forget Password"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="66"/>
@@ -1264,7 +1311,7 @@
     <s v="Specialities"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="67"/>
@@ -1272,7 +1319,7 @@
     <s v="Specialities"/>
     <s v="Filters"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="72"/>
@@ -1280,7 +1327,7 @@
     <s v="Company"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="73"/>
@@ -1288,7 +1335,7 @@
     <s v="Company"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="74"/>
@@ -1296,7 +1343,7 @@
     <s v="Forms"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="75"/>
@@ -1304,7 +1351,7 @@
     <s v="List"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="76"/>
@@ -1312,7 +1359,7 @@
     <s v="List"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="77"/>
@@ -1320,7 +1367,7 @@
     <s v="Take Type"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="78"/>
@@ -1328,7 +1375,7 @@
     <s v="Timing"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="79"/>
@@ -1336,7 +1383,7 @@
     <s v="LookUps (Nav)"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="80"/>
@@ -1344,7 +1391,7 @@
     <s v="LookUps (Nav)"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="81"/>
@@ -1352,7 +1399,7 @@
     <s v="LookUps (Nav)"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="82"/>
@@ -1360,7 +1407,7 @@
     <s v="LookUps (Nav)"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="83"/>
@@ -1368,7 +1415,7 @@
     <s v="LookUps (Nav)"/>
     <s v="Filters"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="84"/>
@@ -1376,7 +1423,7 @@
     <s v="Admin Approval"/>
     <s v="List"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="85"/>
@@ -1432,7 +1479,7 @@
     <s v="ClinTa Extended"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="92"/>
@@ -1440,7 +1487,7 @@
     <s v="ClinTa Extended"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="93"/>
@@ -1448,7 +1495,7 @@
     <s v="Fruits"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="94"/>
@@ -1456,7 +1503,7 @@
     <s v="Vegetable"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="95"/>
@@ -1464,7 +1511,7 @@
     <s v="Pulses-Grains"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="96"/>
@@ -1472,7 +1519,7 @@
     <s v="Dry Fruits"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="97"/>
@@ -1480,7 +1527,7 @@
     <s v="Miscellaneous"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="98"/>
@@ -1488,7 +1535,7 @@
     <s v=" Users"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="100"/>
@@ -1496,7 +1543,7 @@
     <s v="List"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="101"/>
@@ -1504,7 +1551,7 @@
     <s v="LookUps Options"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="102"/>
@@ -1512,7 +1559,7 @@
     <s v="LookUps Options"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="103"/>
@@ -1520,7 +1567,7 @@
     <s v="Lab Reports "/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="104"/>
@@ -1528,7 +1575,7 @@
     <s v="Radiology "/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="105"/>
@@ -1536,7 +1583,7 @@
     <s v="Lab Reports "/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="106"/>
@@ -1544,7 +1591,7 @@
     <s v="Radiology "/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="107"/>
@@ -1552,7 +1599,7 @@
     <s v="Lab Reports Parameters"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="108"/>
@@ -1560,7 +1607,7 @@
     <s v="Radiology Parameters"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="109"/>
@@ -1568,7 +1615,7 @@
     <s v="Sponsors"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="110"/>
@@ -1576,7 +1623,7 @@
     <s v="Sponsors"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="111"/>
@@ -1584,7 +1631,7 @@
     <s v="Doctor Websites"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="112"/>
@@ -1592,7 +1639,7 @@
     <s v="Doctor Websites"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="113"/>
@@ -1600,7 +1647,7 @@
     <s v="Hospital Websites"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="114"/>
@@ -1608,7 +1655,7 @@
     <s v="Hospital Websites"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="115"/>
@@ -1616,7 +1663,7 @@
     <s v="Image Database"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="116"/>
@@ -1624,7 +1671,7 @@
     <s v="General Banners"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="117"/>
@@ -1632,7 +1679,7 @@
     <s v="Branches"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="118"/>
@@ -1640,7 +1687,7 @@
     <s v="RCCS"/>
     <s v="Add"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="119"/>
@@ -1648,7 +1695,7 @@
     <s v="RCCS"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="120"/>
@@ -1656,7 +1703,7 @@
     <s v="RCCS"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="121"/>
@@ -1664,7 +1711,7 @@
     <s v="RCCS"/>
     <s v="List"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="121"/>
@@ -1672,7 +1719,7 @@
     <s v="RCCS"/>
     <s v="ADD Recipt"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="122"/>
@@ -1680,7 +1727,7 @@
     <s v="RCCS"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="123"/>
@@ -1688,7 +1735,7 @@
     <s v="Discount Center"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="124"/>
@@ -1696,7 +1743,7 @@
     <s v="Support Vidoes"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="125"/>
@@ -1704,7 +1751,7 @@
     <s v="Support Vidoes"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="126"/>
@@ -1712,7 +1759,7 @@
     <s v="Support Vidoes"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="127"/>
@@ -1720,7 +1767,7 @@
     <s v="Support Vidoes"/>
     <s v="List"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="128"/>
@@ -1728,7 +1775,7 @@
     <s v="Diet Categories"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="129"/>
@@ -1736,7 +1783,7 @@
     <s v="Database Compare"/>
     <s v="Update"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="130"/>
@@ -1744,7 +1791,7 @@
     <s v="Profile"/>
     <s v="Delete"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="131"/>
@@ -1752,7 +1799,7 @@
     <s v="Deafut Configration"/>
     <s v="List"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="132"/>
@@ -1760,7 +1807,7 @@
     <s v="Deafut Lookup"/>
     <s v="Crud"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="133"/>
@@ -1776,7 +1823,7 @@
     <s v="Pharmacy Profile"/>
     <s v="Filter"/>
     <m/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <n v="135"/>
@@ -1784,7 +1831,7 @@
     <s v=" Users"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="136"/>
@@ -1792,7 +1839,7 @@
     <s v=" Users"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="137"/>
@@ -1800,7 +1847,7 @@
     <s v=" Users"/>
     <s v="Listing"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="138"/>
@@ -1808,7 +1855,7 @@
     <s v="Diet Categories"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="139"/>
@@ -1816,7 +1863,7 @@
     <s v="Diet Categories"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="140"/>
@@ -1824,13 +1871,13 @@
     <s v="Diet Categories"/>
     <s v="List"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1861,8 +1908,8 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="4">
+        <item x="0"/>
         <item x="1"/>
-        <item x="0"/>
         <item m="1" x="2"/>
         <item t="default"/>
       </items>
@@ -1944,85 +1991,139 @@
   <dataFields count="1">
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="21">
-    <format dxfId="31">
+  <formats count="27">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="34">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="33">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="32">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="24">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="22">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleDark2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -2038,8 +2139,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F137">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:F135">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Laboratories"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2050,12 +2156,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="14"/>
+    <tableColumn id="1" name="Product" dataDxfId="13"/>
+    <tableColumn id="3" name="Segment" dataDxfId="12"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="11"/>
+    <tableColumn id="4" name="Task" dataDxfId="10"/>
+    <tableColumn id="5" name="Status" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2380,9 +2486,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12:D12"/>
+      <pivotSelection pane="topRight" showHeader="1" extendable="1" axis="axisRow" start="7" max="18" activeRow="11" previousRow="11" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" fieldPosition="0">
+          <references count="1">
+            <reference field="1" count="1">
+              <x v="7"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2457,21 +2572,25 @@
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
       <c r="C7" s="9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D7" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9">
+        <v>1</v>
+      </c>
       <c r="C8" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="9">
         <v>2</v>
@@ -2502,38 +2621,38 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="12">
         <v>5</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" s="15" customFormat="1" ht="18.75">
+      <c r="A12" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="14">
         <v>4</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9">
+      <c r="B13" s="12">
         <v>7</v>
       </c>
-      <c r="D13" s="9">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12">
         <v>7</v>
       </c>
     </row>
@@ -2644,13 +2763,13 @@
         <v>84</v>
       </c>
       <c r="B22" s="9">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C22" s="9">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D22" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2663,11 +2782,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2700,7 +2819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75">
+    <row r="2" spans="1:6" ht="15.75" hidden="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2715,10 +2834,10 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2736,7 +2855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.75" hidden="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2747,16 +2866,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" hidden="1">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -2765,77 +2884,77 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>23</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" hidden="1">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.75" hidden="1">
       <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" hidden="1">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" hidden="1">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>88</v>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1" t="s">
@@ -2844,7 +2963,7 @@
     </row>
     <row r="10" spans="1:6" ht="15.75" hidden="1">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -2852,80 +2971,80 @@
       <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" hidden="1">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" hidden="1">
       <c r="A12" s="1">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="15.75" hidden="1">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" hidden="1">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -2934,16 +3053,16 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" hidden="1">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
@@ -2952,7 +3071,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" hidden="1">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>49</v>
@@ -2960,8 +3079,8 @@
       <c r="C16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>88</v>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
@@ -2970,7 +3089,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" hidden="1">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>49</v>
@@ -2978,8 +3097,8 @@
       <c r="C17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>23</v>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
@@ -2988,16 +3107,16 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" hidden="1">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -3006,25 +3125,25 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" hidden="1">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" hidden="1">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>49</v>
@@ -3032,17 +3151,17 @@
       <c r="C20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" hidden="1">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>49</v>
@@ -3050,17 +3169,17 @@
       <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" hidden="1">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>49</v>
@@ -3069,7 +3188,7 @@
         <v>52</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1" t="s">
@@ -3078,16 +3197,16 @@
     </row>
     <row r="23" spans="1:6" ht="15.75" hidden="1">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
@@ -3096,25 +3215,25 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" hidden="1">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" hidden="1">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>49</v>
@@ -3123,7 +3242,7 @@
         <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
@@ -3132,7 +3251,7 @@
     </row>
     <row r="26" spans="1:6" ht="15.75" hidden="1">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>49</v>
@@ -3141,7 +3260,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
@@ -3150,7 +3269,7 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" hidden="1">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>49</v>
@@ -3158,26 +3277,26 @@
       <c r="C27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="1"/>
+      <c r="D27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" hidden="1">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
@@ -3186,16 +3305,16 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" hidden="1">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
@@ -3204,7 +3323,7 @@
     </row>
     <row r="30" spans="1:6" ht="15.75" hidden="1">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>49</v>
@@ -3213,16 +3332,16 @@
         <v>39</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" hidden="1">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>49</v>
@@ -3231,7 +3350,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
@@ -3240,7 +3359,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" hidden="1">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>49</v>
@@ -3248,8 +3367,8 @@
       <c r="C32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>24</v>
+      <c r="D32" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
@@ -3258,79 +3377,79 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" hidden="1">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" hidden="1">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" hidden="1">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" hidden="1">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" hidden="1">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>49</v>
@@ -3339,16 +3458,16 @@
         <v>47</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" hidden="1">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>49</v>
@@ -3357,7 +3476,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
@@ -3366,16 +3485,16 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" hidden="1">
       <c r="A39" s="1">
+        <v>40</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
@@ -3384,16 +3503,16 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" hidden="1">
       <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>47</v>
+      <c r="C40" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
@@ -3402,7 +3521,7 @@
     </row>
     <row r="41" spans="1:6" ht="15.75" hidden="1">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>49</v>
@@ -3411,7 +3530,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
@@ -3420,34 +3539,34 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" hidden="1">
       <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" hidden="1">
       <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
@@ -3456,34 +3575,34 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" hidden="1">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>38</v>
+      <c r="C44" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" hidden="1">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>38</v>
+      <c r="C45" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
@@ -3492,7 +3611,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" hidden="1">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>49</v>
@@ -3501,7 +3620,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
@@ -3510,7 +3629,7 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" hidden="1">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>49</v>
@@ -3519,7 +3638,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="s">
@@ -3528,7 +3647,7 @@
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>49</v>
@@ -3537,7 +3656,7 @@
         <v>40</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
@@ -3546,67 +3665,67 @@
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>40</v>
+      <c r="C49" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" hidden="1">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>40</v>
+        <v>58</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" hidden="1">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" hidden="1">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -3616,15 +3735,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75" hidden="1">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>22</v>
@@ -3634,15 +3753,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" hidden="1">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>11</v>
@@ -3652,15 +3771,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" hidden="1">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>22</v>
@@ -3670,45 +3789,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" hidden="1">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" hidden="1">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" hidden="1">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>67</v>
@@ -3717,16 +3836,16 @@
         <v>69</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" hidden="1">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>67</v>
@@ -3735,16 +3854,16 @@
         <v>69</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75" hidden="1">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>67</v>
@@ -3753,40 +3872,40 @@
         <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75">
+    <row r="61" spans="1:6" ht="15.75" hidden="1">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>22</v>
@@ -3798,121 +3917,121 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6" ht="15.75" hidden="1">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="15.75" hidden="1">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="15.75" hidden="1">
       <c r="A69" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -3922,51 +4041,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="15.75" hidden="1">
       <c r="A70" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6" ht="15.75" hidden="1">
       <c r="A71" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="15.75" hidden="1">
       <c r="A72" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>11</v>
@@ -3976,63 +4095,63 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6" ht="15.75" hidden="1">
       <c r="A73" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75">
+    <row r="74" spans="1:6" ht="15.75" hidden="1">
       <c r="A74" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" hidden="1">
       <c r="A75" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1">
       <c r="A76" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>65</v>
@@ -4041,7 +4160,7 @@
         <v>74</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -4050,7 +4169,7 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1">
       <c r="A77" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>65</v>
@@ -4059,7 +4178,7 @@
         <v>74</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -4068,7 +4187,7 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1">
       <c r="A78" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>65</v>
@@ -4077,7 +4196,7 @@
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -4086,139 +4205,139 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1">
       <c r="A80" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75">
+    <row r="81" spans="1:6" ht="15.75" hidden="1">
       <c r="A81" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" hidden="1">
       <c r="A82" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" hidden="1">
       <c r="A83" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" hidden="1">
       <c r="A84" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" hidden="1">
       <c r="A85" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" hidden="1">
       <c r="A86" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>17</v>
@@ -4228,15 +4347,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="15.75" hidden="1">
       <c r="A87" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -4246,51 +4365,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75">
+    <row r="88" spans="1:6" ht="15.75" hidden="1">
       <c r="A88" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" hidden="1">
       <c r="A89" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1">
       <c r="A90" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -4302,13 +4421,13 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1">
       <c r="A91" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4320,13 +4439,13 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1">
       <c r="A92" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>11</v>
@@ -4338,16 +4457,16 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1">
       <c r="A93" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
@@ -4356,49 +4475,49 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1">
       <c r="A94" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1">
       <c r="A95" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="15.75" hidden="1">
       <c r="A96" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>17</v>
@@ -4410,43 +4529,43 @@
     </row>
     <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D97" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>17</v>
+        <v>62</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>58</v>
@@ -4455,16 +4574,16 @@
         <v>61</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="15.75" hidden="1">
       <c r="A100" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>58</v>
@@ -4473,60 +4592,60 @@
         <v>62</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="15.75" hidden="1">
       <c r="A101" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="15.75" hidden="1">
       <c r="A102" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.75" hidden="1">
       <c r="A103" s="1">
-        <v>107</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D103" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E103" s="1"/>
@@ -4534,33 +4653,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.75" hidden="1">
       <c r="A104" s="1">
-        <v>108</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>11</v>
+        <v>110</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.75" hidden="1">
       <c r="A105" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>11</v>
@@ -4570,15 +4689,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>17</v>
@@ -4588,15 +4707,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="15.75" hidden="1">
       <c r="A107" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>11</v>
@@ -4606,15 +4725,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" hidden="1">
       <c r="A108" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>17</v>
@@ -4624,15 +4743,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="15.75" hidden="1">
       <c r="A109" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
@@ -4642,33 +4761,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="15.75" hidden="1">
       <c r="A110" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>11</v>
@@ -4678,45 +4797,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75">
+    <row r="112" spans="1:6" ht="15.75" hidden="1">
       <c r="A112" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75">
+    <row r="113" spans="1:6" ht="15.75" hidden="1">
       <c r="A113" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75">
+    <row r="114" spans="1:6" ht="15.75" hidden="1">
       <c r="A114" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>14</v>
@@ -4724,17 +4843,17 @@
       <c r="C114" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E114" s="1"/>
+      <c r="D114" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E114" s="2"/>
       <c r="F114" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75">
+    <row r="115" spans="1:6" ht="15.75" hidden="1">
       <c r="A115" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>14</v>
@@ -4743,16 +4862,16 @@
         <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" hidden="1">
       <c r="A116" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>14</v>
@@ -4761,7 +4880,7 @@
         <v>16</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="1" t="s">
@@ -4770,7 +4889,7 @@
     </row>
     <row r="117" spans="1:6" ht="15.75" hidden="1">
       <c r="A117" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>14</v>
@@ -4778,71 +4897,71 @@
       <c r="C117" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" s="2"/>
+      <c r="D117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" hidden="1">
       <c r="A118" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E118" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75">
+    <row r="119" spans="1:6" ht="15.75" hidden="1">
       <c r="A119" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" hidden="1">
       <c r="A120" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" hidden="1">
       <c r="A121" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
@@ -4850,17 +4969,17 @@
       <c r="C121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="1"/>
+      <c r="D121" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E121" s="2"/>
       <c r="F121" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" hidden="1">
       <c r="A122" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
@@ -4869,7 +4988,7 @@
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
@@ -4878,169 +4997,169 @@
     </row>
     <row r="123" spans="1:6" ht="15.75" hidden="1">
       <c r="A123" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E123" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" hidden="1">
       <c r="A126" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75">
+    <row r="127" spans="1:6" ht="15.75" hidden="1">
       <c r="A127" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75">
+    <row r="128" spans="1:6" ht="15.75" hidden="1">
       <c r="A128" s="1">
-        <v>131</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" hidden="1">
       <c r="A129" s="1">
-        <v>132</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75">
+    <row r="130" spans="1:6" ht="15.75" hidden="1">
       <c r="A130" s="1">
-        <v>133</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E130" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="2"/>
       <c r="F130" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" hidden="1">
       <c r="A131" s="1">
-        <v>134</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E131" s="2"/>
       <c r="F131" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" hidden="1">
       <c r="A132" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>82</v>
@@ -5049,7 +5168,7 @@
         <v>83</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="1" t="s">
@@ -5058,16 +5177,16 @@
     </row>
     <row r="133" spans="1:6" ht="15.75" hidden="1">
       <c r="A133" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="1" t="s">
@@ -5076,16 +5195,16 @@
     </row>
     <row r="134" spans="1:6" ht="15.75" hidden="1">
       <c r="A134" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="1" t="s">
@@ -5094,7 +5213,7 @@
     </row>
     <row r="135" spans="1:6" ht="15.75" hidden="1">
       <c r="A135" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>14</v>
@@ -5103,60 +5222,24 @@
         <v>20</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" hidden="1">
-      <c r="A136" s="1">
-        <v>139</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E136" s="2"/>
-      <c r="F136" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" hidden="1">
-      <c r="A137" s="1">
-        <v>140</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F135">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -417,9 +417,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -429,83 +426,14 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -617,6 +545,78 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1877,7 +1877,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2071,7 +2071,7 @@
     <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2080,7 +2080,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2089,7 +2089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2098,7 +2098,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2107,7 +2107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2116,7 +2116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2139,11 +2139,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F135">
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="Laboratories"/>
+        <filter val="Login"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
@@ -2156,12 +2156,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="14"/>
-    <tableColumn id="1" name="Product" dataDxfId="13"/>
-    <tableColumn id="3" name="Segment" dataDxfId="12"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="11"/>
-    <tableColumn id="4" name="Task" dataDxfId="10"/>
-    <tableColumn id="5" name="Status" dataDxfId="9"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
+    <tableColumn id="1" name="Product" dataDxfId="4"/>
+    <tableColumn id="3" name="Segment" dataDxfId="3"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
+    <tableColumn id="4" name="Task" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2486,7 +2486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12:D12"/>
       <pivotSelection pane="topRight" showHeader="1" extendable="1" axis="axisRow" start="7" max="18" activeRow="11" previousRow="11" click="1" r:id="rId1">
@@ -2510,12 +2510,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:4" ht="18.75" hidden="1">
@@ -2621,38 +2621,38 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>5</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="15" customFormat="1" ht="18.75">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:4" s="14" customFormat="1" ht="18.75">
+      <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>4</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14">
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>7</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
         <v>7</v>
       </c>
     </row>
@@ -2784,9 +2784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3897,7 +3897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="15.75" hidden="1">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1">
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -3930,10 +3930,10 @@
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" hidden="1">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="15.75" hidden="1">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="15.75" hidden="1">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="E116" s="2"/>
       <c r="F116" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75" hidden="1">
@@ -5231,15 +5231,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -2141,11 +2141,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F135">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Login"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2786,7 +2781,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E142" sqref="E142"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2837,7 +2832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2891,7 +2886,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3375,7 +3370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3393,7 +3388,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3681,7 +3676,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1">
+    <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3699,7 +3694,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3717,7 +3712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3735,7 +3730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3753,7 +3748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3771,7 +3766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3789,7 +3784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3807,7 +3802,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3825,7 +3820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3843,7 +3838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3861,7 +3856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3897,7 +3892,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1">
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3915,7 +3910,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="15.75" hidden="1">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -3951,7 +3946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1">
+    <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="1">
         <v>66</v>
       </c>
@@ -3969,7 +3964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1">
+    <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -3987,7 +3982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4005,7 +4000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1">
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4023,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1">
+    <row r="69" spans="1:6" ht="15.75">
       <c r="A69" s="1">
         <v>74</v>
       </c>
@@ -4041,7 +4036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" hidden="1">
+    <row r="70" spans="1:6" ht="15.75">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -4059,7 +4054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1">
+    <row r="71" spans="1:6" ht="15.75">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4077,7 +4072,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1">
+    <row r="72" spans="1:6" ht="15.75">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -4095,7 +4090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1">
+    <row r="73" spans="1:6" ht="15.75">
       <c r="A73" s="1">
         <v>78</v>
       </c>
@@ -4203,7 +4198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1">
+    <row r="79" spans="1:6" ht="15.75">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4329,7 +4324,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1">
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" s="1">
         <v>91</v>
       </c>
@@ -4347,7 +4342,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1">
+    <row r="87" spans="1:6" ht="15.75">
       <c r="A87" s="1">
         <v>92</v>
       </c>
@@ -4473,7 +4468,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" hidden="1">
+    <row r="94" spans="1:6" ht="15.75">
       <c r="A94" s="1">
         <v>100</v>
       </c>
@@ -4509,7 +4504,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1">
+    <row r="96" spans="1:6" ht="15.75">
       <c r="A96" s="1">
         <v>102</v>
       </c>
@@ -4527,7 +4522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1">
+    <row r="97" spans="1:6" ht="15.75">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4545,7 +4540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1">
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4563,7 +4558,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1">
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4581,7 +4576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1">
+    <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4599,7 +4594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1">
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4617,7 +4612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1">
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4635,7 +4630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1">
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4653,7 +4648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -4671,7 +4666,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1">
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4689,7 +4684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1">
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4707,7 +4702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" hidden="1">
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" s="1">
         <v>113</v>
       </c>
@@ -4725,7 +4720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -4743,7 +4738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" hidden="1">
+    <row r="109" spans="1:6" ht="15.75">
       <c r="A109" s="1">
         <v>115</v>
       </c>
@@ -4761,7 +4756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1">
+    <row r="110" spans="1:6" ht="15.75">
       <c r="A110" s="1">
         <v>116</v>
       </c>
@@ -4779,7 +4774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1">
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -4887,7 +4882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" hidden="1">
+    <row r="117" spans="1:6" ht="15.75">
       <c r="A117" s="1">
         <v>122</v>
       </c>
@@ -4905,7 +4900,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
+    <row r="118" spans="1:6" ht="15.75">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -5013,7 +5008,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1">
+    <row r="124" spans="1:6" ht="15.75">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1">
+    <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -5049,7 +5044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1">
+    <row r="126" spans="1:6" ht="15.75">
       <c r="A126" s="1">
         <v>131</v>
       </c>
@@ -5067,7 +5062,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1">
+    <row r="127" spans="1:6" ht="15.75">
       <c r="A127" s="1">
         <v>132</v>
       </c>
@@ -5103,7 +5098,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" hidden="1">
+    <row r="129" spans="1:6" ht="15.75">
       <c r="A129" s="1">
         <v>134</v>
       </c>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -2141,6 +2141,11 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F135">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ClinTa Web-Builder"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2781,7 +2786,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2832,7 +2837,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="15.75" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2886,7 +2891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" hidden="1">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3370,7 +3375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.75" hidden="1">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3388,7 +3393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.75" hidden="1">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3676,7 +3681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="15.75" hidden="1">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3694,7 +3699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.75" hidden="1">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3712,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="15.75" hidden="1">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3730,7 +3735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75" hidden="1">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3748,7 +3753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" hidden="1">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" hidden="1">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3784,7 +3789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" hidden="1">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3802,7 +3807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" hidden="1">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3820,7 +3825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" hidden="1">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3838,7 +3843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" hidden="1">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3856,7 +3861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75" hidden="1">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3892,7 +3897,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="15.75" hidden="1">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3928,7 +3933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3946,7 +3951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75">
+    <row r="65" spans="1:6" ht="15.75" hidden="1">
       <c r="A65" s="1">
         <v>66</v>
       </c>
@@ -3964,7 +3969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="15.75" hidden="1">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -3982,7 +3987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4000,7 +4005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4018,7 +4023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="15.75" hidden="1">
       <c r="A69" s="1">
         <v>74</v>
       </c>
@@ -4036,7 +4041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75">
+    <row r="70" spans="1:6" ht="15.75" hidden="1">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -4054,7 +4059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75">
+    <row r="71" spans="1:6" ht="15.75" hidden="1">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4072,7 +4077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75">
+    <row r="72" spans="1:6" ht="15.75" hidden="1">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -4090,7 +4095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6" ht="15.75" hidden="1">
       <c r="A73" s="1">
         <v>78</v>
       </c>
@@ -4198,7 +4203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="15.75" hidden="1">
       <c r="A86" s="1">
         <v>91</v>
       </c>
@@ -4342,7 +4347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="15.75" hidden="1">
       <c r="A87" s="1">
         <v>92</v>
       </c>
@@ -4468,7 +4473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75">
+    <row r="94" spans="1:6" ht="15.75" hidden="1">
       <c r="A94" s="1">
         <v>100</v>
       </c>
@@ -4504,7 +4509,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="15.75" hidden="1">
       <c r="A96" s="1">
         <v>102</v>
       </c>
@@ -4522,7 +4527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75">
+    <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4540,7 +4545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4558,7 +4563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4576,7 +4581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="15.75" hidden="1">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="15.75" hidden="1">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4612,7 +4617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="15.75" hidden="1">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4753,7 +4758,7 @@
       </c>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="15.75">
@@ -4771,10 +4776,10 @@
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -4882,7 +4887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75">
+    <row r="117" spans="1:6" ht="15.75" hidden="1">
       <c r="A117" s="1">
         <v>122</v>
       </c>
@@ -4900,7 +4905,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="15.75" hidden="1">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -5008,7 +5013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75">
+    <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5026,7 +5031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -5044,7 +5049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75">
+    <row r="126" spans="1:6" ht="15.75" hidden="1">
       <c r="A126" s="1">
         <v>131</v>
       </c>
@@ -5062,7 +5067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75">
+    <row r="127" spans="1:6" ht="15.75" hidden="1">
       <c r="A127" s="1">
         <v>132</v>
       </c>
@@ -5098,7 +5103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75">
+    <row r="129" spans="1:6" ht="15.75" hidden="1">
       <c r="A129" s="1">
         <v>134</v>
       </c>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="94">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>View</t>
+  </si>
+  <si>
+    <t>except Images save</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,162 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -745,7 +903,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45590.667940046296" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45598.717834374998" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -781,7 +939,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Task" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
@@ -1295,7 +1453,7 @@
     <s v="Login"/>
     <s v="Login"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="65"/>
@@ -1646,8 +1804,8 @@
     <x v="13"/>
     <s v="Hospital Websites"/>
     <s v="Crud"/>
-    <m/>
-    <x v="1"/>
+    <s v="except Images save"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="114"/>
@@ -1663,7 +1821,7 @@
     <s v="Image Database"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="116"/>
@@ -1671,7 +1829,7 @@
     <s v="General Banners"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="117"/>
@@ -1687,7 +1845,7 @@
     <s v="RCCS"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="119"/>
@@ -1695,7 +1853,7 @@
     <s v="RCCS"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="120"/>
@@ -1703,7 +1861,7 @@
     <s v="RCCS"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="121"/>
@@ -1719,7 +1877,7 @@
     <s v="RCCS"/>
     <s v="ADD Recipt"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="122"/>
@@ -1877,7 +2035,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1992,86 +2150,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="37">
+    <format dxfId="64">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="62">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="61">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="60">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="59">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="54">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="52">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="51">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="50">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="49">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="43">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2080,7 +2238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="42">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2089,7 +2247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2098,7 +2256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2107,7 +2265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2116,7 +2274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2139,7 +2297,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F135">
     <filterColumn colId="1">
       <filters>
@@ -2156,12 +2314,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="32"/>
+    <tableColumn id="1" name="Product" dataDxfId="31"/>
+    <tableColumn id="3" name="Segment" dataDxfId="30"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="29"/>
+    <tableColumn id="4" name="Task" dataDxfId="28"/>
+    <tableColumn id="5" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2486,18 +2644,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:D12"/>
-      <pivotSelection pane="topRight" showHeader="1" extendable="1" axis="axisRow" start="7" max="18" activeRow="11" previousRow="11" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" fieldPosition="0">
-          <references count="1">
-            <reference field="1" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2559,10 +2708,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9">
         <v>16</v>
@@ -2600,9 +2749,11 @@
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
       <c r="C9" s="9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
@@ -2700,9 +2851,11 @@
       <c r="A17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
       <c r="C17" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="9">
         <v>12</v>
@@ -2763,10 +2916,10 @@
         <v>84</v>
       </c>
       <c r="B22" s="9">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C22" s="9">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D22" s="9">
         <v>134</v>
@@ -2784,9 +2937,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4720,9 +4873,11 @@
       <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F107" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="15.75">
@@ -5231,15 +5386,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="68">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -589,6 +589,36 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -903,7 +933,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45598.717834374998" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45600.493689120369" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -1469,7 +1499,7 @@
     <s v="Specialities"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="67"/>
@@ -1477,7 +1507,7 @@
     <s v="Specialities"/>
     <s v="Filters"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="72"/>
@@ -2150,86 +2180,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="64">
+    <format dxfId="67">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="66">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="65">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="64">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="63">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="62">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="57">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="55">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="54">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="53">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="52">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="46">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2238,7 +2268,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="45">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2247,7 +2277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2256,7 +2286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2265,7 +2295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2274,7 +2304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2297,11 +2327,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:F135">
-    <filterColumn colId="1">
+    <filterColumn colId="2">
       <filters>
-        <filter val="ClinTa Web-Builder"/>
+        <filter val="LookUps Options"/>
       </filters>
     </filterColumn>
     <filterColumn colId="5">
@@ -2314,12 +2344,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="32"/>
-    <tableColumn id="1" name="Product" dataDxfId="31"/>
-    <tableColumn id="3" name="Segment" dataDxfId="30"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="29"/>
-    <tableColumn id="4" name="Task" dataDxfId="28"/>
-    <tableColumn id="5" name="Status" dataDxfId="27"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="35"/>
+    <tableColumn id="1" name="Product" dataDxfId="34"/>
+    <tableColumn id="3" name="Segment" dataDxfId="33"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="32"/>
+    <tableColumn id="4" name="Task" dataDxfId="31"/>
+    <tableColumn id="5" name="Status" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2644,9 +2674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2852,10 +2882,10 @@
         <v>67</v>
       </c>
       <c r="B17" s="9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="9">
         <v>12</v>
@@ -2916,10 +2946,10 @@
         <v>84</v>
       </c>
       <c r="B22" s="9">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C22" s="9">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="9">
         <v>134</v>
@@ -2937,9 +2967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4119,7 +4149,7 @@
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1">
@@ -4137,7 +4167,7 @@
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1">
@@ -4662,7 +4692,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1">
+    <row r="96" spans="1:6" ht="15.75">
       <c r="A96" s="1">
         <v>102</v>
       </c>
@@ -4788,7 +4818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.75" hidden="1">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4806,7 +4836,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.75" hidden="1">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -4824,7 +4854,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.75" hidden="1">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4842,7 +4872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4860,7 +4890,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="15.75" hidden="1">
       <c r="A107" s="1">
         <v>113</v>
       </c>
@@ -4880,7 +4910,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" hidden="1">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -4898,7 +4928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="15.75" hidden="1">
       <c r="A109" s="1">
         <v>115</v>
       </c>
@@ -4916,7 +4946,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="15.75" hidden="1">
       <c r="A110" s="1">
         <v>116</v>
       </c>
@@ -5386,15 +5416,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -436,7 +436,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="65">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -589,36 +589,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -933,7 +903,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45600.493689120369" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45600.631261574075" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -1987,7 +1957,7 @@
     <s v="Deafut Configration"/>
     <s v="List"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="132"/>
@@ -1995,7 +1965,7 @@
     <s v="Deafut Lookup"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="133"/>
@@ -2180,86 +2150,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="67">
+    <format dxfId="64">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="62">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="61">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="60">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="59">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="54">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="52">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="51">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="50">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="49">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="43">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2268,7 +2238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="42">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2277,7 +2247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2286,7 +2256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2295,7 +2265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2304,7 +2274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2327,13 +2297,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F135">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="LookUps Options"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2344,12 +2309,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="35"/>
-    <tableColumn id="1" name="Product" dataDxfId="34"/>
-    <tableColumn id="3" name="Segment" dataDxfId="33"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="32"/>
-    <tableColumn id="4" name="Task" dataDxfId="31"/>
-    <tableColumn id="5" name="Status" dataDxfId="30"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="32"/>
+    <tableColumn id="1" name="Product" dataDxfId="31"/>
+    <tableColumn id="3" name="Segment" dataDxfId="30"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="29"/>
+    <tableColumn id="4" name="Task" dataDxfId="28"/>
+    <tableColumn id="5" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2676,7 +2641,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2725,9 +2690,11 @@
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="9">
+        <v>2</v>
+      </c>
       <c r="C5" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9">
         <v>4</v>
@@ -2946,10 +2913,10 @@
         <v>84</v>
       </c>
       <c r="B22" s="9">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="9">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="9">
         <v>134</v>
@@ -2968,8 +2935,8 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C154" sqref="C154"/>
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3020,7 +2987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3035,7 +3002,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" hidden="1">
@@ -3074,7 +3041,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3558,7 +3525,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3576,7 +3543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3864,7 +3831,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1">
+    <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3882,7 +3849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3900,7 +3867,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3918,7 +3885,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3936,7 +3903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3954,7 +3921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3972,7 +3939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3990,7 +3957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -4008,7 +3975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -4026,7 +3993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -4044,7 +4011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -4080,7 +4047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1">
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -4116,7 +4083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -4170,7 +4137,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4188,7 +4155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1">
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4206,7 +4173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1">
+    <row r="69" spans="1:6" ht="15.75">
       <c r="A69" s="1">
         <v>74</v>
       </c>
@@ -4224,7 +4191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" hidden="1">
+    <row r="70" spans="1:6" ht="15.75">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -4242,7 +4209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1">
+    <row r="71" spans="1:6" ht="15.75">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4260,7 +4227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1">
+    <row r="72" spans="1:6" ht="15.75">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -4278,7 +4245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1">
+    <row r="73" spans="1:6" ht="15.75">
       <c r="A73" s="1">
         <v>78</v>
       </c>
@@ -4386,7 +4353,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1">
+    <row r="79" spans="1:6" ht="15.75">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4512,7 +4479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1">
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" s="1">
         <v>91</v>
       </c>
@@ -4530,7 +4497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1">
+    <row r="87" spans="1:6" ht="15.75">
       <c r="A87" s="1">
         <v>92</v>
       </c>
@@ -4656,7 +4623,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" hidden="1">
+    <row r="94" spans="1:6" ht="15.75">
       <c r="A94" s="1">
         <v>100</v>
       </c>
@@ -4710,7 +4677,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1">
+    <row r="97" spans="1:6" ht="15.75">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4728,7 +4695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1">
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4746,7 +4713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1">
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4764,7 +4731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1">
+    <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4782,7 +4749,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1">
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4800,7 +4767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1">
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4818,7 +4785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1">
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4836,7 +4803,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -4854,7 +4821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1">
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4872,7 +4839,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1">
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4910,7 +4877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -4964,7 +4931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1">
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -5072,7 +5039,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" hidden="1">
+    <row r="117" spans="1:6" ht="15.75">
       <c r="A117" s="1">
         <v>122</v>
       </c>
@@ -5090,7 +5057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
+    <row r="118" spans="1:6" ht="15.75">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -5198,7 +5165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1">
+    <row r="124" spans="1:6" ht="15.75">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5216,7 +5183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1">
+    <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -5249,7 +5216,7 @@
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" hidden="1">
@@ -5267,7 +5234,7 @@
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" hidden="1">
@@ -5288,7 +5255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" hidden="1">
+    <row r="129" spans="1:6" ht="15.75">
       <c r="A129" s="1">
         <v>134</v>
       </c>
@@ -5416,15 +5383,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.net\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F6721-0EE0-4B59-9658-A74A16F9AF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,22 +18,11 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="29" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -323,8 +313,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,7 +345,7 @@
       <name val="Eras Medium ITC"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,12 +361,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -417,14 +401,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,7 +409,236 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -547,64 +752,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
@@ -745,7 +892,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45590.667940046296" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shaheryar Malik" refreshedDate="45598.578098726852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="134" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -800,7 +947,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="134">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="134">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1295,7 +1442,7 @@
     <s v="Login"/>
     <s v="Login"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="65"/>
@@ -1663,7 +1810,7 @@
     <s v="Image Database"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="116"/>
@@ -1671,7 +1818,7 @@
     <s v="General Banners"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="117"/>
@@ -1687,7 +1834,7 @@
     <s v="RCCS"/>
     <s v="Add"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="119"/>
@@ -1695,7 +1842,7 @@
     <s v="RCCS"/>
     <s v="Update"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="120"/>
@@ -1703,7 +1850,7 @@
     <s v="RCCS"/>
     <s v="Delete"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="121"/>
@@ -1719,7 +1866,7 @@
     <s v="RCCS"/>
     <s v="ADD Recipt"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="122"/>
@@ -1877,7 +2024,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1991,87 +2138,87 @@
   <dataFields count="1">
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
-  <formats count="27">
-    <format dxfId="37">
+  <formats count="25">
+    <format dxfId="66">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="64">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="63">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="62">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="61">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="54">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="53">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="52">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="51">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="45">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2080,7 +2227,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="44">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2089,38 +2236,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1">
+          <reference field="1" count="6">
+            <x v="6"/>
             <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1">
+          <reference field="1" count="6">
+            <x v="6"/>
             <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="12">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="11">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="7"/>
+            <x v="8"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -2139,29 +2278,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F135">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ClinTa Web-Builder"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:F131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A1:F135" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sr. NO " dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Segment" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub Segment" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Task" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2483,42 +2611,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:D12"/>
-      <pivotSelection pane="topRight" showHeader="1" extendable="1" axis="axisRow" start="7" max="18" activeRow="11" previousRow="11" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" fieldPosition="0">
-          <references count="1">
-            <reference field="1" count="1">
-              <x v="7"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.5" customHeight="1">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:4" ht="4.5" customHeight="1"/>
-    <row r="3" spans="1:4" ht="18.75" hidden="1">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="4.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" ht="18" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
@@ -2528,7 +2647,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
@@ -2542,7 +2661,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2554,21 +2673,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="9">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C6" s="9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" s="9">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2582,7 +2701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -2596,19 +2715,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="9">
+        <v>2</v>
+      </c>
       <c r="C9" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -2620,43 +2741,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="9">
         <v>5</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="14" customFormat="1" ht="18.75">
-      <c r="A12" s="12" t="s">
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="9">
         <v>4</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="9">
         <v>7</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75">
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -2670,7 +2791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75">
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -2682,7 +2803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75">
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
@@ -2696,19 +2817,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="9"/>
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
       <c r="C17" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75">
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
@@ -2720,7 +2843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75">
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>81</v>
       </c>
@@ -2732,7 +2855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75">
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -2744,7 +2867,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75">
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>90</v>
       </c>
@@ -2758,15 +2881,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75">
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B22" s="9">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C22" s="9">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D22" s="9">
         <v>134</v>
@@ -2781,25 +2904,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.625" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +2942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" hidden="1">
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2837,7 +2960,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2855,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" hidden="1">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2873,7 +2996,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" hidden="1">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2891,7 +3014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -2907,7 +3030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" hidden="1">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -2925,7 +3048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" hidden="1">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -2943,7 +3066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" hidden="1">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -2961,7 +3084,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" hidden="1">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -2979,7 +3102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" hidden="1">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -2997,7 +3120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" hidden="1">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -3015,7 +3138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -3033,7 +3156,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" hidden="1">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -3051,7 +3174,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" hidden="1">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -3069,7 +3192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" hidden="1">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>17</v>
       </c>
@@ -3087,7 +3210,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" hidden="1">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>18</v>
       </c>
@@ -3105,7 +3228,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" hidden="1">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>19</v>
       </c>
@@ -3123,7 +3246,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" hidden="1">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>20</v>
       </c>
@@ -3141,7 +3264,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" hidden="1">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>21</v>
       </c>
@@ -3159,7 +3282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>22</v>
       </c>
@@ -3177,7 +3300,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" hidden="1">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>23</v>
       </c>
@@ -3195,7 +3318,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>24</v>
       </c>
@@ -3213,7 +3336,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" hidden="1">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>25</v>
       </c>
@@ -3231,7 +3354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>26</v>
       </c>
@@ -3249,7 +3372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>27</v>
       </c>
@@ -3267,7 +3390,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>28</v>
       </c>
@@ -3285,7 +3408,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>29</v>
       </c>
@@ -3303,7 +3426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>30</v>
       </c>
@@ -3321,7 +3444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>31</v>
       </c>
@@ -3339,7 +3462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>32</v>
       </c>
@@ -3357,7 +3480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>33</v>
       </c>
@@ -3375,7 +3498,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3393,7 +3516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3411,7 +3534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>36</v>
       </c>
@@ -3429,7 +3552,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>37</v>
       </c>
@@ -3447,7 +3570,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>38</v>
       </c>
@@ -3465,7 +3588,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" hidden="1">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>39</v>
       </c>
@@ -3483,7 +3606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>40</v>
       </c>
@@ -3501,7 +3624,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -3519,7 +3642,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>42</v>
       </c>
@@ -3537,7 +3660,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" hidden="1">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43</v>
       </c>
@@ -3555,7 +3678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" hidden="1">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44</v>
       </c>
@@ -3573,7 +3696,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" hidden="1">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>45</v>
       </c>
@@ -3591,7 +3714,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" hidden="1">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>46</v>
       </c>
@@ -3609,7 +3732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" hidden="1">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>47</v>
       </c>
@@ -3627,7 +3750,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" hidden="1">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>48</v>
       </c>
@@ -3645,7 +3768,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" hidden="1">
+    <row r="48" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>49</v>
       </c>
@@ -3663,7 +3786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" hidden="1">
+    <row r="49" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>50</v>
       </c>
@@ -3681,7 +3804,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1">
+    <row r="50" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3699,7 +3822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1">
+    <row r="51" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3717,7 +3840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1">
+    <row r="52" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3735,7 +3858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1">
+    <row r="53" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3753,7 +3876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+    <row r="54" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3771,7 +3894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+    <row r="55" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3789,7 +3912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1">
+    <row r="56" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3807,7 +3930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1">
+    <row r="57" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3825,7 +3948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1">
+    <row r="58" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3843,7 +3966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3861,7 +3984,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3879,7 +4002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" hidden="1">
+    <row r="61" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>62</v>
       </c>
@@ -3897,7 +4020,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1">
+    <row r="62" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3915,7 +4038,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1">
+    <row r="63" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -3933,7 +4056,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+    <row r="64" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3951,7 +4074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1">
+    <row r="65" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>66</v>
       </c>
@@ -3969,7 +4092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1">
+    <row r="66" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -3987,7 +4110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1">
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4005,7 +4128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1">
+    <row r="68" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4023,7 +4146,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1">
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>74</v>
       </c>
@@ -4041,7 +4164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" hidden="1">
+    <row r="70" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -4059,7 +4182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1">
+    <row r="71" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4077,7 +4200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1">
+    <row r="72" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -4095,7 +4218,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1">
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>78</v>
       </c>
@@ -4113,7 +4236,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" hidden="1">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>79</v>
       </c>
@@ -4131,7 +4254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" hidden="1">
+    <row r="75" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>80</v>
       </c>
@@ -4149,7 +4272,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" hidden="1">
+    <row r="76" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>81</v>
       </c>
@@ -4167,7 +4290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" hidden="1">
+    <row r="77" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>82</v>
       </c>
@@ -4185,7 +4308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" hidden="1">
+    <row r="78" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>83</v>
       </c>
@@ -4203,7 +4326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1">
+    <row r="79" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4221,7 +4344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" hidden="1">
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>85</v>
       </c>
@@ -4239,7 +4362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" hidden="1">
+    <row r="81" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>86</v>
       </c>
@@ -4257,7 +4380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" hidden="1">
+    <row r="82" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>87</v>
       </c>
@@ -4275,7 +4398,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" hidden="1">
+    <row r="83" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>88</v>
       </c>
@@ -4293,7 +4416,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" hidden="1">
+    <row r="84" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>89</v>
       </c>
@@ -4311,7 +4434,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1">
+    <row r="85" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>90</v>
       </c>
@@ -4329,7 +4452,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1">
+    <row r="86" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>91</v>
       </c>
@@ -4347,7 +4470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1">
+    <row r="87" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>92</v>
       </c>
@@ -4365,7 +4488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" hidden="1">
+    <row r="88" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>93</v>
       </c>
@@ -4383,7 +4506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1">
+    <row r="89" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>94</v>
       </c>
@@ -4401,7 +4524,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" hidden="1">
+    <row r="90" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>95</v>
       </c>
@@ -4419,7 +4542,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" hidden="1">
+    <row r="91" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>96</v>
       </c>
@@ -4437,7 +4560,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" hidden="1">
+    <row r="92" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>97</v>
       </c>
@@ -4455,7 +4578,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" hidden="1">
+    <row r="93" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>98</v>
       </c>
@@ -4473,7 +4596,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" hidden="1">
+    <row r="94" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>100</v>
       </c>
@@ -4491,7 +4614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" hidden="1">
+    <row r="95" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>101</v>
       </c>
@@ -4509,7 +4632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1">
+    <row r="96" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>102</v>
       </c>
@@ -4527,7 +4650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1">
+    <row r="97" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4545,7 +4668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1">
+    <row r="98" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4563,7 +4686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1">
+    <row r="99" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4581,7 +4704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1">
+    <row r="100" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4599,7 +4722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1">
+    <row r="101" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4617,7 +4740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1">
+    <row r="102" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4635,7 +4758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4653,7 +4776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -4671,7 +4794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4689,7 +4812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4707,7 +4830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>113</v>
       </c>
@@ -4725,7 +4848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -4743,7 +4866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>115</v>
       </c>
@@ -4761,7 +4884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>116</v>
       </c>
@@ -4779,7 +4902,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1">
+    <row r="111" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -4797,7 +4920,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" hidden="1">
+    <row r="112" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>118</v>
       </c>
@@ -4815,7 +4938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" hidden="1">
+    <row r="113" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>119</v>
       </c>
@@ -4833,7 +4956,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" hidden="1">
+    <row r="114" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>120</v>
       </c>
@@ -4851,7 +4974,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" hidden="1">
+    <row r="115" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>121</v>
       </c>
@@ -4869,7 +4992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" hidden="1">
+    <row r="116" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>121</v>
       </c>
@@ -4887,7 +5010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" hidden="1">
+    <row r="117" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>122</v>
       </c>
@@ -4905,7 +5028,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
+    <row r="118" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -4923,7 +5046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" hidden="1">
+    <row r="119" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>124</v>
       </c>
@@ -4941,7 +5064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" hidden="1">
+    <row r="120" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>125</v>
       </c>
@@ -4959,7 +5082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" hidden="1">
+    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>126</v>
       </c>
@@ -4977,7 +5100,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" hidden="1">
+    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>127</v>
       </c>
@@ -4995,7 +5118,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" hidden="1">
+    <row r="123" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>128</v>
       </c>
@@ -5013,7 +5136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1">
+    <row r="124" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5031,7 +5154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1">
+    <row r="125" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -5049,7 +5172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1">
+    <row r="126" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>131</v>
       </c>
@@ -5067,7 +5190,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1">
+    <row r="127" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>132</v>
       </c>
@@ -5085,7 +5208,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" hidden="1">
+    <row r="128" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>133</v>
       </c>
@@ -5103,7 +5226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" hidden="1">
+    <row r="129" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>134</v>
       </c>
@@ -5121,7 +5244,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" hidden="1">
+    <row r="130" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>135</v>
       </c>
@@ -5139,7 +5262,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" hidden="1">
+    <row r="131" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>136</v>
       </c>
@@ -5157,7 +5280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" hidden="1">
+    <row r="132" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>137</v>
       </c>
@@ -5175,7 +5298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" hidden="1">
+    <row r="133" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>138</v>
       </c>
@@ -5193,7 +5316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" hidden="1">
+    <row r="134" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>139</v>
       </c>
@@ -5211,7 +5334,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" hidden="1">
+    <row r="135" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>140</v>
       </c>
@@ -5231,15 +5354,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -436,162 +436,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2035,7 +1880,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2150,86 +1995,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="64">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="34">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="33">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="32">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="24">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="22">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2238,7 +2083,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2247,7 +2092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2256,7 +2101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2265,7 +2110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2274,7 +2119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2297,7 +2142,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F135">
     <filterColumn colId="5">
       <filters>
@@ -2309,12 +2154,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="32"/>
-    <tableColumn id="1" name="Product" dataDxfId="31"/>
-    <tableColumn id="3" name="Segment" dataDxfId="30"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="29"/>
-    <tableColumn id="4" name="Task" dataDxfId="28"/>
-    <tableColumn id="5" name="Status" dataDxfId="27"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
+    <tableColumn id="1" name="Product" dataDxfId="4"/>
+    <tableColumn id="3" name="Segment" dataDxfId="3"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
+    <tableColumn id="4" name="Task" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2935,8 +2780,8 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H53" sqref="H53"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5270,7 +5115,7 @@
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" hidden="1">
@@ -5383,15 +5228,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -436,7 +436,192 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -748,7 +933,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45600.631261574075" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45602.743131134259" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -818,7 +1003,7 @@
     <s v="List"/>
     <s v="Filters"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="3"/>
@@ -1354,7 +1539,7 @@
     <s v="List"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="76"/>
@@ -1362,7 +1547,7 @@
     <s v="List"/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="77"/>
@@ -1370,7 +1555,7 @@
     <s v="Take Type"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="78"/>
@@ -1826,7 +2011,7 @@
     <s v="Pharmacy Profile"/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="135"/>
@@ -1880,7 +2065,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1995,86 +2180,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="37">
+    <format dxfId="67">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="66">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="65">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="64">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="63">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="62">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="61">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="60">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="59">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="57">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="56">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="55">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="54">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="53">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="52">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="51">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="49">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="47">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="46">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2083,7 +2268,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="45">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2092,7 +2277,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="44">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2101,7 +2286,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2110,7 +2295,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="42">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2119,7 +2304,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2142,7 +2327,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:F135">
     <filterColumn colId="5">
       <filters>
@@ -2154,12 +2339,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="35"/>
+    <tableColumn id="1" name="Product" dataDxfId="34"/>
+    <tableColumn id="3" name="Segment" dataDxfId="33"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="32"/>
+    <tableColumn id="4" name="Task" dataDxfId="31"/>
+    <tableColumn id="5" name="Status" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2486,7 +2671,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2564,11 +2749,9 @@
         <v>21</v>
       </c>
       <c r="B7" s="9">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="9">
         <v>4</v>
       </c>
@@ -2578,11 +2761,9 @@
         <v>26</v>
       </c>
       <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C8" s="9"/>
       <c r="D8" s="9">
         <v>2</v>
       </c>
@@ -2707,9 +2888,11 @@
       <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9">
+        <v>3</v>
+      </c>
       <c r="C18" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" s="9">
         <v>7</v>
@@ -2758,10 +2941,10 @@
         <v>84</v>
       </c>
       <c r="B22" s="9">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C22" s="9">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D22" s="9">
         <v>134</v>
@@ -2780,8 +2963,8 @@
   <dimension ref="A1:F135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F136" sqref="F136"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2832,7 +3015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="15.75" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4033,10 +4216,10 @@
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" hidden="1">
       <c r="A70" s="1">
         <v>75</v>
       </c>
@@ -4051,10 +4234,10 @@
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" hidden="1">
       <c r="A71" s="1">
         <v>76</v>
       </c>
@@ -4069,10 +4252,10 @@
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" hidden="1">
       <c r="A72" s="1">
         <v>77</v>
       </c>
@@ -4087,7 +4270,7 @@
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15.75">
@@ -4105,7 +4288,7 @@
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1">
@@ -4519,7 +4702,7 @@
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="15.75">
@@ -5100,7 +5283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75">
+    <row r="129" spans="1:6" ht="15.75" hidden="1">
       <c r="A129" s="1">
         <v>134</v>
       </c>
@@ -5228,15 +5411,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -436,192 +436,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2065,7 +1880,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2180,86 +1995,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="67">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="34">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="33">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="32">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="60">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="58">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="55">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="24">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="22">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="47">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2268,7 +2083,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2277,7 +2092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2286,7 +2101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2295,7 +2110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2304,7 +2119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2327,8 +2142,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F135">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Filter"/>
+        <filter val="Filters"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2339,12 +2160,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="35"/>
-    <tableColumn id="1" name="Product" dataDxfId="34"/>
-    <tableColumn id="3" name="Segment" dataDxfId="33"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="32"/>
-    <tableColumn id="4" name="Task" dataDxfId="31"/>
-    <tableColumn id="5" name="Status" dataDxfId="30"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
+    <tableColumn id="1" name="Product" dataDxfId="4"/>
+    <tableColumn id="3" name="Segment" dataDxfId="3"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
+    <tableColumn id="4" name="Task" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2964,7 +2785,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3069,7 +2890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" hidden="1">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3553,7 +3374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.75" hidden="1">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3571,7 +3392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.75" hidden="1">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3859,7 +3680,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="15.75" hidden="1">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3895,7 +3716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="15.75" hidden="1">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3931,7 +3752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" hidden="1">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3967,7 +3788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" hidden="1">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3985,7 +3806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" hidden="1">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -4003,7 +3824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" hidden="1">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -4021,7 +3842,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" hidden="1">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -4111,7 +3932,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -4165,7 +3986,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4201,7 +4022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75">
+    <row r="69" spans="1:6" ht="15.75" hidden="1">
       <c r="A69" s="1">
         <v>74</v>
       </c>
@@ -4273,7 +4094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75">
+    <row r="73" spans="1:6" ht="15.75" hidden="1">
       <c r="A73" s="1">
         <v>78</v>
       </c>
@@ -4381,7 +4202,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4525,7 +4346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="15.75" hidden="1">
       <c r="A87" s="1">
         <v>92</v>
       </c>
@@ -4651,7 +4472,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75">
+    <row r="94" spans="1:6" ht="15.75" hidden="1">
       <c r="A94" s="1">
         <v>100</v>
       </c>
@@ -4666,7 +4487,7 @@
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1">
@@ -4687,7 +4508,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75">
+    <row r="96" spans="1:6" ht="15.75" hidden="1">
       <c r="A96" s="1">
         <v>102</v>
       </c>
@@ -4705,7 +4526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75">
+    <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4723,7 +4544,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4777,7 +4598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="15.75" hidden="1">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4795,7 +4616,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="15.75" hidden="1">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4813,7 +4634,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.75" hidden="1">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4849,7 +4670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.75" hidden="1">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4959,7 +4780,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -5085,7 +4906,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="15.75" hidden="1">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -5193,7 +5014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75">
+    <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5211,7 +5032,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -5411,15 +5232,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -436,7 +436,162 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="65">
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -748,7 +903,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45602.743131134259" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45602.771435069444" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -1346,7 +1501,7 @@
     <s v="Forms"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="75"/>
@@ -1378,7 +1533,7 @@
     <s v="Timing"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="79"/>
@@ -1546,7 +1701,7 @@
     <s v="List"/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="101"/>
@@ -1562,7 +1717,7 @@
     <s v="LookUps Options"/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="103"/>
@@ -1880,7 +2035,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -1995,86 +2150,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="37">
+    <format dxfId="64">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="63">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="62">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="61">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="60">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="59">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="58">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="54">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="53">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="52">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="51">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="50">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="49">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="47">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="43">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2083,7 +2238,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="42">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2092,7 +2247,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2101,7 +2256,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2110,7 +2265,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="39">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2119,7 +2274,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2142,8 +2297,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A1:F135">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="ClinTa Health Care"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Filter"/>
@@ -2160,12 +2320,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="32"/>
+    <tableColumn id="1" name="Product" dataDxfId="31"/>
+    <tableColumn id="3" name="Segment" dataDxfId="30"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="29"/>
+    <tableColumn id="4" name="Task" dataDxfId="28"/>
+    <tableColumn id="5" name="Status" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2490,9 +2650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2682,11 +2842,9 @@
         <v>65</v>
       </c>
       <c r="B16" s="9">
-        <v>6</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="D16" s="9">
         <v>8</v>
       </c>
@@ -2710,10 +2868,10 @@
         <v>76</v>
       </c>
       <c r="B18" s="9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C18" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="9">
         <v>7</v>
@@ -2762,10 +2920,10 @@
         <v>84</v>
       </c>
       <c r="B22" s="9">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C22" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D22" s="9">
         <v>134</v>
@@ -2783,7 +2941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
     </sheetView>
@@ -3698,7 +3856,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.75" hidden="1">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3734,7 +3892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75" hidden="1">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3770,7 +3928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" hidden="1">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3860,7 +4018,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75" hidden="1">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3896,7 +4054,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="15.75" hidden="1">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -4004,7 +4162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4328,7 +4486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="15.75" hidden="1">
       <c r="A86" s="1">
         <v>91</v>
       </c>
@@ -4562,7 +4720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4580,7 +4738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="15.75" hidden="1">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4652,7 +4810,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.75" hidden="1">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -4688,7 +4846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4726,7 +4884,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" hidden="1">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -5232,15 +5390,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -436,162 +436,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2035,7 +1880,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2150,86 +1995,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="64">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="63">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="34">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="33">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="32">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="57">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="53">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="24">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="22">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="48">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="46">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2238,7 +2083,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="42">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2247,7 +2092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2256,7 +2101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2265,7 +2110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2274,7 +2119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2297,13 +2142,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F135">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="ClinTa Health Care"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="3">
       <filters>
         <filter val="Filter"/>
@@ -2320,12 +2160,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="32"/>
-    <tableColumn id="1" name="Product" dataDxfId="31"/>
-    <tableColumn id="3" name="Segment" dataDxfId="30"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="29"/>
-    <tableColumn id="4" name="Task" dataDxfId="28"/>
-    <tableColumn id="5" name="Status" dataDxfId="27"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
+    <tableColumn id="1" name="Product" dataDxfId="4"/>
+    <tableColumn id="3" name="Segment" dataDxfId="3"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
+    <tableColumn id="4" name="Task" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2650,7 +2490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
@@ -2941,9 +2781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F99" sqref="F99"/>
+      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3856,7 +3696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3892,7 +3732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3928,7 +3768,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -4018,7 +3858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -4054,7 +3894,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1">
+    <row r="62" spans="1:6" ht="15.75">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -4069,7 +3909,7 @@
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1">
@@ -4162,7 +4002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1">
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4486,7 +4326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1">
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" s="1">
         <v>91</v>
       </c>
@@ -4720,7 +4560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1">
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4738,7 +4578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1">
+    <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4810,7 +4650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="1">
         <v>110</v>
       </c>
@@ -4846,7 +4686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1">
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4884,7 +4724,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -4899,7 +4739,7 @@
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" hidden="1">
@@ -5390,15 +5230,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="97">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -321,6 +321,15 @@
   </si>
   <si>
     <t>except Images save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clinta </t>
+  </si>
+  <si>
+    <t>Image Not Submiit</t>
+  </si>
+  <si>
+    <t>Sponsors Product</t>
   </si>
 </sst>
 </file>
@@ -436,7 +445,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -548,36 +597,6 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1995,86 +2014,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="37">
+    <format dxfId="38">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="37">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="36">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="35">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="34">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="33">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="28">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="27">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="26">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="25">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="24">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="23">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="18">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="17">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2083,7 +2102,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2092,7 +2111,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2101,7 +2120,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2110,7 +2129,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2119,7 +2138,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2142,14 +2161,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F135" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F135">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Filter"/>
-        <filter val="Filters"/>
-      </filters>
-    </filterColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:F136">
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2160,12 +2173,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="9"/>
+    <tableColumn id="1" name="Product" dataDxfId="8"/>
+    <tableColumn id="3" name="Segment" dataDxfId="7"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="6"/>
+    <tableColumn id="4" name="Task" dataDxfId="5"/>
+    <tableColumn id="5" name="Status" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2779,11 +2792,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E137" sqref="E137"/>
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2888,7 +2901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3372,7 +3385,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3390,7 +3403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3678,7 +3691,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1">
+    <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3714,7 +3727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3750,7 +3763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3786,7 +3799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3804,7 +3817,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3822,7 +3835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3840,7 +3853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3894,7 +3907,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75">
+    <row r="62" spans="1:6" ht="15.75" hidden="1">
       <c r="A62" s="1">
         <v>63</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3984,7 +3997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4200,7 +4213,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1">
+    <row r="79" spans="1:6" ht="15.75">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4344,7 +4357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1">
+    <row r="87" spans="1:6" ht="15.75">
       <c r="A87" s="1">
         <v>92</v>
       </c>
@@ -4524,7 +4537,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1">
+    <row r="97" spans="1:6" ht="15.75">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4542,7 +4555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1">
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4596,7 +4609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1">
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4614,7 +4627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1">
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4632,7 +4645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1">
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4645,30 +4658,32 @@
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F103" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="15.75">
-      <c r="A104" s="1">
-        <v>110</v>
-      </c>
+      <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1">
+        <v>11</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4681,7 +4696,9 @@
       <c r="D105" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
       </c>
@@ -4724,7 +4741,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" hidden="1">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -4778,7 +4795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1">
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -4886,7 +4903,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75">
+    <row r="117" spans="1:6" ht="15.75" hidden="1">
       <c r="A117" s="1">
         <v>122</v>
       </c>
@@ -4901,10 +4918,10 @@
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -5012,7 +5029,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1">
+    <row r="124" spans="1:6" ht="15.75">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5030,7 +5047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1">
+    <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -5228,17 +5245,27 @@
         <v>53</v>
       </c>
     </row>
+    <row r="136" spans="1:6" ht="15.75" hidden="1">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F135">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F136">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -445,47 +445,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <strike val="0"/>
@@ -597,6 +557,36 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2014,86 +2004,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="38">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="34">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="33">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="32">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="24">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="22">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2102,7 +2092,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2111,7 +2101,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2120,7 +2110,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2129,7 +2119,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2138,7 +2128,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2161,8 +2151,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F136">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ClinTa Extended"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2173,12 +2168,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="9"/>
-    <tableColumn id="1" name="Product" dataDxfId="8"/>
-    <tableColumn id="3" name="Segment" dataDxfId="7"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="6"/>
-    <tableColumn id="4" name="Task" dataDxfId="5"/>
-    <tableColumn id="5" name="Status" dataDxfId="4"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
+    <tableColumn id="1" name="Product" dataDxfId="4"/>
+    <tableColumn id="3" name="Segment" dataDxfId="3"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
+    <tableColumn id="4" name="Task" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2795,7 +2790,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
@@ -2901,7 +2896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" hidden="1">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3385,7 +3380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.75" hidden="1">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3403,7 +3398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.75" hidden="1">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3691,7 +3686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="15.75" hidden="1">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3709,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.75" hidden="1">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3727,7 +3722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="15.75" hidden="1">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3745,7 +3740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75" hidden="1">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3763,7 +3758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" hidden="1">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3781,7 +3776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" hidden="1">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3799,7 +3794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" hidden="1">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3817,7 +3812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" hidden="1">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3835,7 +3830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" hidden="1">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3853,7 +3848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" hidden="1">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3871,7 +3866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75" hidden="1">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3943,7 +3938,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3997,7 +3992,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4015,7 +4010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4213,7 +4208,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4537,7 +4532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75">
+    <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4555,7 +4550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4573,7 +4568,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4591,7 +4586,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="15.75" hidden="1">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4609,7 +4604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="15.75" hidden="1">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4627,7 +4622,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="15.75" hidden="1">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4645,7 +4640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.75" hidden="1">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4665,7 +4660,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.75" hidden="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>28</v>
@@ -4683,7 +4678,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.75" hidden="1">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4703,7 +4698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4795,7 +4790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -4921,7 +4916,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="15.75" hidden="1">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -5029,7 +5024,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75">
+    <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5047,7 +5042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -5257,15 +5252,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F136">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -2153,11 +2153,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F136">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ClinTa Extended"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="5">
       <filters>
         <filter val="Pending"/>
@@ -2790,8 +2785,8 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E141" sqref="E141"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2896,7 +2891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3380,7 +3375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3398,7 +3393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3686,7 +3681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1">
+    <row r="50" spans="1:6" ht="15.75">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3704,7 +3699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1">
+    <row r="51" spans="1:6" ht="15.75">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3722,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1">
+    <row r="52" spans="1:6" ht="15.75">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3740,7 +3735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1">
+    <row r="53" spans="1:6" ht="15.75">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3758,7 +3753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3776,7 +3771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3794,7 +3789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3812,7 +3807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3830,7 +3825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3848,7 +3843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3866,7 +3861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3938,7 +3933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3992,7 +3987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1">
+    <row r="67" spans="1:6" ht="15.75">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4007,10 +4002,10 @@
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4025,7 +4020,7 @@
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1">
@@ -4208,7 +4203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1">
+    <row r="79" spans="1:6" ht="15.75">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4532,7 +4527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1">
+    <row r="97" spans="1:6" ht="15.75">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4550,7 +4545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1">
+    <row r="98" spans="1:6" ht="15.75">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4568,7 +4563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1">
+    <row r="99" spans="1:6" ht="15.75">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4586,7 +4581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1">
+    <row r="100" spans="1:6" ht="15.75">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4604,7 +4599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1">
+    <row r="101" spans="1:6" ht="15.75">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4622,7 +4617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1">
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4678,7 +4673,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1">
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4698,7 +4693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1">
+    <row r="106" spans="1:6" ht="15.75">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4790,7 +4785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1">
+    <row r="111" spans="1:6" ht="15.75">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -4916,7 +4911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
+    <row r="118" spans="1:6" ht="15.75">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -5024,7 +5019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1">
+    <row r="124" spans="1:6" ht="15.75">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5042,7 +5037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1">
+    <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="1">
         <v>130</v>
       </c>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="97">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -320,9 +320,6 @@
     <t>View</t>
   </si>
   <si>
-    <t>except Images save</t>
-  </si>
-  <si>
     <t xml:space="preserve">Clinta </t>
   </si>
   <si>
@@ -330,6 +327,9 @@
   </si>
   <si>
     <t>Sponsors Product</t>
+  </si>
+  <si>
+    <t>Images not submit</t>
   </si>
 </sst>
 </file>
@@ -2153,9 +2153,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F136">
-    <filterColumn colId="5">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Pending"/>
+        <filter val="ClinTa Web-Builder"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2785,8 +2785,8 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F68" sqref="F68"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2891,7 +2891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" hidden="1">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.75" hidden="1">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75">
+    <row r="34" spans="1:6" ht="15.75" hidden="1">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75">
+    <row r="50" spans="1:6" ht="15.75" hidden="1">
       <c r="A50" s="1">
         <v>51</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75">
+    <row r="51" spans="1:6" ht="15.75" hidden="1">
       <c r="A51" s="1">
         <v>52</v>
       </c>
@@ -3717,7 +3717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75">
+    <row r="52" spans="1:6" ht="15.75" hidden="1">
       <c r="A52" s="1">
         <v>53</v>
       </c>
@@ -3735,7 +3735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75">
+    <row r="53" spans="1:6" ht="15.75" hidden="1">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" hidden="1">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" hidden="1">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" hidden="1">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" hidden="1">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" hidden="1">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" hidden="1">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75">
+    <row r="60" spans="1:6" ht="15.75" hidden="1">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75">
+    <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
         <v>72</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75">
+    <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
         <v>73</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75">
+    <row r="86" spans="1:6" ht="15.75" hidden="1">
       <c r="A86" s="1">
         <v>91</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75">
+    <row r="87" spans="1:6" ht="15.75" hidden="1">
       <c r="A87" s="1">
         <v>92</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75">
+    <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
         <v>103</v>
       </c>
@@ -4545,7 +4545,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75">
+    <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
         <v>104</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75">
+    <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
         <v>105</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75">
+    <row r="100" spans="1:6" ht="15.75" hidden="1">
       <c r="A100" s="1">
         <v>106</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75">
+    <row r="101" spans="1:6" ht="15.75" hidden="1">
       <c r="A101" s="1">
         <v>107</v>
       </c>
@@ -4617,7 +4617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="15.75" hidden="1">
       <c r="A102" s="1">
         <v>108</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1">
+    <row r="103" spans="1:6" ht="15.75">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4649,25 +4649,25 @@
         <v>11</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1">
+    <row r="104" spans="1:6" ht="15.75">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>53</v>
@@ -4687,7 +4687,7 @@
         <v>11</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
@@ -4711,7 +4711,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" hidden="1">
+    <row r="107" spans="1:6" ht="15.75">
       <c r="A107" s="1">
         <v>113</v>
       </c>
@@ -4724,14 +4724,12 @@
       <c r="D107" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -4749,7 +4747,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" hidden="1">
+    <row r="109" spans="1:6" ht="15.75">
       <c r="A109" s="1">
         <v>115</v>
       </c>
@@ -4767,7 +4765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1">
+    <row r="110" spans="1:6" ht="15.75">
       <c r="A110" s="1">
         <v>116</v>
       </c>
@@ -4780,12 +4778,14 @@
       <c r="D110" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F110" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75">
+    <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
         <v>117</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
+    <row r="118" spans="1:6" ht="15.75" hidden="1">
       <c r="A118" s="1">
         <v>123</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75">
+    <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
         <v>129</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75">
+    <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
         <v>130</v>
       </c>
@@ -5048,9 +5048,11 @@
         <v>10</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F125" s="1" t="s">
         <v>9</v>
       </c>
@@ -5238,7 +5240,7 @@
     <row r="136" spans="1:6" ht="15.75" hidden="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="100">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>Images not submit</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Discount Center Offer</t>
+  </si>
+  <si>
+    <t>Discounts Center List Discounts Center Doctors</t>
   </si>
 </sst>
 </file>
@@ -445,7 +454,467 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="104">
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -557,36 +1026,6 @@
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -757,16 +1196,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45602.771435069444" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="134">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45607.640572569442" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="137">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Sr. NO " numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="140"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="140"/>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
-      <sharedItems count="17">
+      <sharedItems count="18">
         <s v="Clinta Member"/>
         <s v="Dashboard"/>
         <s v="Diseases"/>
@@ -784,10 +1223,11 @@
         <s v="ClinTa Health Care"/>
         <s v="ClinTa Extended"/>
         <s v="ClinTa Pharmacy"/>
+        <s v="Clinta "/>
       </sharedItems>
     </cacheField>
     <cacheField name="Segment" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Sub Segment" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -799,7 +1239,7 @@
       <sharedItems containsBlank="1" count="3">
         <s v="Complete"/>
         <s v="Pending"/>
-        <m u="1"/>
+        <m/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -812,7 +1252,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="134">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="137">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1203,7 +1643,7 @@
     <s v="Lab Reports"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="52"/>
@@ -1211,7 +1651,7 @@
     <s v="Lab Reports"/>
     <s v="Filters"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="53"/>
@@ -1219,7 +1659,7 @@
     <s v="Radiology"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="54"/>
@@ -1227,7 +1667,7 @@
     <s v="Radiology"/>
     <s v="Filters"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="55"/>
@@ -1299,7 +1739,7 @@
     <s v="Laboratories "/>
     <s v="Filters"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="64"/>
@@ -1339,7 +1779,7 @@
     <s v="Company"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="73"/>
@@ -1347,7 +1787,7 @@
     <s v="Company"/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="74"/>
@@ -1579,7 +2019,7 @@
     <s v="Lab Reports "/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="104"/>
@@ -1587,7 +2027,7 @@
     <s v="Radiology "/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="105"/>
@@ -1595,7 +2035,7 @@
     <s v="Lab Reports "/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="106"/>
@@ -1603,7 +2043,7 @@
     <s v="Radiology "/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="107"/>
@@ -1611,7 +2051,7 @@
     <s v="Lab Reports Parameters"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="108"/>
@@ -1619,30 +2059,30 @@
     <s v="Radiology Parameters"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="109"/>
     <x v="13"/>
     <s v="Sponsors"/>
     <s v="Crud"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="110"/>
+    <s v="Image Not Submiit"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <m/>
     <x v="13"/>
-    <s v="Sponsors"/>
-    <s v="Filter"/>
-    <m/>
-    <x v="1"/>
+    <s v="Sponsors Product"/>
+    <s v="Crud"/>
+    <s v="Image Not Submiit"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="111"/>
     <x v="13"/>
     <s v="Doctor Websites"/>
     <s v="Crud"/>
-    <m/>
+    <s v="Image Not Submiit"/>
     <x v="1"/>
   </r>
   <r>
@@ -1658,7 +2098,7 @@
     <x v="13"/>
     <s v="Hospital Websites"/>
     <s v="Crud"/>
-    <s v="except Images save"/>
+    <m/>
     <x v="0"/>
   </r>
   <r>
@@ -1667,7 +2107,7 @@
     <s v="Hospital Websites"/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="115"/>
@@ -1682,7 +2122,7 @@
     <x v="13"/>
     <s v="General Banners"/>
     <s v="Crud"/>
-    <m/>
+    <s v="Images not submit"/>
     <x v="0"/>
   </r>
   <r>
@@ -1739,7 +2179,7 @@
     <s v="RCCS"/>
     <s v="Filter"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="123"/>
@@ -1750,6 +2190,22 @@
     <x v="1"/>
   </r>
   <r>
+    <m/>
+    <x v="14"/>
+    <s v="Discounts Center List Discounts Center Doctors"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="14"/>
+    <s v="Discount Center Offer"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
     <n v="124"/>
     <x v="14"/>
     <s v="Support Vidoes"/>
@@ -1801,8 +2257,8 @@
     <n v="130"/>
     <x v="15"/>
     <s v="Profile"/>
-    <s v="Delete"/>
-    <m/>
+    <s v="Crud"/>
+    <s v="Image Not Submiit"/>
     <x v="1"/>
   </r>
   <r>
@@ -1885,16 +2341,24 @@
     <m/>
     <x v="0"/>
   </r>
+  <r>
+    <m/>
+    <x v="17"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
-  <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+  <location ref="A3:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="18">
+      <items count="19">
         <item x="15"/>
         <item x="14"/>
         <item x="0"/>
@@ -1912,6 +2376,7 @@
         <item x="10"/>
         <item x="12"/>
         <item x="7"/>
+        <item x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1922,7 +2387,7 @@
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="2"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1930,7 +2395,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="19">
     <i>
       <x/>
     </i>
@@ -1982,6 +2447,9 @@
     <i>
       <x v="16"/>
     </i>
+    <i>
+      <x v="17"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -1989,12 +2457,15 @@
   <colFields count="1">
     <field x="5"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2004,86 +2475,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="37">
+    <format dxfId="103">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="36">
+    <format dxfId="102">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="101">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="100">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="99">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="98">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="97">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="93">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="92">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="91">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="90">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="89">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="88">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="87">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="86">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="83">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="82">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2092,7 +2563,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="81">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2101,7 +2572,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="80">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2110,7 +2581,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="79">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2119,7 +2590,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="78">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2128,7 +2599,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="77">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2151,11 +2622,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F138" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+  <autoFilter ref="A1:F138">
     <filterColumn colId="1">
       <filters>
-        <filter val="ClinTa Web-Builder"/>
+        <filter val="Main"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2163,12 +2634,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="5"/>
-    <tableColumn id="1" name="Product" dataDxfId="4"/>
-    <tableColumn id="3" name="Segment" dataDxfId="3"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="2"/>
-    <tableColumn id="4" name="Task" dataDxfId="1"/>
-    <tableColumn id="5" name="Status" dataDxfId="0"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="74"/>
+    <tableColumn id="1" name="Product" dataDxfId="73"/>
+    <tableColumn id="3" name="Segment" dataDxfId="72"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="71"/>
+    <tableColumn id="4" name="Task" dataDxfId="70"/>
+    <tableColumn id="5" name="Status" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2491,11 +2962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2503,11 +2974,11 @@
     <col min="1" max="1" width="24.375" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="40.5" customHeight="1">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
@@ -2515,8 +2986,8 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" ht="4.5" customHeight="1"/>
-    <row r="3" spans="1:4" ht="18.75" hidden="1">
+    <row r="2" spans="1:5" ht="4.5" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18.75" hidden="1">
       <c r="A3" s="6" t="s">
         <v>86</v>
       </c>
@@ -2525,8 +2996,9 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="18.75">
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="6" t="s">
         <v>85</v>
       </c>
@@ -2537,10 +3009,13 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75">
+    <row r="5" spans="1:5" ht="18.75">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2550,25 +3025,27 @@
       <c r="C5" s="9">
         <v>2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75">
+    <row r="6" spans="1:5" ht="18.75">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.75">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.75">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2576,11 +3053,12 @@
         <v>4</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75">
+    <row r="8" spans="1:5" ht="18.75">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -2588,25 +3066,27 @@
         <v>2</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9">
+      <c r="D8" s="9"/>
+      <c r="E8" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75">
+    <row r="9" spans="1:5" ht="18.75">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" s="9">
-        <v>5</v>
-      </c>
-      <c r="D9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75">
+    <row r="10" spans="1:5" ht="18.75">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -2614,11 +3094,12 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="9"/>
+      <c r="E10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75">
+    <row r="11" spans="1:5" ht="18.75">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -2626,11 +3107,12 @@
         <v>5</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11">
+      <c r="D11" s="11"/>
+      <c r="E11" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="14" customFormat="1" ht="18.75">
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="18.75">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -2638,11 +3120,12 @@
         <v>4</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="13">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75">
+    <row r="13" spans="1:5" ht="18.75">
       <c r="A13" s="10" t="s">
         <v>43</v>
       </c>
@@ -2650,11 +3133,12 @@
         <v>7</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75">
+    <row r="14" spans="1:5" ht="18.75">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -2664,23 +3148,25 @@
       <c r="C14" s="9">
         <v>2</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75">
+    <row r="15" spans="1:5" ht="18.75">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9">
+      <c r="B15" s="9">
         <v>10</v>
       </c>
-      <c r="D15" s="9">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75">
       <c r="A16" s="8" t="s">
         <v>65</v>
       </c>
@@ -2688,11 +3174,12 @@
         <v>8</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75">
+    <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="8" t="s">
         <v>67</v>
       </c>
@@ -2702,25 +3189,25 @@
       <c r="C17" s="9">
         <v>9</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75">
+    <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="9">
-        <v>5</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.75">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="8" t="s">
         <v>81</v>
       </c>
@@ -2728,11 +3215,12 @@
       <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75">
+    <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="8" t="s">
         <v>82</v>
       </c>
@@ -2740,36 +3228,46 @@
         <v>4</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75">
+    <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
-        <v>1</v>
-      </c>
-      <c r="D21" s="9">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75">
+      <c r="A23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B22" s="9">
-        <v>97</v>
-      </c>
-      <c r="C22" s="9">
-        <v>37</v>
-      </c>
-      <c r="D22" s="9">
-        <v>134</v>
+      <c r="B23" s="9">
+        <v>114</v>
+      </c>
+      <c r="C23" s="9">
+        <v>22</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2782,18 +3280,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E140" sqref="E140"/>
+      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.625" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
@@ -3696,7 +4194,7 @@
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" hidden="1">
@@ -3714,7 +4212,7 @@
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15.75" hidden="1">
@@ -3732,7 +4230,7 @@
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.75" hidden="1">
@@ -3750,10 +4248,10 @@
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -3771,7 +4269,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -3789,7 +4287,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" hidden="1">
+    <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -3807,7 +4305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" hidden="1">
+    <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -3825,7 +4323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" hidden="1">
+    <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
         <v>59</v>
       </c>
@@ -3843,7 +4341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.75">
       <c r="A59" s="1">
         <v>60</v>
       </c>
@@ -3861,7 +4359,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.75">
       <c r="A60" s="1">
         <v>61</v>
       </c>
@@ -3915,7 +4413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1">
+    <row r="63" spans="1:6" ht="15.75">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -3933,7 +4431,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+    <row r="64" spans="1:6" ht="15.75">
       <c r="A64" s="1">
         <v>65</v>
       </c>
@@ -3951,7 +4449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1">
+    <row r="65" spans="1:6" ht="15.75">
       <c r="A65" s="1">
         <v>66</v>
       </c>
@@ -3969,7 +4467,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1">
+    <row r="66" spans="1:6" ht="15.75">
       <c r="A66" s="1">
         <v>67</v>
       </c>
@@ -4203,7 +4701,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1">
+    <row r="79" spans="1:6" ht="15.75">
       <c r="A79" s="1">
         <v>84</v>
       </c>
@@ -4542,7 +5040,7 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="15.75" hidden="1">
@@ -4560,7 +5058,7 @@
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="15.75" hidden="1">
@@ -4578,7 +5076,7 @@
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="15.75" hidden="1">
@@ -4596,7 +5094,7 @@
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" hidden="1">
@@ -4614,7 +5112,7 @@
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="15.75" hidden="1">
@@ -4632,10 +5130,10 @@
       </c>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" hidden="1">
       <c r="A103" s="1">
         <v>109</v>
       </c>
@@ -4655,7 +5153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75">
+    <row r="104" spans="1:6" ht="15.75" hidden="1">
       <c r="A104" s="2"/>
       <c r="B104" s="1" t="s">
         <v>28</v>
@@ -4673,7 +5171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75">
+    <row r="105" spans="1:6" ht="15.75" hidden="1">
       <c r="A105" s="1">
         <v>111</v>
       </c>
@@ -4693,7 +5191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75">
+    <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
         <v>112</v>
       </c>
@@ -4711,7 +5209,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75">
+    <row r="107" spans="1:6" ht="15.75" hidden="1">
       <c r="A107" s="1">
         <v>113</v>
       </c>
@@ -4729,7 +5227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" hidden="1">
       <c r="A108" s="1">
         <v>114</v>
       </c>
@@ -4747,7 +5245,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75">
+    <row r="109" spans="1:6" ht="15.75" hidden="1">
       <c r="A109" s="1">
         <v>115</v>
       </c>
@@ -4765,7 +5263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="15.75" hidden="1">
       <c r="A110" s="1">
         <v>116</v>
       </c>
@@ -4930,44 +5428,40 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="15.75" hidden="1">
-      <c r="A119" s="1">
-        <v>124</v>
-      </c>
+      <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E119" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E119" s="2"/>
       <c r="F119" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" hidden="1">
-      <c r="A120" s="1">
-        <v>125</v>
-      </c>
+      <c r="A120" s="2"/>
       <c r="B120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" hidden="1">
       <c r="A121" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
@@ -4975,17 +5469,17 @@
       <c r="C121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E121" s="2"/>
+      <c r="D121" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" hidden="1">
       <c r="A122" s="1">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
@@ -4994,7 +5488,7 @@
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
@@ -5003,108 +5497,108 @@
     </row>
     <row r="123" spans="1:6" ht="15.75" hidden="1">
       <c r="A123" s="1">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E123" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E123" s="2"/>
       <c r="F123" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E124" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E124" s="2"/>
       <c r="F124" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="15.75" hidden="1">
       <c r="A126" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" hidden="1">
       <c r="A127" s="1">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E127" s="1"/>
+      <c r="E127" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F127" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" hidden="1">
       <c r="A128" s="1">
-        <v>133</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>26</v>
+        <v>131</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
@@ -5113,16 +5607,16 @@
     </row>
     <row r="129" spans="1:6" ht="15.75" hidden="1">
       <c r="A129" s="1">
-        <v>134</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>26</v>
+        <v>132</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
@@ -5131,43 +5625,43 @@
     </row>
     <row r="130" spans="1:6" ht="15.75" hidden="1">
       <c r="A130" s="1">
-        <v>135</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E130" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" hidden="1">
       <c r="A131" s="1">
-        <v>136</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E131" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" hidden="1">
       <c r="A132" s="1">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>82</v>
@@ -5176,7 +5670,7 @@
         <v>83</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="1" t="s">
@@ -5185,16 +5679,16 @@
     </row>
     <row r="133" spans="1:6" ht="15.75" hidden="1">
       <c r="A133" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>25</v>
+        <v>82</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="1" t="s">
@@ -5203,16 +5697,16 @@
     </row>
     <row r="134" spans="1:6" ht="15.75" hidden="1">
       <c r="A134" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="1" t="s">
@@ -5221,7 +5715,7 @@
     </row>
     <row r="135" spans="1:6" ht="15.75" hidden="1">
       <c r="A135" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>14</v>
@@ -5230,7 +5724,7 @@
         <v>20</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="1" t="s">
@@ -5238,26 +5732,62 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="15.75" hidden="1">
-      <c r="A136" s="2"/>
+      <c r="A136" s="1">
+        <v>139</v>
+      </c>
       <c r="B136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E136" s="2"/>
+      <c r="F136" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" hidden="1">
+      <c r="A137" s="1">
+        <v>140</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2"/>
+      <c r="F137" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" hidden="1">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C136" s="2"/>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F136">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F138">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="99">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -255,9 +255,6 @@
   </si>
   <si>
     <t>Login</t>
-  </si>
-  <si>
-    <t>Forget Password</t>
   </si>
   <si>
     <t>Specialities</t>
@@ -454,7 +451,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="92">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -642,66 +639,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <name val="Eras Medium ITC"/>
         <scheme val="none"/>
       </font>
@@ -852,66 +789,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1196,7 +1073,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45607.640572569442" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="137">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45610.650516782407" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -1252,7 +1129,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="137">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="136">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1675,7 +1552,7 @@
     <s v="Admin Activity"/>
     <s v="Crud"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="56"/>
@@ -1683,7 +1560,7 @@
     <s v="Admin Activity"/>
     <s v="Filters"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="57"/>
@@ -1750,14 +1627,6 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="65"/>
-    <x v="6"/>
-    <s v="Login"/>
-    <s v="Forget Password"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
     <n v="66"/>
     <x v="6"/>
     <s v="Specialities"/>
@@ -1875,7 +1744,7 @@
     <s v="Admin Approval"/>
     <s v="List"/>
     <m/>
-    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <n v="85"/>
@@ -2475,86 +2344,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="103">
+    <format dxfId="91">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="102">
+    <format dxfId="90">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="101">
+    <format dxfId="89">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="88">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="87">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="86">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="96">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="95">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="94">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="81">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="80">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="79">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="78">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="77">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="76">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="75">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="74">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="73">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="72">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="70">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2563,7 +2432,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="69">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2572,7 +2441,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="68">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2581,7 +2450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="79">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2590,7 +2459,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="66">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2599,7 +2468,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2622,11 +2491,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F138" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
-  <autoFilter ref="A1:F138">
-    <filterColumn colId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <autoFilter ref="A1:F137">
+    <filterColumn colId="5">
       <filters>
-        <filter val="Main"/>
+        <filter val="Pending"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2634,12 +2503,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="74"/>
-    <tableColumn id="1" name="Product" dataDxfId="73"/>
-    <tableColumn id="3" name="Segment" dataDxfId="72"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="71"/>
-    <tableColumn id="4" name="Task" dataDxfId="70"/>
-    <tableColumn id="5" name="Status" dataDxfId="69"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="62"/>
+    <tableColumn id="1" name="Product" dataDxfId="61"/>
+    <tableColumn id="3" name="Segment" dataDxfId="60"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="59"/>
+    <tableColumn id="4" name="Task" dataDxfId="58"/>
+    <tableColumn id="5" name="Status" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2966,7 +2835,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2980,7 +2849,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2989,10 +2858,10 @@
     <row r="2" spans="1:5" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:5" ht="18.75" hidden="1">
       <c r="A3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -3000,7 +2869,7 @@
     </row>
     <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>53</v>
@@ -3009,10 +2878,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75">
@@ -3184,19 +3053,19 @@
         <v>67</v>
       </c>
       <c r="B17" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C17" s="9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="9">
         <v>7</v>
@@ -3209,7 +3078,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9">
@@ -3222,7 +3091,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B20" s="9">
         <v>4</v>
@@ -3235,7 +3104,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="9">
         <v>2</v>
@@ -3248,7 +3117,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3257,17 +3126,17 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B23" s="9">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3280,11 +3149,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3328,7 +3197,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3364,7 +3233,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3382,14 +3251,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" hidden="1">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="1">
         <v>7</v>
       </c>
@@ -3416,7 +3285,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
@@ -3542,7 +3411,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -3614,7 +3483,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -3758,7 +3627,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
@@ -3848,7 +3717,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
@@ -3873,7 +3742,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1">
+    <row r="33" spans="1:6" ht="15.75">
       <c r="A33" s="1">
         <v>34</v>
       </c>
@@ -3891,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1">
+    <row r="34" spans="1:6" ht="15.75">
       <c r="A34" s="1">
         <v>35</v>
       </c>
@@ -3974,7 +3843,7 @@
         <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
@@ -4046,7 +3915,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
@@ -4136,7 +4005,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="s">
@@ -4251,7 +4120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" hidden="1">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -4266,10 +4135,10 @@
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" hidden="1">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -4284,7 +4153,7 @@
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75">
@@ -4298,7 +4167,7 @@
         <v>69</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
@@ -4382,7 +4251,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>70</v>
@@ -4400,7 +4269,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>70</v>
@@ -4413,7 +4282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75">
+    <row r="63" spans="1:6" ht="15.75" hidden="1">
       <c r="A63" s="1">
         <v>64</v>
       </c>
@@ -4431,54 +4300,54 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75">
+    <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" hidden="1">
       <c r="A65" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>67</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75">
+    <row r="66" spans="1:6" ht="15.75" hidden="1">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
@@ -4487,16 +4356,16 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
@@ -4505,16 +4374,16 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
@@ -4523,13 +4392,13 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1">
       <c r="A69" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -4541,16 +4410,16 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1">
       <c r="A70" s="1">
+        <v>76</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
@@ -4559,16 +4428,16 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1">
       <c r="A71" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
@@ -4577,10 +4446,10 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1">
       <c r="A72" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>79</v>
@@ -4595,16 +4464,16 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1">
       <c r="A73" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -4613,16 +4482,16 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1">
       <c r="A74" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -4631,16 +4500,16 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1">
       <c r="A75" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -4649,16 +4518,16 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1">
       <c r="A76" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -4667,16 +4536,16 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1">
       <c r="A77" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -4685,49 +4554,49 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1">
       <c r="A78" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>74</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75">
+    <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1">
       <c r="A80" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -4739,13 +4608,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1">
       <c r="A81" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>11</v>
@@ -4757,13 +4626,13 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1">
       <c r="A82" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4775,7 +4644,7 @@
     </row>
     <row r="83" spans="1:6" ht="15.75" hidden="1">
       <c r="A83" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>43</v>
@@ -4784,7 +4653,7 @@
         <v>47</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
@@ -4793,52 +4662,52 @@
     </row>
     <row r="84" spans="1:6" ht="15.75" hidden="1">
       <c r="A84" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1">
+    <row r="85" spans="1:6" ht="15.75">
       <c r="A85" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75">
       <c r="A86" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
@@ -4847,31 +4716,31 @@
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1">
       <c r="A87" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1">
       <c r="A88" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -4883,13 +4752,13 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1">
       <c r="A89" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4901,13 +4770,13 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1">
       <c r="A90" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>11</v>
@@ -4919,13 +4788,13 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1">
       <c r="A91" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4937,16 +4806,16 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1">
       <c r="A92" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -4955,16 +4824,16 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1">
       <c r="A93" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
@@ -4973,16 +4842,16 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1">
       <c r="A94" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
@@ -4991,7 +4860,7 @@
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1">
       <c r="A95" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>65</v>
@@ -5000,7 +4869,7 @@
         <v>66</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
@@ -5009,16 +4878,16 @@
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1">
       <c r="A96" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
@@ -5027,13 +4896,13 @@
     </row>
     <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>11</v>
@@ -5045,16 +4914,16 @@
     </row>
     <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
@@ -5063,13 +4932,13 @@
     </row>
     <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>17</v>
@@ -5081,16 +4950,16 @@
     </row>
     <row r="100" spans="1:6" ht="15.75" hidden="1">
       <c r="A100" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
@@ -5099,13 +4968,13 @@
     </row>
     <row r="101" spans="1:6" ht="15.75" hidden="1">
       <c r="A101" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>11</v>
@@ -5117,63 +4986,65 @@
     </row>
     <row r="102" spans="1:6" ht="15.75" hidden="1">
       <c r="A102" s="1">
-        <v>108</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D102" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="15.75" hidden="1">
-      <c r="A103" s="1">
-        <v>109</v>
-      </c>
+      <c r="A103" s="2"/>
       <c r="B103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1">
-      <c r="A104" s="2"/>
+      <c r="E103" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75">
+      <c r="A104" s="1">
+        <v>111</v>
+      </c>
       <c r="B104" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1">
+      <c r="E104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75">
       <c r="A105" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>28</v>
@@ -5182,36 +5053,34 @@
         <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="15.75" hidden="1">
       <c r="A107" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>28</v>
@@ -5220,7 +5089,7 @@
         <v>31</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
@@ -5229,16 +5098,16 @@
     </row>
     <row r="108" spans="1:6" ht="15.75" hidden="1">
       <c r="A108" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
@@ -5247,63 +5116,63 @@
     </row>
     <row r="109" spans="1:6" ht="15.75" hidden="1">
       <c r="A109" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F109" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1">
+    <row r="110" spans="1:6" ht="15.75">
       <c r="A110" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" hidden="1">
       <c r="A112" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>14</v>
@@ -5311,17 +5180,17 @@
       <c r="C112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E112" s="1"/>
+      <c r="D112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="2"/>
       <c r="F112" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="15.75" hidden="1">
       <c r="A113" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>14</v>
@@ -5330,7 +5199,7 @@
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
@@ -5339,7 +5208,7 @@
     </row>
     <row r="114" spans="1:6" ht="15.75" hidden="1">
       <c r="A114" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>14</v>
@@ -5348,7 +5217,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="1" t="s">
@@ -5366,7 +5235,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="E115" s="2"/>
       <c r="F115" s="1" t="s">
@@ -5375,7 +5244,7 @@
     </row>
     <row r="116" spans="1:6" ht="15.75" hidden="1">
       <c r="A116" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>14</v>
@@ -5383,57 +5252,55 @@
       <c r="C116" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E116" s="2"/>
+      <c r="D116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" hidden="1">
+    <row r="117" spans="1:6" ht="15.75">
       <c r="A117" s="1">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
-      <c r="A118" s="1">
-        <v>123</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75">
+      <c r="A118" s="2"/>
       <c r="B118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="2"/>
       <c r="F118" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" hidden="1">
+    <row r="119" spans="1:6" ht="15.75">
       <c r="A119" s="2"/>
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>11</v>
@@ -5444,24 +5311,26 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" hidden="1">
-      <c r="A120" s="2"/>
+      <c r="A120" s="1">
+        <v>124</v>
+      </c>
       <c r="B120" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E120" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" hidden="1">
       <c r="A121" s="1">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
@@ -5469,17 +5338,17 @@
       <c r="C121" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E121" s="1"/>
+      <c r="D121" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="2"/>
       <c r="F121" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="15.75" hidden="1">
       <c r="A122" s="1">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
@@ -5488,7 +5357,7 @@
         <v>19</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="1" t="s">
@@ -5497,7 +5366,7 @@
     </row>
     <row r="123" spans="1:6" ht="15.75" hidden="1">
       <c r="A123" s="1">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>14</v>
@@ -5506,7 +5375,7 @@
         <v>19</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="1" t="s">
@@ -5515,90 +5384,90 @@
     </row>
     <row r="124" spans="1:6" ht="15.75" hidden="1">
       <c r="A124" s="1">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1">
+    <row r="125" spans="1:6" ht="15.75">
       <c r="A125" s="1">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75">
       <c r="A126" s="1">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E126" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F126" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" hidden="1">
       <c r="A127" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="15.75" hidden="1">
       <c r="A128" s="1">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
@@ -5607,13 +5476,13 @@
     </row>
     <row r="129" spans="1:6" ht="15.75" hidden="1">
       <c r="A129" s="1">
-        <v>132</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>11</v>
@@ -5625,7 +5494,7 @@
     </row>
     <row r="130" spans="1:6" ht="15.75" hidden="1">
       <c r="A130" s="1">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>26</v>
@@ -5634,7 +5503,7 @@
         <v>27</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
@@ -5643,34 +5512,34 @@
     </row>
     <row r="131" spans="1:6" ht="15.75" hidden="1">
       <c r="A131" s="1">
-        <v>134</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="2"/>
       <c r="F131" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="15.75" hidden="1">
       <c r="A132" s="1">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C132" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D132" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="1" t="s">
@@ -5679,16 +5548,16 @@
     </row>
     <row r="133" spans="1:6" ht="15.75" hidden="1">
       <c r="A133" s="1">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C133" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="D133" s="2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="1" t="s">
@@ -5697,16 +5566,16 @@
     </row>
     <row r="134" spans="1:6" ht="15.75" hidden="1">
       <c r="A134" s="1">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="1" t="s">
@@ -5715,7 +5584,7 @@
     </row>
     <row r="135" spans="1:6" ht="15.75" hidden="1">
       <c r="A135" s="1">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>14</v>
@@ -5724,7 +5593,7 @@
         <v>20</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E135" s="2"/>
       <c r="F135" s="1" t="s">
@@ -5733,7 +5602,7 @@
     </row>
     <row r="136" spans="1:6" ht="15.75" hidden="1">
       <c r="A136" s="1">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>14</v>
@@ -5742,7 +5611,7 @@
         <v>20</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="1" t="s">
@@ -5750,44 +5619,26 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="15.75" hidden="1">
-      <c r="A137" s="1">
-        <v>140</v>
-      </c>
+      <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" hidden="1">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C138" s="2"/>
-      <c r="D138" s="2"/>
-      <c r="E138" s="2"/>
-      <c r="F138" s="2"/>
+      <c r="F137" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F138">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F137">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="98">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -206,15 +206,6 @@
     <t>Details and Update</t>
   </si>
   <si>
-    <t>Stats</t>
-  </si>
-  <si>
-    <t>Premium Members</t>
-  </si>
-  <si>
-    <t>Basic Members</t>
-  </si>
-  <si>
     <t>Investigation</t>
   </si>
   <si>
@@ -336,6 +327,12 @@
   </si>
   <si>
     <t>Discounts Center List Discounts Center Doctors</t>
+  </si>
+  <si>
+    <t>Profile Detail</t>
+  </si>
+  <si>
+    <t>Add user</t>
   </si>
 </sst>
 </file>
@@ -451,7 +448,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="73">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -639,156 +636,81 @@
     </dxf>
     <dxf>
       <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1073,7 +995,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45610.650516782407" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45610.763572800926" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -1379,22 +1301,6 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="34"/>
-    <x v="4"/>
-    <s v="Stats"/>
-    <s v="Premium Members"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <x v="4"/>
-    <s v="Stats"/>
-    <s v="Basic Members"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
     <n v="36"/>
     <x v="4"/>
     <s v="Tips and Guides"/>
@@ -2218,11 +2124,27 @@
     <m/>
     <x v="2"/>
   </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <s v="Profile Detail"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <x v="15"/>
+    <s v="Add user"/>
+    <s v="Crud"/>
+    <m/>
+    <x v="1"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2344,86 +2266,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="91">
+    <format dxfId="72">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="70">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="69">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="68">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="67">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="65">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="63">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="62">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="61">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="60">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="59">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="58">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="57">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="56">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="55">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="73">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="72">
+    <format dxfId="53">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="52">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="51">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2432,7 +2354,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="50">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2441,7 +2363,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="49">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2450,7 +2372,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="48">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2459,7 +2381,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="47">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2468,7 +2390,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="46">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2491,7 +2413,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
   <autoFilter ref="A1:F137">
     <filterColumn colId="5">
       <filters>
@@ -2503,12 +2425,12 @@
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="62"/>
-    <tableColumn id="1" name="Product" dataDxfId="61"/>
-    <tableColumn id="3" name="Segment" dataDxfId="60"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="59"/>
-    <tableColumn id="4" name="Task" dataDxfId="58"/>
-    <tableColumn id="5" name="Status" dataDxfId="57"/>
+    <tableColumn id="2" name="Sr. NO " dataDxfId="43"/>
+    <tableColumn id="1" name="Product" dataDxfId="42"/>
+    <tableColumn id="3" name="Segment" dataDxfId="41"/>
+    <tableColumn id="6" name="Sub Segment" dataDxfId="40"/>
+    <tableColumn id="4" name="Task" dataDxfId="39"/>
+    <tableColumn id="5" name="Status" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2835,7 +2757,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2849,7 +2771,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40.5" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2858,10 +2780,10 @@
     <row r="2" spans="1:5" ht="4.5" customHeight="1"/>
     <row r="3" spans="1:5" ht="18.75" hidden="1">
       <c r="A3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
@@ -2869,7 +2791,7 @@
     </row>
     <row r="4" spans="1:5" ht="18.75">
       <c r="A4" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>53</v>
@@ -2878,10 +2800,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75">
@@ -2892,11 +2814,11 @@
         <v>2</v>
       </c>
       <c r="C5" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75">
@@ -3014,17 +2936,15 @@
       <c r="B14" s="9">
         <v>36</v>
       </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75">
       <c r="A15" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" s="9">
         <v>10</v>
@@ -3037,7 +2957,7 @@
     </row>
     <row r="16" spans="1:5" ht="18.75">
       <c r="A16" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="9">
         <v>8</v>
@@ -3050,7 +2970,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B17" s="9">
         <v>6</v>
@@ -3065,7 +2985,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75">
       <c r="A18" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B18" s="9">
         <v>7</v>
@@ -3078,7 +2998,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9">
@@ -3091,7 +3011,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75">
       <c r="A20" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B20" s="9">
         <v>4</v>
@@ -3104,7 +3024,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75">
       <c r="A21" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B21" s="9">
         <v>2</v>
@@ -3117,7 +3037,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -3126,7 +3046,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="9">
         <v>117</v>
@@ -3153,7 +3073,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3197,7 +3117,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
@@ -3233,7 +3153,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
@@ -3251,7 +3171,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
@@ -3285,7 +3205,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
@@ -3411,7 +3331,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
@@ -3483,7 +3403,7 @@
         <v>52</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
@@ -3627,7 +3547,7 @@
         <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
@@ -3717,7 +3637,7 @@
         <v>39</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
@@ -3742,45 +3662,45 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.75" hidden="1">
       <c r="A33" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" hidden="1">
       <c r="A34" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" hidden="1">
       <c r="A35" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>49</v>
@@ -3789,16 +3709,16 @@
         <v>47</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" hidden="1">
       <c r="A36" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -3807,7 +3727,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
@@ -3816,16 +3736,16 @@
     </row>
     <row r="37" spans="1:6" ht="15.75" hidden="1">
       <c r="A37" s="1">
+        <v>40</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>47</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
@@ -3834,16 +3754,16 @@
     </row>
     <row r="38" spans="1:6" ht="15.75" hidden="1">
       <c r="A38" s="1">
-        <v>39</v>
-      </c>
-      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>47</v>
+      <c r="C38" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
@@ -3852,7 +3772,7 @@
     </row>
     <row r="39" spans="1:6" ht="15.75" hidden="1">
       <c r="A39" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>49</v>
@@ -3861,7 +3781,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
@@ -3870,34 +3790,34 @@
     </row>
     <row r="40" spans="1:6" ht="15.75" hidden="1">
       <c r="A40" s="1">
-        <v>41</v>
-      </c>
-      <c r="B40" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" hidden="1">
       <c r="A41" s="1">
-        <v>42</v>
-      </c>
-      <c r="B41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
@@ -3906,34 +3826,34 @@
     </row>
     <row r="42" spans="1:6" ht="15.75" hidden="1">
       <c r="A42" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>38</v>
+      <c r="C42" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.75" hidden="1">
       <c r="A43" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>38</v>
+      <c r="C43" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
@@ -3942,7 +3862,7 @@
     </row>
     <row r="44" spans="1:6" ht="15.75" hidden="1">
       <c r="A44" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>49</v>
@@ -3951,7 +3871,7 @@
         <v>40</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
@@ -3960,7 +3880,7 @@
     </row>
     <row r="45" spans="1:6" ht="15.75" hidden="1">
       <c r="A45" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>49</v>
@@ -3969,7 +3889,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
@@ -3978,7 +3898,7 @@
     </row>
     <row r="46" spans="1:6" ht="15.75" hidden="1">
       <c r="A46" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>49</v>
@@ -3987,7 +3907,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
@@ -3996,52 +3916,52 @@
     </row>
     <row r="47" spans="1:6" ht="15.75" hidden="1">
       <c r="A47" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>40</v>
+      <c r="C47" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" hidden="1">
       <c r="A48" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>40</v>
+        <v>55</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15.75" hidden="1">
       <c r="A49" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
@@ -4050,13 +3970,13 @@
     </row>
     <row r="50" spans="1:6" ht="15.75" hidden="1">
       <c r="A50" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>11</v>
@@ -4068,13 +3988,13 @@
     </row>
     <row r="51" spans="1:6" ht="15.75" hidden="1">
       <c r="A51" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>22</v>
@@ -4086,13 +4006,13 @@
     </row>
     <row r="52" spans="1:6" ht="15.75" hidden="1">
       <c r="A52" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>11</v>
@@ -4104,13 +4024,13 @@
     </row>
     <row r="53" spans="1:6" ht="15.75" hidden="1">
       <c r="A53" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>22</v>
@@ -4120,72 +4040,72 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" hidden="1">
+    <row r="54" spans="1:6" ht="15.75">
       <c r="A54" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75">
       <c r="A55" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="15.75">
       <c r="A56" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15.75">
       <c r="A57" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
@@ -4194,70 +4114,70 @@
     </row>
     <row r="58" spans="1:6" ht="15.75">
       <c r="A58" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75">
+    <row r="59" spans="1:6" ht="15.75" hidden="1">
       <c r="A59" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" hidden="1">
       <c r="A60" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15.75" hidden="1">
       <c r="A61" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
@@ -4266,16 +4186,16 @@
     </row>
     <row r="62" spans="1:6" ht="15.75" hidden="1">
       <c r="A62" s="1">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
@@ -4284,16 +4204,16 @@
     </row>
     <row r="63" spans="1:6" ht="15.75" hidden="1">
       <c r="A63" s="1">
+        <v>67</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
@@ -4302,16 +4222,16 @@
     </row>
     <row r="64" spans="1:6" ht="15.75" hidden="1">
       <c r="A64" s="1">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
@@ -4320,16 +4240,16 @@
     </row>
     <row r="65" spans="1:6" ht="15.75" hidden="1">
       <c r="A65" s="1">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
@@ -4338,13 +4258,13 @@
     </row>
     <row r="66" spans="1:6" ht="15.75" hidden="1">
       <c r="A66" s="1">
+        <v>74</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="C66" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>11</v>
@@ -4356,16 +4276,16 @@
     </row>
     <row r="67" spans="1:6" ht="15.75" hidden="1">
       <c r="A67" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
@@ -4374,16 +4294,16 @@
     </row>
     <row r="68" spans="1:6" ht="15.75" hidden="1">
       <c r="A68" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
@@ -4392,13 +4312,13 @@
     </row>
     <row r="69" spans="1:6" ht="15.75" hidden="1">
       <c r="A69" s="1">
+        <v>77</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>11</v>
@@ -4410,16 +4330,16 @@
     </row>
     <row r="70" spans="1:6" ht="15.75" hidden="1">
       <c r="A70" s="1">
+        <v>78</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
@@ -4428,16 +4348,16 @@
     </row>
     <row r="71" spans="1:6" ht="15.75" hidden="1">
       <c r="A71" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
@@ -4446,16 +4366,16 @@
     </row>
     <row r="72" spans="1:6" ht="15.75" hidden="1">
       <c r="A72" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
@@ -4464,16 +4384,16 @@
     </row>
     <row r="73" spans="1:6" ht="15.75" hidden="1">
       <c r="A73" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
@@ -4482,16 +4402,16 @@
     </row>
     <row r="74" spans="1:6" ht="15.75" hidden="1">
       <c r="A74" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
@@ -4500,16 +4420,16 @@
     </row>
     <row r="75" spans="1:6" ht="15.75" hidden="1">
       <c r="A75" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
@@ -4518,16 +4438,16 @@
     </row>
     <row r="76" spans="1:6" ht="15.75" hidden="1">
       <c r="A76" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
@@ -4536,16 +4456,16 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" hidden="1">
       <c r="A77" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
@@ -4554,16 +4474,16 @@
     </row>
     <row r="78" spans="1:6" ht="15.75" hidden="1">
       <c r="A78" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
@@ -4572,13 +4492,13 @@
     </row>
     <row r="79" spans="1:6" ht="15.75" hidden="1">
       <c r="A79" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>11</v>
@@ -4590,13 +4510,13 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" hidden="1">
       <c r="A80" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>11</v>
@@ -4608,16 +4528,16 @@
     </row>
     <row r="81" spans="1:6" ht="15.75" hidden="1">
       <c r="A81" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
@@ -4626,13 +4546,13 @@
     </row>
     <row r="82" spans="1:6" ht="15.75" hidden="1">
       <c r="A82" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>11</v>
@@ -4642,87 +4562,87 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" hidden="1">
+    <row r="83" spans="1:6" ht="15.75">
       <c r="A83" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75">
       <c r="A84" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" hidden="1">
       <c r="A85" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" hidden="1">
       <c r="A86" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="15.75" hidden="1">
       <c r="A87" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>11</v>
@@ -4734,13 +4654,13 @@
     </row>
     <row r="88" spans="1:6" ht="15.75" hidden="1">
       <c r="A88" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>11</v>
@@ -4752,13 +4672,13 @@
     </row>
     <row r="89" spans="1:6" ht="15.75" hidden="1">
       <c r="A89" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -4770,16 +4690,16 @@
     </row>
     <row r="90" spans="1:6" ht="15.75" hidden="1">
       <c r="A90" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
@@ -4788,16 +4708,16 @@
     </row>
     <row r="91" spans="1:6" ht="15.75" hidden="1">
       <c r="A91" s="1">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
@@ -4806,16 +4726,16 @@
     </row>
     <row r="92" spans="1:6" ht="15.75" hidden="1">
       <c r="A92" s="1">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
@@ -4824,13 +4744,13 @@
     </row>
     <row r="93" spans="1:6" ht="15.75" hidden="1">
       <c r="A93" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>17</v>
@@ -4842,15 +4762,15 @@
     </row>
     <row r="94" spans="1:6" ht="15.75" hidden="1">
       <c r="A94" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E94" s="1"/>
@@ -4860,16 +4780,16 @@
     </row>
     <row r="95" spans="1:6" ht="15.75" hidden="1">
       <c r="A95" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>17</v>
+        <v>59</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
@@ -4878,16 +4798,16 @@
     </row>
     <row r="96" spans="1:6" ht="15.75" hidden="1">
       <c r="A96" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="D96" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
@@ -4896,16 +4816,16 @@
     </row>
     <row r="97" spans="1:6" ht="15.75" hidden="1">
       <c r="A97" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
@@ -4914,16 +4834,16 @@
     </row>
     <row r="98" spans="1:6" ht="15.75" hidden="1">
       <c r="A98" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
@@ -4932,16 +4852,16 @@
     </row>
     <row r="99" spans="1:6" ht="15.75" hidden="1">
       <c r="A99" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
@@ -4950,125 +4870,125 @@
     </row>
     <row r="100" spans="1:6" ht="15.75" hidden="1">
       <c r="A100" s="1">
-        <v>107</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D100" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="15.75" hidden="1">
-      <c r="A101" s="1">
-        <v>108</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D101" s="4" t="s">
+      <c r="A101" s="2"/>
+      <c r="B101" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" hidden="1">
+      <c r="E101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75">
       <c r="A102" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" hidden="1">
-      <c r="A103" s="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75">
+      <c r="A103" s="1">
+        <v>112</v>
+      </c>
       <c r="B103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="15.75">
+        <v>17</v>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" hidden="1">
       <c r="A104" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" hidden="1">
       <c r="A105" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="15.75" hidden="1">
       <c r="A106" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>11</v>
@@ -5080,81 +5000,81 @@
     </row>
     <row r="107" spans="1:6" ht="15.75" hidden="1">
       <c r="A107" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F107" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" hidden="1">
+    <row r="108" spans="1:6" ht="15.75">
       <c r="A108" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="15.75" hidden="1">
       <c r="A109" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>95</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75">
+    <row r="110" spans="1:6" ht="15.75" hidden="1">
       <c r="A110" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="2"/>
       <c r="F110" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="15.75" hidden="1">
       <c r="A111" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>14</v>
@@ -5162,17 +5082,17 @@
       <c r="C111" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E111" s="1"/>
+      <c r="D111" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E111" s="2"/>
       <c r="F111" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="15.75" hidden="1">
       <c r="A112" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>14</v>
@@ -5181,7 +5101,7 @@
         <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="1" t="s">
@@ -5190,7 +5110,7 @@
     </row>
     <row r="113" spans="1:6" ht="15.75" hidden="1">
       <c r="A113" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>14</v>
@@ -5199,7 +5119,7 @@
         <v>16</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="1" t="s">
@@ -5208,7 +5128,7 @@
     </row>
     <row r="114" spans="1:6" ht="15.75" hidden="1">
       <c r="A114" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>14</v>
@@ -5216,103 +5136,103 @@
       <c r="C114" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" s="2"/>
+      <c r="D114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" hidden="1">
+    <row r="115" spans="1:6" ht="15.75">
       <c r="A115" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E115" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="15.75" hidden="1">
-      <c r="A116" s="1">
-        <v>122</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75">
+      <c r="A116" s="2"/>
       <c r="B116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="E116" s="2"/>
       <c r="F116" s="1" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="15.75">
-      <c r="A117" s="1">
-        <v>123</v>
-      </c>
+      <c r="A117" s="2"/>
       <c r="B117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E117" s="1"/>
+      <c r="E117" s="2"/>
       <c r="F117" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75">
-      <c r="A118" s="2"/>
+    <row r="118" spans="1:6" ht="15.75" hidden="1">
+      <c r="A118" s="1">
+        <v>124</v>
+      </c>
       <c r="B118" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E118" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="15.75">
-      <c r="A119" s="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" hidden="1">
+      <c r="A119" s="1">
+        <v>125</v>
+      </c>
       <c r="B119" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="15.75" hidden="1">
       <c r="A120" s="1">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>14</v>
@@ -5320,17 +5240,17 @@
       <c r="C120" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E120" s="1"/>
+      <c r="D120" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E120" s="2"/>
       <c r="F120" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="15.75" hidden="1">
       <c r="A121" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
@@ -5339,7 +5259,7 @@
         <v>19</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="1" t="s">
@@ -5348,108 +5268,108 @@
     </row>
     <row r="122" spans="1:6" ht="15.75" hidden="1">
       <c r="A122" s="1">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E122" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" hidden="1">
+    <row r="123" spans="1:6" ht="15.75">
       <c r="A123" s="1">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75">
       <c r="A124" s="1">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E124" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F124" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" hidden="1">
       <c r="A125" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" hidden="1">
       <c r="A126" s="1">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E126" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="15.75" hidden="1">
       <c r="A127" s="1">
-        <v>131</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>6</v>
+        <v>133</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>8</v>
+        <v>27</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
@@ -5458,16 +5378,16 @@
     </row>
     <row r="128" spans="1:6" ht="15.75" hidden="1">
       <c r="A128" s="1">
-        <v>132</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
@@ -5476,52 +5396,52 @@
     </row>
     <row r="129" spans="1:6" ht="15.75" hidden="1">
       <c r="A129" s="1">
-        <v>133</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="2"/>
       <c r="F129" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15.75" hidden="1">
       <c r="A130" s="1">
-        <v>134</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E130" s="2"/>
       <c r="F130" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="15.75" hidden="1">
       <c r="A131" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="E131" s="2"/>
       <c r="F131" s="1" t="s">
@@ -5530,16 +5450,16 @@
     </row>
     <row r="132" spans="1:6" ht="15.75" hidden="1">
       <c r="A132" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" s="1" t="s">
@@ -5548,16 +5468,16 @@
     </row>
     <row r="133" spans="1:6" ht="15.75" hidden="1">
       <c r="A133" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>87</v>
+        <v>14</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" s="1" t="s">
@@ -5566,7 +5486,7 @@
     </row>
     <row r="134" spans="1:6" ht="15.75" hidden="1">
       <c r="A134" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>14</v>
@@ -5575,7 +5495,7 @@
         <v>20</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E134" s="2"/>
       <c r="F134" s="1" t="s">
@@ -5583,50 +5503,46 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="15.75" hidden="1">
-      <c r="A135" s="1">
-        <v>139</v>
-      </c>
+      <c r="A135" s="2"/>
       <c r="B135" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>24</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
       <c r="E135" s="2"/>
-      <c r="F135" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" hidden="1">
-      <c r="A136" s="1">
-        <v>140</v>
-      </c>
+      <c r="F135" s="2"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75">
+      <c r="A136" s="2"/>
       <c r="B136" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" hidden="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75">
       <c r="A137" s="2"/>
       <c r="B137" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C137" s="2"/>
-      <c r="D137" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E137" s="2"/>
-      <c r="F137" s="2"/>
+      <c r="F137" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.net\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F8A415-C09D-480B-A0D0-3BEFE5C347D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -17,29 +18,18 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="20" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="96">
   <si>
     <t xml:space="preserve">Sr. NO </t>
   </si>
@@ -308,9 +298,6 @@
     <t>View</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinta </t>
-  </si>
-  <si>
     <t>Image Not Submiit</t>
   </si>
   <si>
@@ -318,9 +305,6 @@
   </si>
   <si>
     <t>Images not submit</t>
-  </si>
-  <si>
-    <t>(blank)</t>
   </si>
   <si>
     <t>Discount Center Offer</t>
@@ -338,8 +322,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,7 +432,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="173">
     <dxf>
       <font>
         <name val="Eras Medium ITC"/>
@@ -606,6 +590,161 @@
     </dxf>
     <dxf>
       <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -636,81 +775,466 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Eras Medium ITC"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -995,13 +1519,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="shaheryar" refreshedDate="45610.763572800926" createdVersion="8" refreshedVersion="5" minRefreshableVersion="3" recordCount="136">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Shaharyar Malik" refreshedDate="45614.668207060182" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="135" xr:uid="{00000000-000A-0000-FFFF-FFFF04000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
   <cacheFields count="6">
     <cacheField name="Sr. NO " numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="140"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="135"/>
     </cacheField>
     <cacheField name="Product" numFmtId="0">
       <sharedItems count="18">
@@ -1022,11 +1546,11 @@
         <s v="ClinTa Health Care"/>
         <s v="ClinTa Extended"/>
         <s v="ClinTa Pharmacy"/>
-        <s v="Clinta "/>
+        <s v="Clinta " u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Segment" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Sub Segment" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1038,7 +1562,7 @@
       <sharedItems containsBlank="1" count="3">
         <s v="Complete"/>
         <s v="Pending"/>
-        <m/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1051,7 +1575,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="136">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="135">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1077,7 +1601,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="5"/>
+    <n v="4"/>
     <x v="0"/>
     <s v="List"/>
     <s v="View"/>
@@ -1085,18 +1609,34 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="7"/>
+    <n v="5"/>
     <x v="1"/>
     <s v="Graphs"/>
     <m/>
     <m/>
     <x v="1"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="2"/>
+    <s v="Diseases"/>
+    <s v="Listing"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="2"/>
+    <s v="Diseases"/>
+    <s v="Add"/>
+    <m/>
+    <x v="0"/>
   </r>
   <r>
     <n v="8"/>
     <x v="2"/>
     <s v="Diseases"/>
-    <s v="Listing"/>
+    <s v="Delete"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1104,28 +1644,12 @@
     <n v="9"/>
     <x v="2"/>
     <s v="Diseases"/>
-    <s v="Add"/>
+    <s v="Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="10"/>
-    <x v="2"/>
-    <s v="Diseases"/>
-    <s v="Delete"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="2"/>
-    <s v="Diseases"/>
-    <s v="Update"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="12"/>
     <x v="3"/>
     <s v="FAQS"/>
     <s v="Crud"/>
@@ -1133,7 +1657,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="13"/>
+    <n v="11"/>
     <x v="4"/>
     <s v="Diet Plan"/>
     <s v="Crud"/>
@@ -1141,7 +1665,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="14"/>
+    <n v="12"/>
     <x v="4"/>
     <s v="Dry Fruit and Seeds"/>
     <s v="Crud"/>
@@ -1149,10 +1673,26 @@
     <x v="0"/>
   </r>
   <r>
+    <n v="13"/>
+    <x v="4"/>
+    <s v="Exercise"/>
+    <s v="Listing"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="4"/>
+    <s v="Exercise"/>
+    <s v="Add"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
     <n v="15"/>
     <x v="4"/>
     <s v="Exercise"/>
-    <s v="Listing"/>
+    <s v="Delete"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1160,23 +1700,23 @@
     <n v="16"/>
     <x v="4"/>
     <s v="Exercise"/>
-    <s v="Add"/>
+    <s v="Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="17"/>
     <x v="4"/>
-    <s v="Exercise"/>
-    <s v="Delete"/>
+    <s v="Fruit"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="18"/>
     <x v="4"/>
-    <s v="Exercise"/>
-    <s v="Update"/>
+    <s v="Fruit"/>
+    <s v="Add"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1184,7 +1724,7 @@
     <n v="19"/>
     <x v="4"/>
     <s v="Fruit"/>
-    <s v="Listing"/>
+    <s v="Delete"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1192,7 +1732,7 @@
     <n v="20"/>
     <x v="4"/>
     <s v="Fruit"/>
-    <s v="Add"/>
+    <s v="Update"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1200,23 +1740,23 @@
     <n v="21"/>
     <x v="4"/>
     <s v="Fruit"/>
-    <s v="Delete"/>
+    <s v="Details and Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="22"/>
     <x v="4"/>
-    <s v="Fruit"/>
-    <s v="Update"/>
+    <s v="Miscellaneous"/>
+    <s v="Add"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="23"/>
     <x v="4"/>
-    <s v="Fruit"/>
-    <s v="Details and Update"/>
+    <s v="Miscellaneous"/>
+    <s v="Update"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1224,7 +1764,7 @@
     <n v="24"/>
     <x v="4"/>
     <s v="Miscellaneous"/>
-    <s v="Add"/>
+    <s v="Delete"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1232,7 +1772,7 @@
     <n v="25"/>
     <x v="4"/>
     <s v="Miscellaneous"/>
-    <s v="Update"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1240,23 +1780,23 @@
     <n v="26"/>
     <x v="4"/>
     <s v="Miscellaneous"/>
-    <s v="Delete"/>
+    <s v="Details and Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="27"/>
     <x v="4"/>
-    <s v="Miscellaneous"/>
-    <s v="Listing"/>
+    <s v="Pulses-Grains"/>
+    <s v="Add"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="28"/>
     <x v="4"/>
-    <s v="Miscellaneous"/>
-    <s v="Details and Update"/>
+    <s v="Pulses-Grains"/>
+    <s v="Update"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1264,7 +1804,7 @@
     <n v="29"/>
     <x v="4"/>
     <s v="Pulses-Grains"/>
-    <s v="Add"/>
+    <s v="Delete"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1272,7 +1812,7 @@
     <n v="30"/>
     <x v="4"/>
     <s v="Pulses-Grains"/>
-    <s v="Update"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1280,28 +1820,12 @@
     <n v="31"/>
     <x v="4"/>
     <s v="Pulses-Grains"/>
-    <s v="Delete"/>
+    <s v="Details and Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="32"/>
-    <x v="4"/>
-    <s v="Pulses-Grains"/>
-    <s v="Listing"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <x v="4"/>
-    <s v="Pulses-Grains"/>
-    <s v="Details and Update"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="36"/>
     <x v="4"/>
     <s v="Tips and Guides"/>
     <s v="Add"/>
@@ -1309,7 +1833,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="37"/>
+    <n v="33"/>
     <x v="4"/>
     <s v="Tips and Guides"/>
     <s v="Update"/>
@@ -1317,7 +1841,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="38"/>
+    <n v="34"/>
     <x v="4"/>
     <s v="Tips and Guides"/>
     <s v="Delete"/>
@@ -1325,7 +1849,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="39"/>
+    <n v="35"/>
     <x v="4"/>
     <s v="Tips and Guides"/>
     <s v="Listing"/>
@@ -1333,42 +1857,74 @@
     <x v="0"/>
   </r>
   <r>
+    <n v="36"/>
+    <x v="4"/>
+    <s v="Vegetable"/>
+    <s v="Add"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="4"/>
+    <s v="Vegetable"/>
+    <s v="Update"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="4"/>
+    <s v="Vegetable"/>
+    <s v="Delete"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="4"/>
+    <s v="Vegetable"/>
+    <s v="Listing"/>
+    <m/>
+    <x v="0"/>
+  </r>
+  <r>
     <n v="40"/>
     <x v="4"/>
     <s v="Vegetable"/>
-    <s v="Add"/>
+    <s v="Details and Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="41"/>
     <x v="4"/>
-    <s v="Vegetable"/>
-    <s v="Update"/>
+    <s v="Dry Fruits"/>
+    <s v="Add"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="42"/>
     <x v="4"/>
-    <s v="Vegetable"/>
-    <s v="Delete"/>
+    <s v="Dry Fruits"/>
+    <s v="Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="43"/>
     <x v="4"/>
-    <s v="Vegetable"/>
-    <s v="Listing"/>
+    <s v="Dry Fruits"/>
+    <s v="Delete"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="44"/>
     <x v="4"/>
-    <s v="Vegetable"/>
-    <s v="Details and Update"/>
+    <s v="Dry Fruits"/>
+    <s v="Listing"/>
     <m/>
     <x v="0"/>
   </r>
@@ -1376,44 +1932,12 @@
     <n v="45"/>
     <x v="4"/>
     <s v="Dry Fruits"/>
-    <s v="Add"/>
+    <s v="Details and Update"/>
     <m/>
     <x v="0"/>
   </r>
   <r>
     <n v="46"/>
-    <x v="4"/>
-    <s v="Dry Fruits"/>
-    <s v="Update"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <x v="4"/>
-    <s v="Dry Fruits"/>
-    <s v="Delete"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <x v="4"/>
-    <s v="Dry Fruits"/>
-    <s v="Listing"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <x v="4"/>
-    <s v="Dry Fruits"/>
-    <s v="Details and Update"/>
-    <m/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="50"/>
     <x v="4"/>
     <s v="Work out Plan"/>
     <s v="Crud"/>
@@ -1421,7 +1945,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="51"/>
+    <n v="47"/>
     <x v="5"/>
     <s v="Lab Reports"/>
     <s v="Crud"/>
@@ -1429,7 +1953,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="52"/>
+    <n v="48"/>
     <x v="5"/>
     <s v="Lab Reports"/>
     <s v="Filters"/>
@@ -1437,7 +1961,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="53"/>
+    <n v="49"/>
     <x v="5"/>
     <s v="Radiology"/>
     <s v="Crud"/>
@@ -1445,7 +1969,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="54"/>
+    <n v="50"/>
     <x v="5"/>
     <s v="Radiology"/>
     <s v="Filters"/>
@@ -1453,7 +1977,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="55"/>
+    <n v="51"/>
     <x v="6"/>
     <s v="Admin Activity"/>
     <s v="Crud"/>
@@ -1461,7 +1985,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="56"/>
+    <n v="52"/>
     <x v="6"/>
     <s v="Admin Activity"/>
     <s v="Filters"/>
@@ -1469,47 +1993,47 @@
     <x v="0"/>
   </r>
   <r>
+    <n v="53"/>
+    <x v="6"/>
+    <s v="Customer"/>
+    <s v="Listing"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <x v="6"/>
+    <s v="Customer"/>
+    <s v="Add"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <x v="6"/>
+    <s v="Customer"/>
+    <s v="Update"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <x v="6"/>
+    <s v="Customer"/>
+    <s v="Delete"/>
+    <m/>
+    <x v="1"/>
+  </r>
+  <r>
     <n v="57"/>
     <x v="6"/>
     <s v="Customer"/>
-    <s v="Listing"/>
+    <s v="Filters"/>
     <m/>
     <x v="1"/>
   </r>
   <r>
     <n v="58"/>
-    <x v="6"/>
-    <s v="Customer"/>
-    <s v="Add"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="59"/>
-    <x v="6"/>
-    <s v="Customer"/>
-    <s v="Update"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="60"/>
-    <x v="6"/>
-    <s v="Customer"/>
-    <s v="Delete"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="61"/>
-    <x v="6"/>
-    <s v="Customer"/>
-    <s v="Filters"/>
-    <m/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="62"/>
     <x v="7"/>
     <s v="Laboratories "/>
     <s v="Crud"/>
@@ -1517,7 +2041,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="63"/>
+    <n v="59"/>
     <x v="7"/>
     <s v="Laboratories "/>
     <s v="Filters"/>
@@ -1525,7 +2049,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="64"/>
+    <n v="60"/>
     <x v="6"/>
     <s v="Login"/>
     <s v="Login"/>
@@ -1533,7 +2057,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="66"/>
+    <n v="61"/>
     <x v="6"/>
     <s v="Specialities"/>
     <s v="Crud"/>
@@ -1541,7 +2065,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="67"/>
+    <n v="62"/>
     <x v="6"/>
     <s v="Specialities"/>
     <s v="Filters"/>
@@ -1549,7 +2073,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="72"/>
+    <n v="63"/>
     <x v="8"/>
     <s v="Company"/>
     <s v="Crud"/>
@@ -1557,7 +2081,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="73"/>
+    <n v="64"/>
     <x v="8"/>
     <s v="Company"/>
     <s v="Filter"/>
@@ -1565,7 +2089,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="74"/>
+    <n v="65"/>
     <x v="8"/>
     <s v="Forms"/>
     <s v="Crud"/>
@@ -1573,7 +2097,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="75"/>
+    <n v="66"/>
     <x v="8"/>
     <s v="List"/>
     <s v="Crud"/>
@@ -1581,7 +2105,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="76"/>
+    <n v="67"/>
     <x v="8"/>
     <s v="List"/>
     <s v="Filter"/>
@@ -1589,7 +2113,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="77"/>
+    <n v="68"/>
     <x v="8"/>
     <s v="Take Type"/>
     <s v="Crud"/>
@@ -1597,7 +2121,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="78"/>
+    <n v="69"/>
     <x v="8"/>
     <s v="Timing"/>
     <s v="Crud"/>
@@ -1605,7 +2129,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="79"/>
+    <n v="70"/>
     <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Listing"/>
@@ -1613,7 +2137,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="80"/>
+    <n v="71"/>
     <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Add"/>
@@ -1621,7 +2145,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="81"/>
+    <n v="72"/>
     <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Update"/>
@@ -1629,7 +2153,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="82"/>
+    <n v="73"/>
     <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Delete"/>
@@ -1637,7 +2161,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="83"/>
+    <n v="74"/>
     <x v="9"/>
     <s v="LookUps (Nav)"/>
     <s v="Filters"/>
@@ -1645,7 +2169,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="84"/>
+    <n v="75"/>
     <x v="6"/>
     <s v="Admin Approval"/>
     <s v="List"/>
@@ -1653,7 +2177,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="85"/>
+    <n v="76"/>
     <x v="3"/>
     <s v="FAQS"/>
     <s v="Crud"/>
@@ -1661,7 +2185,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="86"/>
+    <n v="77"/>
     <x v="3"/>
     <s v="Diet Plan"/>
     <s v="Crud"/>
@@ -1669,7 +2193,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="87"/>
+    <n v="78"/>
     <x v="3"/>
     <s v="Work out Plan"/>
     <s v="Crud"/>
@@ -1677,7 +2201,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="88"/>
+    <n v="79"/>
     <x v="3"/>
     <s v="Tips and Guides"/>
     <s v="Crud"/>
@@ -1685,7 +2209,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="89"/>
+    <n v="80"/>
     <x v="3"/>
     <s v="Tips and Guides"/>
     <s v="Filter"/>
@@ -1693,7 +2217,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="90"/>
+    <n v="81"/>
     <x v="3"/>
     <s v="Exercise"/>
     <s v="Crud"/>
@@ -1701,7 +2225,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="91"/>
+    <n v="82"/>
     <x v="10"/>
     <s v="ClinTa Extended"/>
     <s v="Filter"/>
@@ -1709,7 +2233,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="92"/>
+    <n v="83"/>
     <x v="10"/>
     <s v="ClinTa Extended"/>
     <s v="Crud"/>
@@ -1717,7 +2241,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="93"/>
+    <n v="84"/>
     <x v="11"/>
     <s v="Fruits"/>
     <s v="Crud"/>
@@ -1725,7 +2249,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="94"/>
+    <n v="85"/>
     <x v="11"/>
     <s v="Vegetable"/>
     <s v="Crud"/>
@@ -1733,7 +2257,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="95"/>
+    <n v="86"/>
     <x v="11"/>
     <s v="Pulses-Grains"/>
     <s v="Crud"/>
@@ -1741,7 +2265,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="96"/>
+    <n v="87"/>
     <x v="11"/>
     <s v="Dry Fruits"/>
     <s v="Crud"/>
@@ -1749,7 +2273,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="97"/>
+    <n v="88"/>
     <x v="11"/>
     <s v="Miscellaneous"/>
     <s v="Crud"/>
@@ -1757,7 +2281,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="98"/>
+    <n v="89"/>
     <x v="12"/>
     <s v=" Users"/>
     <s v="Add"/>
@@ -1765,7 +2289,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="100"/>
+    <n v="90"/>
     <x v="9"/>
     <s v="List"/>
     <s v="Filter"/>
@@ -1773,7 +2297,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="101"/>
+    <n v="91"/>
     <x v="9"/>
     <s v="LookUps Options"/>
     <s v="Crud"/>
@@ -1781,7 +2305,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="102"/>
+    <n v="92"/>
     <x v="9"/>
     <s v="LookUps Options"/>
     <s v="Filter"/>
@@ -1789,7 +2313,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="103"/>
+    <n v="93"/>
     <x v="5"/>
     <s v="Lab Reports "/>
     <s v="Crud"/>
@@ -1797,7 +2321,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="104"/>
+    <n v="94"/>
     <x v="5"/>
     <s v="Radiology "/>
     <s v="Crud"/>
@@ -1805,7 +2329,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="105"/>
+    <n v="95"/>
     <x v="5"/>
     <s v="Lab Reports "/>
     <s v="Filter"/>
@@ -1813,7 +2337,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="106"/>
+    <n v="96"/>
     <x v="5"/>
     <s v="Radiology "/>
     <s v="Filter"/>
@@ -1821,7 +2345,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="107"/>
+    <n v="97"/>
     <x v="5"/>
     <s v="Lab Reports Parameters"/>
     <s v="Crud"/>
@@ -1829,7 +2353,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="108"/>
+    <n v="98"/>
     <x v="5"/>
     <s v="Radiology Parameters"/>
     <s v="Crud"/>
@@ -1837,7 +2361,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="109"/>
+    <n v="99"/>
     <x v="13"/>
     <s v="Sponsors"/>
     <s v="Crud"/>
@@ -1845,7 +2369,7 @@
     <x v="0"/>
   </r>
   <r>
-    <m/>
+    <n v="100"/>
     <x v="13"/>
     <s v="Sponsors Product"/>
     <s v="Crud"/>
@@ -1853,7 +2377,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="111"/>
+    <n v="101"/>
     <x v="13"/>
     <s v="Doctor Websites"/>
     <s v="Crud"/>
@@ -1861,7 +2385,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="112"/>
+    <n v="102"/>
     <x v="13"/>
     <s v="Doctor Websites"/>
     <s v="Filter"/>
@@ -1869,7 +2393,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="113"/>
+    <n v="103"/>
     <x v="13"/>
     <s v="Hospital Websites"/>
     <s v="Crud"/>
@@ -1877,7 +2401,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="114"/>
+    <n v="104"/>
     <x v="13"/>
     <s v="Hospital Websites"/>
     <s v="Filter"/>
@@ -1885,7 +2409,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="115"/>
+    <n v="105"/>
     <x v="13"/>
     <s v="Image Database"/>
     <s v="Crud"/>
@@ -1893,7 +2417,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="116"/>
+    <n v="106"/>
     <x v="13"/>
     <s v="General Banners"/>
     <s v="Crud"/>
@@ -1901,7 +2425,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="117"/>
+    <n v="107"/>
     <x v="14"/>
     <s v="Branches"/>
     <s v="Crud"/>
@@ -1909,7 +2433,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="118"/>
+    <n v="108"/>
     <x v="14"/>
     <s v="RCCS"/>
     <s v="Add"/>
@@ -1917,7 +2441,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="119"/>
+    <n v="109"/>
     <x v="14"/>
     <s v="RCCS"/>
     <s v="Update"/>
@@ -1925,7 +2449,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="120"/>
+    <n v="110"/>
     <x v="14"/>
     <s v="RCCS"/>
     <s v="Delete"/>
@@ -1933,7 +2457,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="121"/>
+    <n v="111"/>
     <x v="14"/>
     <s v="RCCS"/>
     <s v="List"/>
@@ -1941,7 +2465,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="121"/>
+    <n v="112"/>
     <x v="14"/>
     <s v="RCCS"/>
     <s v="ADD Recipt"/>
@@ -1949,7 +2473,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="122"/>
+    <n v="113"/>
     <x v="14"/>
     <s v="RCCS"/>
     <s v="Filter"/>
@@ -1957,7 +2481,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="123"/>
+    <n v="114"/>
     <x v="14"/>
     <s v="Discount Center"/>
     <s v="Crud"/>
@@ -1965,7 +2489,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <n v="115"/>
     <x v="14"/>
     <s v="Discounts Center List Discounts Center Doctors"/>
     <s v="Crud"/>
@@ -1973,7 +2497,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <n v="116"/>
     <x v="14"/>
     <s v="Discount Center Offer"/>
     <s v="Crud"/>
@@ -1981,7 +2505,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="124"/>
+    <n v="117"/>
     <x v="14"/>
     <s v="Support Vidoes"/>
     <s v="Add"/>
@@ -1989,7 +2513,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="125"/>
+    <n v="118"/>
     <x v="14"/>
     <s v="Support Vidoes"/>
     <s v="Update"/>
@@ -1997,7 +2521,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="126"/>
+    <n v="119"/>
     <x v="14"/>
     <s v="Support Vidoes"/>
     <s v="Delete"/>
@@ -2005,7 +2529,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="127"/>
+    <n v="120"/>
     <x v="14"/>
     <s v="Support Vidoes"/>
     <s v="List"/>
@@ -2013,7 +2537,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="128"/>
+    <n v="121"/>
     <x v="14"/>
     <s v="Diet Categories"/>
     <s v="Add"/>
@@ -2021,7 +2545,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="129"/>
+    <n v="122"/>
     <x v="15"/>
     <s v="Database Compare"/>
     <s v="Update"/>
@@ -2029,7 +2553,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="130"/>
+    <n v="123"/>
     <x v="15"/>
     <s v="Profile"/>
     <s v="Crud"/>
@@ -2037,7 +2561,7 @@
     <x v="1"/>
   </r>
   <r>
-    <n v="131"/>
+    <n v="124"/>
     <x v="15"/>
     <s v="Deafut Configration"/>
     <s v="List"/>
@@ -2045,7 +2569,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="132"/>
+    <n v="125"/>
     <x v="15"/>
     <s v="Deafut Lookup"/>
     <s v="Crud"/>
@@ -2053,7 +2577,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="133"/>
+    <n v="126"/>
     <x v="16"/>
     <s v="Pharmacy Profile"/>
     <s v="Crud"/>
@@ -2061,7 +2585,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="134"/>
+    <n v="127"/>
     <x v="16"/>
     <s v="Pharmacy Profile"/>
     <s v="Filter"/>
@@ -2069,7 +2593,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="135"/>
+    <n v="128"/>
     <x v="12"/>
     <s v=" Users"/>
     <s v="Update"/>
@@ -2077,7 +2601,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="136"/>
+    <n v="129"/>
     <x v="12"/>
     <s v=" Users"/>
     <s v="Delete"/>
@@ -2085,7 +2609,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="137"/>
+    <n v="130"/>
     <x v="12"/>
     <s v=" Users"/>
     <s v="Listing"/>
@@ -2093,7 +2617,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="138"/>
+    <n v="131"/>
     <x v="14"/>
     <s v="Diet Categories"/>
     <s v="Update"/>
@@ -2101,7 +2625,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="139"/>
+    <n v="132"/>
     <x v="14"/>
     <s v="Diet Categories"/>
     <s v="Delete"/>
@@ -2109,7 +2633,7 @@
     <x v="0"/>
   </r>
   <r>
-    <n v="140"/>
+    <n v="133"/>
     <x v="14"/>
     <s v="Diet Categories"/>
     <s v="List"/>
@@ -2117,15 +2641,7 @@
     <x v="0"/>
   </r>
   <r>
-    <m/>
-    <x v="17"/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="2"/>
-  </r>
-  <r>
-    <m/>
+    <n v="134"/>
     <x v="15"/>
     <s v="Profile Detail"/>
     <s v="Crud"/>
@@ -2133,7 +2649,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <n v="135"/>
     <x v="15"/>
     <s v="Add user"/>
     <s v="Crud"/>
@@ -2144,8 +2660,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
-  <location ref="A3:E23" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+  <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
@@ -2167,7 +2683,7 @@
         <item x="10"/>
         <item x="12"/>
         <item x="7"/>
-        <item x="17"/>
+        <item m="1" x="17"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2178,7 +2694,7 @@
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item h="1" m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2186,7 +2702,7 @@
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="19">
+  <rowItems count="18">
     <i>
       <x/>
     </i>
@@ -2238,9 +2754,6 @@
     <i>
       <x v="16"/>
     </i>
-    <i>
-      <x v="17"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2248,15 +2761,12 @@
   <colFields count="1">
     <field x="5"/>
   </colFields>
-  <colItems count="4">
+  <colItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2266,86 +2776,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="72">
+    <format dxfId="172">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="171">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="170">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="169">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="168">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="167">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="66">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="65">
+    <format dxfId="165">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="164">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="63">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="62">
+    <format dxfId="162">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="61">
+    <format dxfId="161">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="160">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="159">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="58">
+    <format dxfId="158">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="57">
+    <format dxfId="157">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="56">
+    <format dxfId="156">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="55">
+    <format dxfId="155">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="54">
+    <format dxfId="154">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="53">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="152">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="151">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2354,7 +2864,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="50">
+    <format dxfId="150">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2363,7 +2873,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="49">
+    <format dxfId="149">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2372,7 +2882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="148">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2381,7 +2891,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="147">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2390,7 +2900,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="146">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2413,24 +2923,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:F137" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44">
-  <autoFilter ref="A1:F137">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:F131">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+  <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" name="Sr. NO " dataDxfId="43"/>
-    <tableColumn id="1" name="Product" dataDxfId="42"/>
-    <tableColumn id="3" name="Segment" dataDxfId="41"/>
-    <tableColumn id="6" name="Sub Segment" dataDxfId="40"/>
-    <tableColumn id="4" name="Task" dataDxfId="39"/>
-    <tableColumn id="5" name="Status" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sr. NO " dataDxfId="143"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product" dataDxfId="142"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Segment" dataDxfId="141"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub Segment" dataDxfId="140"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Task" dataDxfId="139"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2752,24 +3256,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.375" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
@@ -2777,8 +3280,8 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:5" ht="4.5" customHeight="1"/>
-    <row r="3" spans="1:5" ht="18.75" hidden="1">
+    <row r="2" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
@@ -2787,9 +3290,8 @@
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75">
+    </row>
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -2800,13 +3302,10 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75">
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -2816,12 +3315,11 @@
       <c r="C5" s="9">
         <v>4</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9">
+      <c r="D5" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75">
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -2831,12 +3329,11 @@
       <c r="C6" s="9">
         <v>4</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9">
+      <c r="D6" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75">
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -2844,12 +3341,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75">
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -2857,12 +3353,11 @@
         <v>2</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9">
+      <c r="D8" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75">
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -2872,12 +3367,11 @@
       <c r="C9" s="9">
         <v>2</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9">
+      <c r="D9" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75">
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -2885,12 +3379,11 @@
       <c r="C10" s="9">
         <v>1</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9">
+      <c r="D10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -2898,12 +3391,11 @@
         <v>5</v>
       </c>
       <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="D11" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="18.75">
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -2911,12 +3403,12 @@
         <v>4</v>
       </c>
       <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13">
+      <c r="D12" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.75">
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>43</v>
       </c>
@@ -2924,12 +3416,11 @@
         <v>7</v>
       </c>
       <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
+      <c r="D13" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75">
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -2937,12 +3428,11 @@
         <v>36</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9">
+      <c r="D14" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75">
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>55</v>
       </c>
@@ -2950,12 +3440,11 @@
         <v>10</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9">
+      <c r="D15" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2963,12 +3452,11 @@
         <v>8</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9">
+      <c r="D16" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18.75">
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -2978,12 +3466,11 @@
       <c r="C17" s="9">
         <v>5</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9">
+      <c r="D17" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18.75">
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
@@ -2991,12 +3478,11 @@
         <v>7</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9">
+      <c r="D18" s="9">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18.75">
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>77</v>
       </c>
@@ -3004,12 +3490,11 @@
       <c r="C19" s="9">
         <v>2</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9">
+      <c r="D19" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18.75">
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>78</v>
       </c>
@@ -3017,12 +3502,11 @@
         <v>4</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9">
+      <c r="D20" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18.75">
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>86</v>
       </c>
@@ -3030,35 +3514,25 @@
         <v>2</v>
       </c>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
+      <c r="D21" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18.75">
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" ht="18.75">
-      <c r="A23" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B22" s="9">
         <v>117</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C22" s="9">
         <v>18</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9">
+      <c r="D22" s="9">
         <v>135</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -3068,25 +3542,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F137"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.625" customWidth="1"/>
-    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3106,7 +3580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" hidden="1">
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3124,7 +3598,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" hidden="1">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3142,7 +3616,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" hidden="1">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3160,9 +3634,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" hidden="1">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>21</v>
@@ -3178,9 +3652,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>34</v>
@@ -3194,9 +3668,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" hidden="1">
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>42</v>
@@ -3212,9 +3686,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" hidden="1">
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>42</v>
@@ -3230,9 +3704,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" hidden="1">
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>42</v>
@@ -3248,9 +3722,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" hidden="1">
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>42</v>
@@ -3266,9 +3740,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" hidden="1">
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>43</v>
@@ -3284,9 +3758,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" hidden="1">
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>49</v>
@@ -3302,9 +3776,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" hidden="1">
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>49</v>
@@ -3320,9 +3794,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" hidden="1">
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>49</v>
@@ -3338,9 +3812,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" hidden="1">
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>49</v>
@@ -3356,9 +3830,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" hidden="1">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>49</v>
@@ -3374,9 +3848,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" hidden="1">
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>49</v>
@@ -3392,9 +3866,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" hidden="1">
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>49</v>
@@ -3410,9 +3884,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" hidden="1">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>49</v>
@@ -3428,9 +3902,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" hidden="1">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>49</v>
@@ -3446,9 +3920,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" hidden="1">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>49</v>
@@ -3464,9 +3938,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" hidden="1">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>49</v>
@@ -3482,9 +3956,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" hidden="1">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>49</v>
@@ -3500,9 +3974,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" hidden="1">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>49</v>
@@ -3518,9 +3992,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" hidden="1">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>49</v>
@@ -3536,9 +4010,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" hidden="1">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>49</v>
@@ -3554,9 +4028,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" hidden="1">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>49</v>
@@ -3572,9 +4046,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" hidden="1">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>49</v>
@@ -3590,9 +4064,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" hidden="1">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>49</v>
@@ -3608,9 +4082,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" hidden="1">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>49</v>
@@ -3626,9 +4100,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" hidden="1">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>49</v>
@@ -3644,9 +4118,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" hidden="1">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>49</v>
@@ -3662,9 +4136,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" hidden="1">
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>49</v>
@@ -3680,9 +4154,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" hidden="1">
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>49</v>
@@ -3698,9 +4172,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" hidden="1">
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>49</v>
@@ -3716,9 +4190,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" hidden="1">
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>49</v>
@@ -3734,9 +4208,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" hidden="1">
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>49</v>
@@ -3752,9 +4226,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" hidden="1">
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>49</v>
@@ -3770,9 +4244,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" hidden="1">
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>49</v>
@@ -3788,9 +4262,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" hidden="1">
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>49</v>
@@ -3806,9 +4280,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" hidden="1">
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>49</v>
@@ -3824,9 +4298,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" hidden="1">
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>49</v>
@@ -3842,9 +4316,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" hidden="1">
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>49</v>
@@ -3860,9 +4334,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" hidden="1">
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>49</v>
@@ -3878,9 +4352,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" hidden="1">
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>49</v>
@@ -3896,9 +4370,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" hidden="1">
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>49</v>
@@ -3914,9 +4388,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" hidden="1">
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>49</v>
@@ -3932,9 +4406,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" hidden="1">
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>55</v>
@@ -3950,9 +4424,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" hidden="1">
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>55</v>
@@ -3968,9 +4442,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" hidden="1">
+    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>55</v>
@@ -3986,9 +4460,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" hidden="1">
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>55</v>
@@ -4004,9 +4478,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" hidden="1">
+    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>64</v>
@@ -4022,9 +4496,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" hidden="1">
+    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>64</v>
@@ -4040,9 +4514,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75">
+    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>64</v>
@@ -4058,9 +4532,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75">
+    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>64</v>
@@ -4076,9 +4550,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75">
+    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>64</v>
@@ -4094,9 +4568,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75">
+    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>64</v>
@@ -4112,9 +4586,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75">
+    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>64</v>
@@ -4130,9 +4604,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" hidden="1">
+    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>86</v>
@@ -4148,9 +4622,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" hidden="1">
+    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>86</v>
@@ -4166,9 +4640,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" hidden="1">
+    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>64</v>
@@ -4184,9 +4658,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" hidden="1">
+    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>64</v>
@@ -4202,9 +4676,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" hidden="1">
+    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>64</v>
@@ -4220,9 +4694,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" hidden="1">
+    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>72</v>
@@ -4238,9 +4712,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" hidden="1">
+    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>72</v>
@@ -4256,9 +4730,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" hidden="1">
+    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>72</v>
@@ -4274,9 +4748,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" hidden="1">
+    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>72</v>
@@ -4292,9 +4766,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" hidden="1">
+    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>72</v>
@@ -4310,9 +4784,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" hidden="1">
+    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>72</v>
@@ -4328,9 +4802,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" hidden="1">
+    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>72</v>
@@ -4346,9 +4820,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" hidden="1">
+    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>62</v>
@@ -4364,9 +4838,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" hidden="1">
+    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>62</v>
@@ -4382,9 +4856,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" hidden="1">
+    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>62</v>
@@ -4400,9 +4874,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" hidden="1">
+    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>62</v>
@@ -4418,9 +4892,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" hidden="1">
+    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>62</v>
@@ -4436,9 +4910,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" hidden="1">
+    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>64</v>
@@ -4454,9 +4928,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" hidden="1">
+    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>43</v>
@@ -4472,9 +4946,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" hidden="1">
+    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>43</v>
@@ -4490,9 +4964,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" hidden="1">
+    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>43</v>
@@ -4508,9 +4982,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" hidden="1">
+    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>43</v>
@@ -4526,9 +5000,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" hidden="1">
+    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>43</v>
@@ -4544,9 +5018,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" hidden="1">
+    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>43</v>
@@ -4562,9 +5036,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75">
+    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>77</v>
@@ -4580,9 +5054,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75">
+    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>77</v>
@@ -4598,9 +5072,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" hidden="1">
+    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>36</v>
@@ -4616,9 +5090,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" hidden="1">
+    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>36</v>
@@ -4634,9 +5108,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" hidden="1">
+    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>36</v>
@@ -4652,9 +5126,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" hidden="1">
+    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>36</v>
@@ -4670,9 +5144,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" hidden="1">
+    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>36</v>
@@ -4688,9 +5162,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" hidden="1">
+    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>78</v>
@@ -4706,9 +5180,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" hidden="1">
+    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>62</v>
@@ -4724,9 +5198,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" hidden="1">
+    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>62</v>
@@ -4742,9 +5216,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" hidden="1">
+    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>62</v>
@@ -4760,9 +5234,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" hidden="1">
+    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>55</v>
@@ -4778,9 +5252,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" hidden="1">
+    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>55</v>
@@ -4796,9 +5270,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" hidden="1">
+    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>55</v>
@@ -4814,9 +5288,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" hidden="1">
+    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>55</v>
@@ -4832,9 +5306,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" hidden="1">
+    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>55</v>
@@ -4850,9 +5324,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" hidden="1">
+    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>55</v>
@@ -4868,9 +5342,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" hidden="1">
+    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>28</v>
@@ -4882,33 +5356,35 @@
         <v>11</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" hidden="1">
-      <c r="A101" s="2"/>
+    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
       <c r="B101" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75">
+    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>28</v>
@@ -4920,15 +5396,15 @@
         <v>11</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75">
+    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>28</v>
@@ -4944,9 +5420,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" hidden="1">
+    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>28</v>
@@ -4962,9 +5438,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" hidden="1">
+    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>28</v>
@@ -4980,9 +5456,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" hidden="1">
+    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>28</v>
@@ -4998,9 +5474,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" hidden="1">
+    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>28</v>
@@ -5012,15 +5488,15 @@
         <v>11</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75">
+    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>14</v>
@@ -5036,9 +5512,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" hidden="1">
+    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>14</v>
@@ -5054,9 +5530,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" hidden="1">
+    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>14</v>
@@ -5072,9 +5548,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" hidden="1">
+    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>14</v>
@@ -5090,9 +5566,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" hidden="1">
+    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>14</v>
@@ -5108,9 +5584,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" hidden="1">
+    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>14</v>
@@ -5126,9 +5602,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" hidden="1">
+    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>14</v>
@@ -5144,9 +5620,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75">
+    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>14</v>
@@ -5162,13 +5638,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75">
-      <c r="A116" s="2"/>
+    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
       <c r="B116" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>11</v>
@@ -5178,13 +5656,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75">
-      <c r="A117" s="2"/>
+    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
       <c r="B117" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>11</v>
@@ -5194,9 +5674,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" hidden="1">
+    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>14</v>
@@ -5212,9 +5692,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" hidden="1">
+    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>14</v>
@@ -5230,9 +5710,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" hidden="1">
+    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>14</v>
@@ -5248,9 +5728,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" hidden="1">
+    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>14</v>
@@ -5266,9 +5746,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" hidden="1">
+    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>14</v>
@@ -5284,9 +5764,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75">
+    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>6</v>
@@ -5302,9 +5782,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75">
+    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>6</v>
@@ -5316,15 +5796,15 @@
         <v>11</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" hidden="1">
+    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
@@ -5340,9 +5820,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" hidden="1">
+    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>6</v>
@@ -5358,9 +5838,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" hidden="1">
+    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>26</v>
@@ -5376,9 +5856,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" hidden="1">
+    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>26</v>
@@ -5394,9 +5874,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" hidden="1">
+    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>78</v>
@@ -5412,9 +5892,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" hidden="1">
+    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>78</v>
@@ -5430,9 +5910,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" hidden="1">
+    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>78</v>
@@ -5448,9 +5928,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" hidden="1">
+    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>14</v>
@@ -5466,9 +5946,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" hidden="1">
+    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>14</v>
@@ -5484,9 +5964,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" hidden="1">
+    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>14</v>
@@ -5502,23 +5982,33 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" hidden="1">
-      <c r="A135" s="2"/>
+    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
       <c r="B135" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E135" s="2"/>
-      <c r="F135" s="2"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75">
-      <c r="A136" s="2"/>
+      <c r="F135" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
       <c r="B136" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>11</v>
@@ -5528,33 +6018,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="2"/>
-      <c r="F137" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F137">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:F136">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/docs/Admin Task List & Summary.xlsx
+++ b/docs/Admin Task List & Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\admin.dright.net\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/ServBay/www/admin.dright.net/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F8A415-C09D-480B-A0D0-3BEFE5C347D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3B62A6-0D3E-C247-BAEF-56EF21922D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -432,317 +432,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="173">
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -770,471 +460,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Eras Medium ITC"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2660,7 +1885,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Product Segments" colHeaderCaption=" ">
   <location ref="A3:D22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -2776,86 +2001,86 @@
     <dataField name=" " fld="5" subtotal="count" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="27">
-    <format dxfId="172">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="171">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="170">
+    <format dxfId="35">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="169">
+    <format dxfId="34">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="168">
+    <format dxfId="33">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="167">
+    <format dxfId="32">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="166">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="165">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="164">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="163">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="162">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="161">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="160">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="159">
+    <format dxfId="24">
       <pivotArea field="5" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="158">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="157">
+    <format dxfId="22">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="156">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="155">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="154">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="153">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="152">
+    <format dxfId="17">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="151">
+    <format dxfId="16">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2864,7 +2089,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="150">
+    <format dxfId="15">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2873,7 +2098,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="149">
+    <format dxfId="14">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2882,7 +2107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="148">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2891,7 +2116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="147">
+    <format dxfId="12">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2900,7 +2125,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="146">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -2923,18 +2148,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="145" dataDxfId="144">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:F136" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F131">
     <sortCondition ref="A4:A131"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sr. NO " dataDxfId="143"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product" dataDxfId="142"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Segment" dataDxfId="141"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub Segment" dataDxfId="140"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Task" dataDxfId="139"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Sr. NO " dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Product" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Segment" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Sub Segment" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Task" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Status" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3257,22 +2482,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>83</v>
       </c>
@@ -3280,8 +2506,8 @@
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>82</v>
       </c>
@@ -3291,7 +2517,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>81</v>
       </c>
@@ -3305,7 +2531,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
@@ -3319,7 +2545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -3333,7 +2559,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
@@ -3345,7 +2571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>26</v>
       </c>
@@ -3357,7 +2583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
@@ -3371,7 +2597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -3383,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>36</v>
       </c>
@@ -3395,7 +2621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>42</v>
       </c>
@@ -3408,7 +2634,7 @@
       </c>
       <c r="E12"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>43</v>
       </c>
@@ -3420,7 +2646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>49</v>
       </c>
@@ -3432,7 +2658,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>55</v>
       </c>
@@ -3444,7 +2670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
@@ -3456,7 +2682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>64</v>
       </c>
@@ -3470,7 +2696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>72</v>
       </c>
@@ -3482,7 +2708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>77</v>
       </c>
@@ -3494,7 +2720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>78</v>
       </c>
@@ -3506,7 +2732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>86</v>
       </c>
@@ -3518,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>80</v>
       </c>
@@ -3532,7 +2758,6 @@
         <v>135</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -3546,21 +2771,21 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F114" sqref="F114"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3580,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3598,7 +2823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3616,7 +2841,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3634,7 +2859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3652,7 +2877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3668,7 +2893,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3686,7 +2911,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3704,7 +2929,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3722,7 +2947,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3740,7 +2965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3758,7 +2983,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3776,7 +3001,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3794,7 +3019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3812,7 +3037,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3830,7 +3055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3848,7 +3073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3866,7 +3091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3884,7 +3109,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3902,7 +3127,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3920,7 +3145,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3938,7 +3163,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3956,7 +3181,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3974,7 +3199,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3992,7 +3217,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4010,7 +3235,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4028,7 +3253,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4046,7 +3271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4064,7 +3289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4082,7 +3307,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4100,7 +3325,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4118,7 +3343,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4136,7 +3361,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4154,7 +3379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4172,7 +3397,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4190,7 +3415,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4208,7 +3433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4226,7 +3451,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4244,7 +3469,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4262,7 +3487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4280,7 +3505,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4298,7 +3523,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4316,7 +3541,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4334,7 +3559,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4352,7 +3577,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4370,7 +3595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4388,7 +3613,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -4406,7 +3631,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -4424,7 +3649,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -4442,7 +3667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -4460,7 +3685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4478,7 +3703,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -4496,7 +3721,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -4514,7 +3739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -4532,7 +3757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -4550,7 +3775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -4568,7 +3793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -4586,7 +3811,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -4604,7 +3829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -4622,7 +3847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -4640,7 +3865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -4658,7 +3883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -4676,7 +3901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4694,7 +3919,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4712,7 +3937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4730,7 +3955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4748,7 +3973,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4766,7 +3991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4784,7 +4009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4802,7 +4027,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -4820,7 +4045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -4838,7 +4063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -4856,7 +4081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -4874,7 +4099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4892,7 +4117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4910,7 +4135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4928,7 +4153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4946,7 +4171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4964,7 +4189,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4982,7 +4207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -5000,7 +4225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -5018,7 +4243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -5036,7 +4261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -5054,7 +4279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -5072,7 +4297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -5090,7 +4315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -5108,7 +4333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -5126,7 +4351,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -5144,7 +4369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -5162,7 +4387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -5180,7 +4405,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -5198,7 +4423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -5216,7 +4441,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -5234,7 +4459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -5252,7 +4477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -5270,7 +4495,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -5288,7 +4513,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -5306,7 +4531,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -5324,7 +4549,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -5342,7 +4567,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -5362,7 +4587,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -5382,7 +4607,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -5402,7 +4627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -5420,7 +4645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -5438,7 +4663,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5456,7 +4681,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5474,7 +4699,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5494,7 +4719,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5512,7 +4737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5530,7 +4755,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5548,7 +4773,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5566,7 +4791,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5584,7 +4809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5602,7 +4827,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -5620,7 +4845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -5638,7 +4863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -5656,7 +4881,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -5674,7 +4899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -5692,7 +4917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -5710,7 +4935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5728,7 +4953,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5746,7 +4971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5764,7 +4989,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5782,7 +5007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5802,7 +5027,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5820,7 +5045,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5838,7 +5063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5856,7 +5081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5874,7 +5099,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -5892,7 +5117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -5910,7 +5135,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -5928,7 +5153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5946,7 +5171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5964,7 +5189,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -5982,7 +5207,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -6000,7 +5225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -6020,15 +5245,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F136">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Complete"</formula>
     </cfRule>
   </conditionalFormatting>
